--- a/NIIT-GUET-2022-Batch-2-Group2_开发日报.xlsx
+++ b/NIIT-GUET-2022-Batch-2-Group2_开发日报.xlsx
@@ -20,13 +20,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={86396FC6-96BD-4E67-A7A4-4603D3F9F6DE}</author>
-    <author>tc={FFB3EA2E-D4E7-4CAC-9953-62B82DF116B4}</author>
-    <author>tc={1D103125-2D06-4A50-8B4B-B64F32E8A5D8}</author>
-    <author>tc={BFA91FFC-55CC-4C39-9207-D30F580DB259}</author>
+    <author>tc={F7C058F4-8043-4065-860F-9E01BD524755}</author>
+    <author>tc={9169B691-F0E1-47A0-8DDC-725CF4B66757}</author>
+    <author>tc={B906293C-F26F-47F4-9C82-447AA421D8DF}</author>
+    <author>tc={6E2E4C5E-3035-46E3-9073-59E93F42F799}</author>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <t>NIIT:
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="1">
+    <comment ref="D11" authorId="1">
       <text>
         <r>
           <t>NIIT:
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="2">
+    <comment ref="E11" authorId="2">
       <text>
         <r>
           <t>NIIT:
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="3">
+    <comment ref="G11" authorId="3">
       <text>
         <r>
           <t>NIIT:
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t/>
   </si>
@@ -90,61 +90,168 @@
     <t>队员姓名</t>
   </si>
   <si>
+    <t>杨俊杰</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>221603020430</t>
+  </si>
+  <si>
+    <t>主要负责模块</t>
+  </si>
+  <si>
+    <t>跳蚤市场：1.收集资料  2.确定排版样式  3.编写代码</t>
+  </si>
+  <si>
+    <t>队员总完成度</t>
+  </si>
+  <si>
+    <t>任务模块</t>
+  </si>
+  <si>
+    <t>任务占比</t>
+  </si>
+  <si>
+    <t>任务（预）实现技术</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>计划完成</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>开发心得</t>
+  </si>
+  <si>
+    <t>遇到的问题</t>
+  </si>
+  <si>
+    <t>明日计划</t>
+  </si>
+  <si>
+    <t>当日任务完成度</t>
+  </si>
+  <si>
+    <t>任务完成度</t>
+  </si>
+  <si>
+    <t>收集资料</t>
+  </si>
+  <si>
+    <t>浏览器搜索</t>
+  </si>
+  <si>
+    <t>收集部分资料</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>收集和查阅资料很累，但是过程很开心</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>很糟糕，网络不好</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>确定排版样式</t>
+  </si>
+  <si>
+    <t>周末给自己放假</t>
+  </si>
+  <si>
+    <t>查找文献</t>
+  </si>
+  <si>
+    <t>文献里的东西让我感到惊讶，我感觉我学的还是太少了</t>
+  </si>
+  <si>
+    <t>浏览许多网站界面，寻找灵感</t>
+  </si>
+  <si>
+    <t>浏览网站寻找灵感</t>
+  </si>
+  <si>
+    <t>又学到很多知识</t>
+  </si>
+  <si>
+    <t>凌建华</t>
+  </si>
+  <si>
+    <t>221603020427</t>
+  </si>
+  <si>
+    <t>1. 整合与搜索所需材料
+2. 物品详细页面</t>
+  </si>
+  <si>
+    <t>1.整合与搜索所需材料</t>
+  </si>
+  <si>
+    <t>网络搜索与整合</t>
+  </si>
+  <si>
+    <t>收集相关材料图片</t>
+  </si>
+  <si>
+    <t>bing搜索确实好用</t>
+  </si>
+  <si>
+    <t>没有好的图片素材</t>
+  </si>
+  <si>
+    <t>找更好的素材</t>
+  </si>
+  <si>
+    <t>整合材料</t>
+  </si>
+  <si>
+    <t>文心一言整合文字确实挺不错的</t>
+  </si>
+  <si>
+    <t>继续整合</t>
+  </si>
+  <si>
+    <t>发现好多好玩的二手物品</t>
+  </si>
+  <si>
+    <t>图片素材不够清晰</t>
+  </si>
+  <si>
+    <t>利用工具高清画图片</t>
+  </si>
+  <si>
+    <t>2.物品详细页面</t>
+  </si>
+  <si>
+    <t>JavaScript
+bootsrap</t>
+  </si>
+  <si>
     <t>陈伟安</t>
   </si>
   <si>
-    <t>学号</t>
-  </si>
-  <si>
     <t>221603020429</t>
-  </si>
-  <si>
-    <t>主要负责模块</t>
   </si>
   <si>
     <t>1.物品发布页资料收集
 2.编写网页代码</t>
   </si>
   <si>
-    <t>队员总完成度</t>
-  </si>
-  <si>
-    <t>任务模块</t>
-  </si>
-  <si>
-    <t>任务占比</t>
-  </si>
-  <si>
-    <t>任务（预）实现技术</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>计划完成</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>未完成</t>
-  </si>
-  <si>
-    <t>开发心得</t>
-  </si>
-  <si>
-    <t>遇到的问题</t>
-  </si>
-  <si>
-    <t>明日计划</t>
-  </si>
-  <si>
-    <t>当日任务完成度</t>
-  </si>
-  <si>
-    <t>任务完成度</t>
-  </si>
-  <si>
     <t>物品发布页资料收集</t>
   </si>
   <si>
@@ -184,156 +291,10 @@
     <t>编写网页代码</t>
   </si>
   <si>
-    <t>凌建华</t>
-  </si>
-  <si>
-    <t>221603020427</t>
-  </si>
-  <si>
-    <t>1. 整合与搜索所需材料
-2. 物品详细页面</t>
-  </si>
-  <si>
-    <t>1.整合与搜索所需材料</t>
-  </si>
-  <si>
-    <t>网络搜索与整合</t>
-  </si>
-  <si>
-    <t>收集相关材料图片</t>
-  </si>
-  <si>
-    <t>bing搜索确实好用</t>
-  </si>
-  <si>
-    <t>没有好的图片素材</t>
-  </si>
-  <si>
-    <t>找更好的素材</t>
-  </si>
-  <si>
-    <t>整合材料</t>
-  </si>
-  <si>
-    <t>文心一言整合文字确实挺不错的</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>继续整合</t>
-  </si>
-  <si>
-    <t>发现好多好玩的二手物品</t>
-  </si>
-  <si>
-    <t>图片素材不够清晰</t>
-  </si>
-  <si>
-    <t>利用工具高清画图片</t>
-  </si>
-  <si>
-    <t>2.物品详细页面</t>
-  </si>
-  <si>
-    <t>JavaScript
-bootsrap</t>
-  </si>
-  <si>
-    <t>杨俊杰</t>
-  </si>
-  <si>
-    <t>221603020430</t>
-  </si>
-  <si>
-    <t>跳蚤市场：1.收集资料  2.确定排版样式  3.编写代码</t>
-  </si>
-  <si>
-    <t>收集资料</t>
-  </si>
-  <si>
-    <t>浏览器搜索</t>
-  </si>
-  <si>
-    <t>收集部分资料</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>收集和查阅资料很累，但是过程很开心</t>
-  </si>
-  <si>
-    <t>很糟糕，网络不好</t>
-  </si>
-  <si>
-    <t>休息</t>
-  </si>
-  <si>
-    <t>确定排版样式</t>
-  </si>
-  <si>
-    <t>周末给自己放假</t>
-  </si>
-  <si>
-    <t>查找文献</t>
-  </si>
-  <si>
-    <t>文献里的东西让我感到惊讶，我感觉我学的还是太少了</t>
-  </si>
-  <si>
-    <t>浏览许多网站界面，寻找灵感</t>
-  </si>
-  <si>
-    <t>浏览网站寻找灵感</t>
-  </si>
-  <si>
-    <t>又学到很多知识</t>
-  </si>
-  <si>
     <t>蒋祖为</t>
   </si>
   <si>
     <t>221603020428</t>
-  </si>
-  <si>
-    <t>1. 首页
-2. 用户登录与注册页面
-3.JS代码编写</t>
-  </si>
-  <si>
-    <t>1. 首页</t>
-  </si>
-  <si>
-    <t>1. PhotoShop
-2. HTML5 + CSS
-3. BootStrap</t>
-  </si>
-  <si>
-    <t>1. 网站Logo设计</t>
-  </si>
-  <si>
-    <t>使用Logo生成器，生成部分艺术字，再使用PhotoShop微调，达到想要的效果</t>
-  </si>
-  <si>
-    <t>2. 用户登录与注册页面</t>
-  </si>
-  <si>
-    <t>1. HTML5 + CSS
-2. JavaScript</t>
-  </si>
-  <si>
-    <t>3. JS代码编写</t>
-  </si>
-  <si>
-    <t>1. JavaScript
-2. jQuery</t>
-  </si>
-  <si>
-    <t>1. 利用浏览器localStorage实现本地多用户的注册与登录</t>
-  </si>
-  <si>
-    <t>4. 文档（word、ppt）</t>
   </si>
   <si>
     <t>1. xxx
@@ -424,10 +385,62 @@
     <t>任务划分</t>
   </si>
   <si>
+    <t>1. 首页
+2. 用户登录与注册页面
+3.JS代码编写</t>
+  </si>
+  <si>
     <t>总完成度</t>
   </si>
   <si>
     <t>注：该文档，由组长创建在线共享文档，然后监督促队员的开发进度。</t>
+  </si>
+  <si>
+    <t>1. 首页</t>
+  </si>
+  <si>
+    <t>1. PhotoShop
+2. HTML5 + CSS
+3. BootStrap
+4. jQuery</t>
+  </si>
+  <si>
+    <t>1. 网站Logo设计</t>
+  </si>
+  <si>
+    <t>使用Logo生成器，生成部分艺术字，再使用PhotoShop微调，达到想要的效果</t>
+  </si>
+  <si>
+    <t>1. 初步完成顶部导航栏，实现折叠功能</t>
+  </si>
+  <si>
+    <t>在菜鸟教程上学习了相关效果的实现方法</t>
+  </si>
+  <si>
+    <t>2. 用户登录与注册页面</t>
+  </si>
+  <si>
+    <t>1. HTML5 + CSS
+2. JavaScript
+3. jQuery</t>
+  </si>
+  <si>
+    <t>1. 初步完成登录、注册页面</t>
+  </si>
+  <si>
+    <t>3. JS代码编写</t>
+  </si>
+  <si>
+    <t>1. JavaScript</t>
+  </si>
+  <si>
+    <t>1. 利用浏览器localStorage对象实现本地多用户的注册与登录</t>
+  </si>
+  <si>
+    <t>折腾了好几个小时，后面才发现localStorage只能存储字符串，需要把数组或JS对象进行相应转换才能存储与读取</t>
+  </si>
+  <si>
+    <t>4. 文档（word、ppt）</t>
   </si>
   <si>
     <r>
@@ -672,15 +685,15 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <b val="true"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="18"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="true"/>
       <color theme="1"/>
-      <sz val="18"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="等线"/>
@@ -746,10 +759,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="52">
@@ -899,328 +912,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+    </border>
     <border/>
     <border/>
     <border/>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color auto="true"/>
@@ -1333,6 +1041,311 @@
         <color auto="true"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0"/>
@@ -1543,7 +1556,6 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="4" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="14" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="4" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1553,241 +1565,86 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="15" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="14" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="15" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="16" xfId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0">
+    <xf fontId="0" fillId="0" borderId="17" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="14" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="14" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="20" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="14" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="20" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0">
-      <alignment vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="20" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="21" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="23" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="23" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="24" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="26" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="26" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="27" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="29" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="30" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="32" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="32" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="32" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="33" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="35" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="37" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="38" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="39" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="39" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="39" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="17" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1819,10 +1676,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="10" fillId="5" borderId="23" xfId="0">
+    <xf fontId="10" fillId="4" borderId="30" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="11" fillId="5" borderId="23" xfId="0">
+    <xf fontId="11" fillId="4" borderId="30" xfId="0">
       <alignment/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="3" borderId="4" xfId="0">
@@ -1835,6 +1692,162 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="33" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="33" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="33" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="34" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="30" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="36" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="30" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="38" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="38" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="39" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="41" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="42" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="44" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="44" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="44" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="45" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="47" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="50" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="51" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="51" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="51" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="7" fillId="3" borderId="9" xfId="0"/>
@@ -1844,7 +1857,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <tc2018:personList xmlns:tc2018="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <tc2018:person displayName="小莱" id="{D6D0C75C-6294-4FE2-B953-6857E3D049CE}"/>
+  <tc2018:person displayName="小莱" id="{9EEC5405-0EC7-4913-A3D1-B47CCE1F39AA}"/>
 </tc2018:personList>
 </file>
 
@@ -2105,19 +2118,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <tc2018:ThreadedComments xmlns:tc2018="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <tc2018:threadedComment ref="D11" dT="2023-11-01T02:50:35Z" personId="{D6D0C75C-6294-4FE2-B953-6857E3D049CE}" id="{86396FC6-96BD-4E67-A7A4-4603D3F9F6DE}">
+  <tc2018:threadedComment ref="F11" dT="2023-11-01T02:50:35Z" personId="{9EEC5405-0EC7-4913-A3D1-B47CCE1F39AA}" id="{F7C058F4-8043-4065-860F-9E01BD524755}">
     <tc2018:text>NIIT:
 由队长评估</tc2018:text>
   </tc2018:threadedComment>
-  <tc2018:threadedComment ref="F11" dT="2023-11-01T02:50:35Z" personId="{D6D0C75C-6294-4FE2-B953-6857E3D049CE}" id="{FFB3EA2E-D4E7-4CAC-9953-62B82DF116B4}">
+  <tc2018:threadedComment ref="D11" dT="2023-11-01T02:50:35Z" personId="{9EEC5405-0EC7-4913-A3D1-B47CCE1F39AA}" id="{9169B691-F0E1-47A0-8DDC-725CF4B66757}">
     <tc2018:text>NIIT:
 由队长评估</tc2018:text>
   </tc2018:threadedComment>
-  <tc2018:threadedComment ref="G11" dT="2023-11-01T02:50:35Z" personId="{D6D0C75C-6294-4FE2-B953-6857E3D049CE}" id="{1D103125-2D06-4A50-8B4B-B64F32E8A5D8}">
+  <tc2018:threadedComment ref="E11" dT="2023-11-01T02:50:35Z" personId="{9EEC5405-0EC7-4913-A3D1-B47CCE1F39AA}" id="{B906293C-F26F-47F4-9C82-447AA421D8DF}">
     <tc2018:text>NIIT:
 由队长评估</tc2018:text>
   </tc2018:threadedComment>
-  <tc2018:threadedComment ref="E11" dT="2023-11-01T02:50:35Z" personId="{D6D0C75C-6294-4FE2-B953-6857E3D049CE}" id="{BFA91FFC-55CC-4C39-9207-D30F580DB259}">
+  <tc2018:threadedComment ref="G11" dT="2023-11-01T02:50:35Z" personId="{9EEC5405-0EC7-4913-A3D1-B47CCE1F39AA}" id="{6E2E4C5E-3035-46E3-9073-59E93F42F799}">
     <tc2018:text>NIIT:
 由队长评估</tc2018:text>
   </tc2018:threadedComment>
@@ -2143,170 +2156,170 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="30" customHeight="true">
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="106" t="s"/>
-      <c r="E2" s="106" t="s"/>
-      <c r="F2" s="106" t="s"/>
-      <c r="G2" s="107" t="s"/>
+      <c r="D2" s="54" t="s"/>
+      <c r="E2" s="54" t="s"/>
+      <c r="F2" s="54" t="s"/>
+      <c r="G2" s="55" t="s"/>
     </row>
     <row r="3" spans="3:7">
-      <c r="C3" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="109" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="110" t="s"/>
-      <c r="F3" s="110" t="s"/>
-      <c r="G3" s="111" t="s"/>
+      <c r="C3" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="58" t="s"/>
+      <c r="F3" s="58" t="s"/>
+      <c r="G3" s="59" t="s"/>
     </row>
     <row r="4" spans="3:7" ht="145.5" customHeight="true">
-      <c r="C4" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="113" t="s"/>
-      <c r="F4" s="113" t="s"/>
-      <c r="G4" s="113" t="s"/>
+      <c r="C4" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="61" t="s"/>
+      <c r="F4" s="61" t="s"/>
+      <c r="G4" s="61" t="s"/>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="114" t="s"/>
-      <c r="F5" s="114" t="s"/>
-      <c r="G5" s="114" t="s"/>
+      <c r="C5" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="62" t="s"/>
+      <c r="F5" s="62" t="s"/>
+      <c r="G5" s="62" t="s"/>
     </row>
     <row r="6" spans="3:7" ht="225.75" customHeight="true">
-      <c r="C6" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="116" t="s"/>
-      <c r="F6" s="116" t="s"/>
-      <c r="G6" s="116" t="s"/>
+      <c r="C6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="64" t="s"/>
+      <c r="F6" s="64" t="s"/>
+      <c r="G6" s="64" t="s"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="108" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="113" t="s">
+      <c r="C7" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <f>=D8</f>
         <v>71</v>
       </c>
-      <c r="E7" s="113" t="s"/>
-      <c r="F7" s="113" t="s"/>
-      <c r="G7" s="113" t="s"/>
+      <c r="E7" s="61" t="s"/>
+      <c r="F7" s="61" t="s"/>
+      <c r="G7" s="61" t="s"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="113" t="s">
+      <c r="C8" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="61" t="s">
         <f>='开发日报-蒋祖为'!D16</f>
         <v>71</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="61" t="s">
         <f>='开发日报-凌建华'!D16</f>
-        <v>36</v>
-      </c>
-      <c r="F8" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <f>='开发日报-陈伟安'!D16</f>
+        <v>55</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <f>='开发日报-杨俊杰'!D16</f>
         <v>5</v>
       </c>
-      <c r="G8" s="113" t="s">
-        <f>='开发日报-杨俊杰'!D16</f>
-        <v>54</v>
-      </c>
     </row>
     <row r="9" spans="3:7" ht="81.6" customHeight="true">
-      <c r="C9" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="114" t="s">
+      <c r="C9" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <f>='开发日报-蒋祖为'!H16</f>
-        <v>73</v>
-      </c>
-      <c r="E9" s="114" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <f>='开发日报-凌建华'!H16</f>
-        <v>38</v>
-      </c>
-      <c r="F9" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="62" t="s">
         <f>='开发日报-陈伟安'!H16</f>
+        <v>57</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <f>='开发日报-杨俊杰'!H16</f>
         <v>9</v>
       </c>
-      <c r="G9" s="114" t="s">
-        <f>='开发日报-杨俊杰'!H16</f>
-        <v>56</v>
-      </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="65">
         <f>='开发日报-蒋祖为'!N16</f>
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="117">
+        <v>0.051</v>
+      </c>
+      <c r="E10" s="65">
         <f>='开发日报-凌建华'!N16</f>
         <v>0.12</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="65">
         <f>='开发日报-陈伟安'!N16</f>
         <v>0.2</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="65">
         <f>='开发日报-杨俊杰'!N16</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="65">
         <v>0.25</v>
       </c>
-      <c r="E11" s="117">
+      <c r="E11" s="65">
         <v>0.25</v>
       </c>
-      <c r="F11" s="117">
+      <c r="F11" s="65">
         <v>0.25</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="65">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="118">
+      <c r="C12" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="66">
         <f>=D10*D11+E10*E11+F10*F11+G10*G11</f>
-        <v>0.1525</v>
-      </c>
-      <c r="E12" s="119" t="s"/>
-      <c r="F12" s="119" t="s"/>
-      <c r="G12" s="119" t="s"/>
+        <v>0.15775</v>
+      </c>
+      <c r="E12" s="67" t="s"/>
+      <c r="F12" s="67" t="s"/>
+      <c r="G12" s="67" t="s"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="120" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="120" t="s"/>
-      <c r="E14" s="120" t="s"/>
-      <c r="F14" s="120" t="s"/>
-      <c r="G14" s="120" t="s"/>
+      <c r="C14" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="68" t="s"/>
+      <c r="E14" s="68" t="s"/>
+      <c r="F14" s="68" t="s"/>
+      <c r="G14" s="68" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2551,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I16" s="18" t="s"/>
       <c r="J16" s="18" t="s"/>
@@ -2562,447 +2575,469 @@
       </c>
       <c r="N16" s="20">
         <f>=N18*D18+N23*D23+N28*D28+N33*D33+N38*D38</f>
-        <v>0.03</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="69" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C18" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="C18" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="71">
         <v>0.3</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="E18" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="73">
         <v>45231</v>
       </c>
-      <c r="G18" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="36" t="s"/>
-      <c r="J18" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="33" t="s"/>
-      <c r="L18" s="33" t="s"/>
-      <c r="M18" s="37">
+      <c r="G18" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="75" t="s"/>
+      <c r="J18" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="72" t="s"/>
+      <c r="L18" s="72" t="s"/>
+      <c r="M18" s="76">
         <v>0.1</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="77">
         <f>=MAX(M18:M22)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C19" s="39" t="s"/>
-      <c r="D19" s="40" t="s"/>
-      <c r="E19" s="41" t="s"/>
-      <c r="F19" s="42" t="s"/>
-      <c r="G19" s="43" t="s"/>
-      <c r="H19" s="43" t="s"/>
-      <c r="I19" s="41" t="s"/>
-      <c r="J19" s="43" t="s"/>
-      <c r="K19" s="43" t="s"/>
-      <c r="L19" s="43" t="s"/>
-      <c r="M19" s="44" t="s"/>
-      <c r="N19" s="45" t="s"/>
+      <c r="C19" s="78" t="s"/>
+      <c r="D19" s="79" t="s"/>
+      <c r="E19" s="80" t="s"/>
+      <c r="F19" s="73">
+        <v>45238</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="80" t="s"/>
+      <c r="J19" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="81" t="s"/>
+      <c r="L19" s="81" t="s"/>
+      <c r="M19" s="82" t="s"/>
+      <c r="N19" s="83" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C20" s="39" t="s"/>
-      <c r="D20" s="40" t="s"/>
-      <c r="E20" s="41" t="s"/>
-      <c r="F20" s="42" t="s"/>
-      <c r="G20" s="43" t="s"/>
-      <c r="H20" s="43" t="s"/>
-      <c r="I20" s="41" t="s"/>
-      <c r="J20" s="43" t="s"/>
-      <c r="K20" s="43" t="s"/>
-      <c r="L20" s="43" t="s"/>
-      <c r="M20" s="44" t="s"/>
-      <c r="N20" s="45" t="s"/>
+      <c r="C20" s="78" t="s"/>
+      <c r="D20" s="79" t="s"/>
+      <c r="E20" s="80" t="s"/>
+      <c r="F20" s="84" t="s"/>
+      <c r="G20" s="81" t="s"/>
+      <c r="H20" s="81" t="s"/>
+      <c r="I20" s="80" t="s"/>
+      <c r="J20" s="81" t="s"/>
+      <c r="K20" s="81" t="s"/>
+      <c r="L20" s="81" t="s"/>
+      <c r="M20" s="82" t="s"/>
+      <c r="N20" s="83" t="s"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="39" t="s"/>
-      <c r="D21" s="40" t="s"/>
-      <c r="E21" s="41" t="s"/>
-      <c r="F21" s="42" t="s"/>
-      <c r="G21" s="41" t="s"/>
-      <c r="H21" s="41" t="s"/>
-      <c r="I21" s="41" t="s"/>
-      <c r="J21" s="41" t="s"/>
-      <c r="K21" s="41" t="s"/>
-      <c r="L21" s="41" t="s"/>
-      <c r="M21" s="41" t="s"/>
-      <c r="N21" s="45" t="s"/>
+      <c r="C21" s="78" t="s"/>
+      <c r="D21" s="79" t="s"/>
+      <c r="E21" s="80" t="s"/>
+      <c r="F21" s="84" t="s"/>
+      <c r="G21" s="80" t="s"/>
+      <c r="H21" s="80" t="s"/>
+      <c r="I21" s="80" t="s"/>
+      <c r="J21" s="80" t="s"/>
+      <c r="K21" s="80" t="s"/>
+      <c r="L21" s="80" t="s"/>
+      <c r="M21" s="80" t="s"/>
+      <c r="N21" s="83" t="s"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="46" t="s"/>
-      <c r="D22" s="47" t="s"/>
-      <c r="E22" s="48" t="s"/>
-      <c r="F22" s="49" t="s"/>
-      <c r="G22" s="48" t="s"/>
-      <c r="H22" s="48" t="s"/>
-      <c r="I22" s="48" t="s"/>
-      <c r="J22" s="48" t="s"/>
-      <c r="K22" s="48" t="s"/>
-      <c r="L22" s="48" t="s"/>
-      <c r="M22" s="50" t="s"/>
-      <c r="N22" s="51" t="s"/>
+      <c r="C22" s="85" t="s"/>
+      <c r="D22" s="86" t="s"/>
+      <c r="E22" s="87" t="s"/>
+      <c r="F22" s="88" t="s"/>
+      <c r="G22" s="87" t="s"/>
+      <c r="H22" s="87" t="s"/>
+      <c r="I22" s="87" t="s"/>
+      <c r="J22" s="87" t="s"/>
+      <c r="K22" s="87" t="s"/>
+      <c r="L22" s="87" t="s"/>
+      <c r="M22" s="89" t="s"/>
+      <c r="N22" s="90" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C23" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="32">
+      <c r="C23" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="71">
         <v>0.3</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="34" t="s"/>
-      <c r="G23" s="33" t="s"/>
-      <c r="H23" s="33" t="s"/>
-      <c r="I23" s="36" t="s"/>
-      <c r="J23" s="33" t="s"/>
-      <c r="K23" s="33" t="s"/>
-      <c r="L23" s="33" t="s"/>
-      <c r="M23" s="37" t="s"/>
-      <c r="N23" s="38">
+      <c r="E23" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="73">
+        <v>45238</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="75" t="s"/>
+      <c r="J23" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="72" t="s"/>
+      <c r="L23" s="72" t="s"/>
+      <c r="M23" s="76" t="s"/>
+      <c r="N23" s="77">
         <f>=MAX(M23:M27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C24" s="39" t="s"/>
-      <c r="D24" s="40" t="s"/>
-      <c r="E24" s="41" t="s"/>
-      <c r="F24" s="42" t="s"/>
-      <c r="G24" s="43" t="s"/>
-      <c r="H24" s="43" t="s"/>
-      <c r="I24" s="41" t="s"/>
-      <c r="J24" s="43" t="s"/>
-      <c r="K24" s="43" t="s"/>
-      <c r="L24" s="43" t="s"/>
-      <c r="M24" s="44" t="s"/>
-      <c r="N24" s="45" t="s"/>
+      <c r="C24" s="78" t="s"/>
+      <c r="D24" s="79" t="s"/>
+      <c r="E24" s="80" t="s"/>
+      <c r="F24" s="84" t="s"/>
+      <c r="G24" s="81" t="s"/>
+      <c r="H24" s="81" t="s"/>
+      <c r="I24" s="80" t="s"/>
+      <c r="J24" s="81" t="s"/>
+      <c r="K24" s="81" t="s"/>
+      <c r="L24" s="81" t="s"/>
+      <c r="M24" s="82" t="s"/>
+      <c r="N24" s="83" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
-      <c r="C25" s="39" t="s"/>
-      <c r="D25" s="40" t="s"/>
-      <c r="E25" s="41" t="s"/>
-      <c r="F25" s="42" t="s"/>
-      <c r="G25" s="43" t="s"/>
-      <c r="H25" s="43" t="s"/>
-      <c r="I25" s="41" t="s"/>
-      <c r="J25" s="41" t="s"/>
-      <c r="K25" s="41" t="s"/>
-      <c r="L25" s="41" t="s"/>
-      <c r="M25" s="44" t="s"/>
-      <c r="N25" s="45" t="s"/>
+      <c r="C25" s="78" t="s"/>
+      <c r="D25" s="79" t="s"/>
+      <c r="E25" s="80" t="s"/>
+      <c r="F25" s="84" t="s"/>
+      <c r="G25" s="81" t="s"/>
+      <c r="H25" s="81" t="s"/>
+      <c r="I25" s="80" t="s"/>
+      <c r="J25" s="80" t="s"/>
+      <c r="K25" s="80" t="s"/>
+      <c r="L25" s="80" t="s"/>
+      <c r="M25" s="82" t="s"/>
+      <c r="N25" s="83" t="s"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="39" t="s"/>
-      <c r="D26" s="40" t="s"/>
-      <c r="E26" s="41" t="s"/>
-      <c r="F26" s="42" t="s"/>
-      <c r="G26" s="41" t="s"/>
-      <c r="H26" s="41" t="s"/>
-      <c r="I26" s="41" t="s"/>
-      <c r="J26" s="41" t="s"/>
-      <c r="K26" s="41" t="s"/>
-      <c r="L26" s="41" t="s"/>
-      <c r="M26" s="41" t="s"/>
-      <c r="N26" s="45" t="s"/>
+      <c r="C26" s="78" t="s"/>
+      <c r="D26" s="79" t="s"/>
+      <c r="E26" s="80" t="s"/>
+      <c r="F26" s="84" t="s"/>
+      <c r="G26" s="80" t="s"/>
+      <c r="H26" s="80" t="s"/>
+      <c r="I26" s="80" t="s"/>
+      <c r="J26" s="80" t="s"/>
+      <c r="K26" s="80" t="s"/>
+      <c r="L26" s="80" t="s"/>
+      <c r="M26" s="80" t="s"/>
+      <c r="N26" s="83" t="s"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="46" t="s"/>
-      <c r="D27" s="47" t="s"/>
-      <c r="E27" s="48" t="s"/>
-      <c r="F27" s="49" t="s"/>
-      <c r="G27" s="48" t="s"/>
-      <c r="H27" s="48" t="s"/>
-      <c r="I27" s="48" t="s"/>
-      <c r="J27" s="48" t="s"/>
-      <c r="K27" s="48" t="s"/>
-      <c r="L27" s="48" t="s"/>
-      <c r="M27" s="48" t="s"/>
-      <c r="N27" s="51" t="s"/>
+      <c r="C27" s="85" t="s"/>
+      <c r="D27" s="86" t="s"/>
+      <c r="E27" s="87" t="s"/>
+      <c r="F27" s="88" t="s"/>
+      <c r="G27" s="87" t="s"/>
+      <c r="H27" s="87" t="s"/>
+      <c r="I27" s="87" t="s"/>
+      <c r="J27" s="87" t="s"/>
+      <c r="K27" s="87" t="s"/>
+      <c r="L27" s="87" t="s"/>
+      <c r="M27" s="87" t="s"/>
+      <c r="N27" s="90" t="s"/>
     </row>
     <row r="28" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C28" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="32">
+      <c r="C28" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="71">
         <v>0.3</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="34">
+      <c r="E28" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="73">
         <v>45238</v>
       </c>
-      <c r="G28" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="33" t="s"/>
-      <c r="I28" s="36" t="s"/>
-      <c r="J28" s="33" t="s"/>
-      <c r="K28" s="33" t="s"/>
-      <c r="L28" s="33" t="s"/>
-      <c r="M28" s="37" t="s"/>
-      <c r="N28" s="38">
+      <c r="G28" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="75" t="s"/>
+      <c r="J28" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="72" t="s"/>
+      <c r="L28" s="72" t="s"/>
+      <c r="M28" s="76">
+        <v>0.07</v>
+      </c>
+      <c r="N28" s="77">
         <f>=MAX(M28:M31)</f>
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C29" s="39" t="s"/>
-      <c r="D29" s="40" t="s"/>
-      <c r="E29" s="41" t="s"/>
-      <c r="F29" s="42" t="s"/>
-      <c r="G29" s="43" t="s"/>
-      <c r="H29" s="43" t="s"/>
-      <c r="I29" s="41" t="s"/>
-      <c r="J29" s="43" t="s"/>
-      <c r="K29" s="43" t="s"/>
-      <c r="L29" s="43" t="s"/>
-      <c r="M29" s="44" t="s"/>
-      <c r="N29" s="45" t="s"/>
+      <c r="C29" s="78" t="s"/>
+      <c r="D29" s="79" t="s"/>
+      <c r="E29" s="80" t="s"/>
+      <c r="F29" s="84" t="s"/>
+      <c r="G29" s="81" t="s"/>
+      <c r="H29" s="81" t="s"/>
+      <c r="I29" s="80" t="s"/>
+      <c r="J29" s="81" t="s"/>
+      <c r="K29" s="81" t="s"/>
+      <c r="L29" s="81" t="s"/>
+      <c r="M29" s="82" t="s"/>
+      <c r="N29" s="83" t="s"/>
     </row>
     <row r="30" spans="3:14" ht="41.4" customHeight="true">
-      <c r="C30" s="39" t="s"/>
-      <c r="D30" s="40" t="s"/>
-      <c r="E30" s="41" t="s"/>
-      <c r="F30" s="42" t="s"/>
-      <c r="G30" s="43" t="s"/>
-      <c r="H30" s="43" t="s"/>
-      <c r="I30" s="41" t="s"/>
-      <c r="J30" s="41" t="s"/>
-      <c r="K30" s="41" t="s"/>
-      <c r="L30" s="41" t="s"/>
-      <c r="M30" s="44" t="s"/>
-      <c r="N30" s="45" t="s"/>
+      <c r="C30" s="78" t="s"/>
+      <c r="D30" s="79" t="s"/>
+      <c r="E30" s="80" t="s"/>
+      <c r="F30" s="84" t="s"/>
+      <c r="G30" s="81" t="s"/>
+      <c r="H30" s="81" t="s"/>
+      <c r="I30" s="80" t="s"/>
+      <c r="J30" s="80" t="s"/>
+      <c r="K30" s="80" t="s"/>
+      <c r="L30" s="80" t="s"/>
+      <c r="M30" s="82" t="s"/>
+      <c r="N30" s="83" t="s"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="39" t="s"/>
-      <c r="D31" s="40" t="s"/>
-      <c r="E31" s="41" t="s"/>
-      <c r="F31" s="42" t="s"/>
-      <c r="G31" s="41" t="s"/>
-      <c r="H31" s="41" t="s"/>
-      <c r="I31" s="41" t="s"/>
-      <c r="J31" s="41" t="s"/>
-      <c r="K31" s="41" t="s"/>
-      <c r="L31" s="41" t="s"/>
-      <c r="M31" s="41" t="s"/>
-      <c r="N31" s="45" t="s"/>
+      <c r="C31" s="78" t="s"/>
+      <c r="D31" s="79" t="s"/>
+      <c r="E31" s="80" t="s"/>
+      <c r="F31" s="84" t="s"/>
+      <c r="G31" s="80" t="s"/>
+      <c r="H31" s="80" t="s"/>
+      <c r="I31" s="80" t="s"/>
+      <c r="J31" s="80" t="s"/>
+      <c r="K31" s="80" t="s"/>
+      <c r="L31" s="80" t="s"/>
+      <c r="M31" s="80" t="s"/>
+      <c r="N31" s="83" t="s"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="52" t="s"/>
-      <c r="D32" s="53" t="s"/>
-      <c r="E32" s="54" t="s"/>
-      <c r="F32" s="55" t="s"/>
-      <c r="G32" s="54" t="s"/>
-      <c r="H32" s="54" t="s"/>
-      <c r="I32" s="54" t="s"/>
-      <c r="J32" s="54" t="s"/>
-      <c r="K32" s="54" t="s"/>
-      <c r="L32" s="54" t="s"/>
-      <c r="M32" s="54" t="s"/>
-      <c r="N32" s="56" t="s"/>
+      <c r="C32" s="91" t="s"/>
+      <c r="D32" s="92" t="s"/>
+      <c r="E32" s="93" t="s"/>
+      <c r="F32" s="94" t="s"/>
+      <c r="G32" s="93" t="s"/>
+      <c r="H32" s="93" t="s"/>
+      <c r="I32" s="93" t="s"/>
+      <c r="J32" s="93" t="s"/>
+      <c r="K32" s="93" t="s"/>
+      <c r="L32" s="93" t="s"/>
+      <c r="M32" s="93" t="s"/>
+      <c r="N32" s="95" t="s"/>
     </row>
     <row r="33" spans="3:14" ht="14.25" customHeight="true">
-      <c r="C33" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="58">
+      <c r="C33" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="97">
         <v>0.1</v>
       </c>
-      <c r="E33" s="59" t="s"/>
-      <c r="F33" s="60" t="s"/>
-      <c r="G33" s="59" t="s"/>
-      <c r="H33" s="59" t="s"/>
-      <c r="I33" s="59" t="s"/>
-      <c r="J33" s="61" t="s"/>
-      <c r="K33" s="61" t="s"/>
-      <c r="L33" s="61" t="s"/>
-      <c r="M33" s="62" t="s"/>
-      <c r="N33" s="63">
+      <c r="E33" s="98" t="s"/>
+      <c r="F33" s="99" t="s"/>
+      <c r="G33" s="98" t="s"/>
+      <c r="H33" s="98" t="s"/>
+      <c r="I33" s="98" t="s"/>
+      <c r="J33" s="100" t="s"/>
+      <c r="K33" s="100" t="s"/>
+      <c r="L33" s="100" t="s"/>
+      <c r="M33" s="101" t="s"/>
+      <c r="N33" s="102">
         <f>=MAX(M33:M36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:14">
-      <c r="C34" s="64" t="s"/>
-      <c r="D34" s="65" t="s"/>
-      <c r="E34" s="66" t="s"/>
-      <c r="F34" s="67" t="s"/>
-      <c r="G34" s="66" t="s"/>
-      <c r="H34" s="68" t="s"/>
-      <c r="I34" s="66" t="s"/>
-      <c r="J34" s="68" t="s"/>
-      <c r="K34" s="68" t="s"/>
-      <c r="L34" s="68" t="s"/>
-      <c r="M34" s="69" t="s"/>
-      <c r="N34" s="70" t="s"/>
+      <c r="C34" s="103" t="s"/>
+      <c r="D34" s="104" t="s"/>
+      <c r="E34" s="105" t="s"/>
+      <c r="F34" s="106" t="s"/>
+      <c r="G34" s="105" t="s"/>
+      <c r="H34" s="107" t="s"/>
+      <c r="I34" s="105" t="s"/>
+      <c r="J34" s="107" t="s"/>
+      <c r="K34" s="107" t="s"/>
+      <c r="L34" s="107" t="s"/>
+      <c r="M34" s="108" t="s"/>
+      <c r="N34" s="109" t="s"/>
     </row>
     <row r="35" spans="3:14">
-      <c r="C35" s="64" t="s"/>
-      <c r="D35" s="65" t="s"/>
-      <c r="E35" s="66" t="s"/>
-      <c r="F35" s="67" t="s"/>
-      <c r="G35" s="68" t="s"/>
-      <c r="H35" s="68" t="s"/>
-      <c r="I35" s="68" t="s"/>
-      <c r="J35" s="68" t="s"/>
-      <c r="K35" s="68" t="s"/>
-      <c r="L35" s="68" t="s"/>
-      <c r="M35" s="69" t="s"/>
-      <c r="N35" s="70" t="s"/>
+      <c r="C35" s="103" t="s"/>
+      <c r="D35" s="104" t="s"/>
+      <c r="E35" s="105" t="s"/>
+      <c r="F35" s="106" t="s"/>
+      <c r="G35" s="107" t="s"/>
+      <c r="H35" s="107" t="s"/>
+      <c r="I35" s="107" t="s"/>
+      <c r="J35" s="107" t="s"/>
+      <c r="K35" s="107" t="s"/>
+      <c r="L35" s="107" t="s"/>
+      <c r="M35" s="108" t="s"/>
+      <c r="N35" s="109" t="s"/>
     </row>
     <row r="36" spans="3:14">
-      <c r="C36" s="64" t="s"/>
-      <c r="D36" s="65" t="s"/>
-      <c r="E36" s="66" t="s"/>
-      <c r="F36" s="67" t="s"/>
-      <c r="G36" s="68" t="s"/>
-      <c r="H36" s="68" t="s"/>
-      <c r="I36" s="68" t="s"/>
-      <c r="J36" s="68" t="s"/>
-      <c r="K36" s="68" t="s"/>
-      <c r="L36" s="68" t="s"/>
-      <c r="M36" s="68" t="s"/>
-      <c r="N36" s="70" t="s"/>
+      <c r="C36" s="103" t="s"/>
+      <c r="D36" s="104" t="s"/>
+      <c r="E36" s="105" t="s"/>
+      <c r="F36" s="106" t="s"/>
+      <c r="G36" s="107" t="s"/>
+      <c r="H36" s="107" t="s"/>
+      <c r="I36" s="107" t="s"/>
+      <c r="J36" s="107" t="s"/>
+      <c r="K36" s="107" t="s"/>
+      <c r="L36" s="107" t="s"/>
+      <c r="M36" s="107" t="s"/>
+      <c r="N36" s="109" t="s"/>
     </row>
     <row r="37" spans="3:14">
-      <c r="C37" s="71" t="s"/>
-      <c r="D37" s="72" t="s"/>
-      <c r="E37" s="73" t="s"/>
-      <c r="F37" s="74" t="s"/>
-      <c r="G37" s="75" t="s"/>
-      <c r="H37" s="75" t="s"/>
-      <c r="I37" s="75" t="s"/>
-      <c r="J37" s="75" t="s"/>
-      <c r="K37" s="75" t="s"/>
-      <c r="L37" s="75" t="s"/>
-      <c r="M37" s="75" t="s"/>
-      <c r="N37" s="76" t="s"/>
+      <c r="C37" s="110" t="s"/>
+      <c r="D37" s="111" t="s"/>
+      <c r="E37" s="112" t="s"/>
+      <c r="F37" s="113" t="s"/>
+      <c r="G37" s="114" t="s"/>
+      <c r="H37" s="114" t="s"/>
+      <c r="I37" s="114" t="s"/>
+      <c r="J37" s="114" t="s"/>
+      <c r="K37" s="114" t="s"/>
+      <c r="L37" s="114" t="s"/>
+      <c r="M37" s="114" t="s"/>
+      <c r="N37" s="115" t="s"/>
     </row>
     <row r="38" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C38" s="77" t="s"/>
-      <c r="D38" s="78" t="s"/>
-      <c r="E38" s="77" t="s"/>
-      <c r="F38" s="79" t="s"/>
-      <c r="G38" s="80" t="s"/>
-      <c r="H38" s="80" t="s"/>
-      <c r="I38" s="77" t="s"/>
-      <c r="J38" s="80" t="s"/>
-      <c r="K38" s="80" t="s"/>
-      <c r="L38" s="80" t="s"/>
-      <c r="M38" s="81" t="s"/>
-      <c r="N38" s="78">
+      <c r="C38" s="116" t="s"/>
+      <c r="D38" s="117" t="s"/>
+      <c r="E38" s="116" t="s"/>
+      <c r="F38" s="118" t="s"/>
+      <c r="G38" s="119" t="s"/>
+      <c r="H38" s="119" t="s"/>
+      <c r="I38" s="116" t="s"/>
+      <c r="J38" s="119" t="s"/>
+      <c r="K38" s="119" t="s"/>
+      <c r="L38" s="119" t="s"/>
+      <c r="M38" s="120" t="s"/>
+      <c r="N38" s="117">
         <f>=MAX(M38:M41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C39" s="82" t="s"/>
-      <c r="D39" s="83" t="s"/>
-      <c r="E39" s="82" t="s"/>
-      <c r="F39" s="84" t="s"/>
-      <c r="G39" s="85" t="s"/>
-      <c r="H39" s="85" t="s"/>
-      <c r="I39" s="82" t="s"/>
-      <c r="J39" s="85" t="s"/>
-      <c r="K39" s="85" t="s"/>
-      <c r="L39" s="85" t="s"/>
-      <c r="M39" s="86" t="s"/>
-      <c r="N39" s="87" t="s"/>
+      <c r="C39" s="43" t="s"/>
+      <c r="D39" s="52" t="s"/>
+      <c r="E39" s="43" t="s"/>
+      <c r="F39" s="51" t="s"/>
+      <c r="G39" s="50" t="s"/>
+      <c r="H39" s="50" t="s"/>
+      <c r="I39" s="43" t="s"/>
+      <c r="J39" s="50" t="s"/>
+      <c r="K39" s="50" t="s"/>
+      <c r="L39" s="50" t="s"/>
+      <c r="M39" s="48" t="s"/>
+      <c r="N39" s="49" t="s"/>
     </row>
     <row r="40" spans="3:14">
-      <c r="C40" s="82" t="s"/>
-      <c r="D40" s="83" t="s"/>
-      <c r="E40" s="82" t="s"/>
-      <c r="F40" s="84" t="s"/>
-      <c r="G40" s="82" t="s"/>
-      <c r="H40" s="82" t="s"/>
-      <c r="I40" s="82" t="s"/>
-      <c r="J40" s="82" t="s"/>
-      <c r="K40" s="82" t="s"/>
-      <c r="L40" s="82" t="s"/>
-      <c r="M40" s="86" t="s"/>
-      <c r="N40" s="87" t="s"/>
+      <c r="C40" s="43" t="s"/>
+      <c r="D40" s="52" t="s"/>
+      <c r="E40" s="43" t="s"/>
+      <c r="F40" s="51" t="s"/>
+      <c r="G40" s="43" t="s"/>
+      <c r="H40" s="43" t="s"/>
+      <c r="I40" s="43" t="s"/>
+      <c r="J40" s="43" t="s"/>
+      <c r="K40" s="43" t="s"/>
+      <c r="L40" s="43" t="s"/>
+      <c r="M40" s="48" t="s"/>
+      <c r="N40" s="49" t="s"/>
     </row>
     <row r="41" spans="3:14">
-      <c r="C41" s="82" t="s"/>
-      <c r="D41" s="83" t="s"/>
-      <c r="E41" s="82" t="s"/>
-      <c r="F41" s="84" t="s"/>
-      <c r="G41" s="82" t="s"/>
-      <c r="H41" s="82" t="s"/>
-      <c r="I41" s="82" t="s"/>
-      <c r="J41" s="82" t="s"/>
-      <c r="K41" s="82" t="s"/>
-      <c r="L41" s="82" t="s"/>
-      <c r="M41" s="82" t="s"/>
-      <c r="N41" s="87" t="s"/>
+      <c r="C41" s="43" t="s"/>
+      <c r="D41" s="52" t="s"/>
+      <c r="E41" s="43" t="s"/>
+      <c r="F41" s="51" t="s"/>
+      <c r="G41" s="43" t="s"/>
+      <c r="H41" s="43" t="s"/>
+      <c r="I41" s="43" t="s"/>
+      <c r="J41" s="43" t="s"/>
+      <c r="K41" s="43" t="s"/>
+      <c r="L41" s="43" t="s"/>
+      <c r="M41" s="43" t="s"/>
+      <c r="N41" s="49" t="s"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="82" t="s"/>
-      <c r="D42" s="83" t="s"/>
-      <c r="E42" s="82" t="s"/>
-      <c r="F42" s="84" t="s"/>
-      <c r="G42" s="82" t="s"/>
-      <c r="H42" s="82" t="s"/>
-      <c r="I42" s="82" t="s"/>
-      <c r="J42" s="82" t="s"/>
-      <c r="K42" s="82" t="s"/>
-      <c r="L42" s="82" t="s"/>
-      <c r="M42" s="82" t="s"/>
-      <c r="N42" s="87" t="s"/>
+      <c r="C42" s="43" t="s"/>
+      <c r="D42" s="52" t="s"/>
+      <c r="E42" s="43" t="s"/>
+      <c r="F42" s="51" t="s"/>
+      <c r="G42" s="43" t="s"/>
+      <c r="H42" s="43" t="s"/>
+      <c r="I42" s="43" t="s"/>
+      <c r="J42" s="43" t="s"/>
+      <c r="K42" s="43" t="s"/>
+      <c r="L42" s="43" t="s"/>
+      <c r="M42" s="43" t="s"/>
+      <c r="N42" s="49" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3247,19 +3282,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I16" s="18" t="s"/>
       <c r="J16" s="18" t="s"/>
@@ -3313,102 +3348,102 @@
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
       <c r="C18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="22">
+        <v>41</v>
+      </c>
+      <c r="D18" s="21">
         <v>0.4</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="E18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="23">
         <v>45231</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="23" t="s">
+      <c r="G18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="15" t="s"/>
-      <c r="J18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>44</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="M18" s="20">
         <v>0.1</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f>=MAX(M18:M21)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
       <c r="C19" s="15" t="s"/>
-      <c r="D19" s="26" t="s"/>
+      <c r="D19" s="24" t="s"/>
       <c r="E19" s="15" t="s"/>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>45233</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="15" t="s"/>
-      <c r="J19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="23" t="s">
+      <c r="J19" s="22" t="s">
         <v>48</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="M19" s="20">
         <v>0.2</v>
       </c>
-      <c r="N19" s="22" t="s"/>
+      <c r="N19" s="21" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
       <c r="C20" s="15" t="s"/>
-      <c r="D20" s="26" t="s"/>
+      <c r="D20" s="24" t="s"/>
       <c r="E20" s="15" t="s"/>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>45235</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="23" t="s">
+      <c r="G20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="15" t="s"/>
-      <c r="J20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="K20" s="22" t="s">
         <v>51</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="M20" s="20">
         <v>0.3</v>
       </c>
-      <c r="N20" s="22" t="s"/>
+      <c r="N20" s="21" t="s"/>
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="15" t="s"/>
-      <c r="D21" s="26" t="s"/>
+      <c r="D21" s="24" t="s"/>
       <c r="E21" s="15" t="s"/>
-      <c r="F21" s="24" t="s"/>
+      <c r="F21" s="23" t="s"/>
       <c r="G21" s="15" t="s"/>
       <c r="H21" s="15" t="s"/>
       <c r="I21" s="15" t="s"/>
@@ -3416,13 +3451,13 @@
       <c r="K21" s="15" t="s"/>
       <c r="L21" s="15" t="s"/>
       <c r="M21" s="15" t="s"/>
-      <c r="N21" s="22" t="s"/>
+      <c r="N21" s="21" t="s"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="15" t="s"/>
-      <c r="D22" s="26" t="s"/>
+      <c r="D22" s="24" t="s"/>
       <c r="E22" s="15" t="s"/>
-      <c r="F22" s="24" t="s"/>
+      <c r="F22" s="23" t="s"/>
       <c r="G22" s="15" t="s"/>
       <c r="H22" s="15" t="s"/>
       <c r="I22" s="15" t="s"/>
@@ -3430,64 +3465,64 @@
       <c r="K22" s="15" t="s"/>
       <c r="L22" s="15" t="s"/>
       <c r="M22" s="15" t="s"/>
-      <c r="N22" s="22" t="s"/>
+      <c r="N22" s="21" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
       <c r="C23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="22">
+        <v>53</v>
+      </c>
+      <c r="D23" s="21">
         <v>0.6</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="24" t="s"/>
-      <c r="G23" s="23" t="s"/>
-      <c r="H23" s="23" t="s"/>
+      <c r="E23" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="23" t="s"/>
+      <c r="G23" s="22" t="s"/>
+      <c r="H23" s="22" t="s"/>
       <c r="I23" s="15" t="s"/>
-      <c r="J23" s="23" t="s"/>
-      <c r="K23" s="23" t="s"/>
-      <c r="L23" s="23" t="s"/>
+      <c r="J23" s="22" t="s"/>
+      <c r="K23" s="22" t="s"/>
+      <c r="L23" s="22" t="s"/>
       <c r="M23" s="20" t="s"/>
-      <c r="N23" s="22">
+      <c r="N23" s="21">
         <f>=MAX(M23:M26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="55.2" customHeight="true">
       <c r="C24" s="15" t="s"/>
-      <c r="D24" s="26" t="s"/>
+      <c r="D24" s="24" t="s"/>
       <c r="E24" s="15" t="s"/>
-      <c r="F24" s="24" t="s"/>
-      <c r="G24" s="23" t="s"/>
-      <c r="H24" s="23" t="s"/>
+      <c r="F24" s="23" t="s"/>
+      <c r="G24" s="22" t="s"/>
+      <c r="H24" s="22" t="s"/>
       <c r="I24" s="15" t="s"/>
-      <c r="J24" s="23" t="s"/>
-      <c r="K24" s="23" t="s"/>
-      <c r="L24" s="23" t="s"/>
+      <c r="J24" s="22" t="s"/>
+      <c r="K24" s="22" t="s"/>
+      <c r="L24" s="22" t="s"/>
       <c r="M24" s="20" t="s"/>
-      <c r="N24" s="22" t="s"/>
+      <c r="N24" s="21" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
       <c r="C25" s="15" t="s"/>
-      <c r="D25" s="26" t="s"/>
+      <c r="D25" s="24" t="s"/>
       <c r="E25" s="15" t="s"/>
-      <c r="F25" s="24" t="s"/>
-      <c r="G25" s="23" t="s"/>
-      <c r="H25" s="23" t="s"/>
+      <c r="F25" s="23" t="s"/>
+      <c r="G25" s="22" t="s"/>
+      <c r="H25" s="22" t="s"/>
       <c r="I25" s="15" t="s"/>
       <c r="J25" s="15" t="s"/>
       <c r="K25" s="15" t="s"/>
       <c r="L25" s="15" t="s"/>
       <c r="M25" s="20" t="s"/>
-      <c r="N25" s="22" t="s"/>
+      <c r="N25" s="21" t="s"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="15" t="s"/>
-      <c r="D26" s="26" t="s"/>
+      <c r="D26" s="24" t="s"/>
       <c r="E26" s="15" t="s"/>
-      <c r="F26" s="24" t="s"/>
+      <c r="F26" s="23" t="s"/>
       <c r="G26" s="15" t="s"/>
       <c r="H26" s="15" t="s"/>
       <c r="I26" s="15" t="s"/>
@@ -3495,13 +3530,13 @@
       <c r="K26" s="15" t="s"/>
       <c r="L26" s="15" t="s"/>
       <c r="M26" s="15" t="s"/>
-      <c r="N26" s="22" t="s"/>
+      <c r="N26" s="21" t="s"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="15" t="s"/>
-      <c r="D27" s="26" t="s"/>
+      <c r="D27" s="24" t="s"/>
       <c r="E27" s="15" t="s"/>
-      <c r="F27" s="24" t="s"/>
+      <c r="F27" s="23" t="s"/>
       <c r="G27" s="15" t="s"/>
       <c r="H27" s="15" t="s"/>
       <c r="I27" s="15" t="s"/>
@@ -3509,58 +3544,58 @@
       <c r="K27" s="15" t="s"/>
       <c r="L27" s="15" t="s"/>
       <c r="M27" s="15" t="s"/>
-      <c r="N27" s="22" t="s"/>
+      <c r="N27" s="21" t="s"/>
     </row>
     <row r="28" spans="3:14" ht="55.2" customHeight="true">
       <c r="C28" s="15" t="s"/>
-      <c r="D28" s="22" t="s"/>
-      <c r="E28" s="23" t="s"/>
-      <c r="F28" s="24" t="s"/>
-      <c r="G28" s="23" t="s"/>
-      <c r="H28" s="23" t="s"/>
+      <c r="D28" s="21" t="s"/>
+      <c r="E28" s="22" t="s"/>
+      <c r="F28" s="23" t="s"/>
+      <c r="G28" s="22" t="s"/>
+      <c r="H28" s="22" t="s"/>
       <c r="I28" s="15" t="s"/>
-      <c r="J28" s="23" t="s"/>
-      <c r="K28" s="23" t="s"/>
-      <c r="L28" s="23" t="s"/>
+      <c r="J28" s="22" t="s"/>
+      <c r="K28" s="22" t="s"/>
+      <c r="L28" s="22" t="s"/>
       <c r="M28" s="20" t="s"/>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <f>=MAX(M28:M31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
       <c r="C29" s="15" t="s"/>
-      <c r="D29" s="26" t="s"/>
+      <c r="D29" s="24" t="s"/>
       <c r="E29" s="15" t="s"/>
-      <c r="F29" s="24" t="s"/>
-      <c r="G29" s="23" t="s"/>
-      <c r="H29" s="23" t="s"/>
+      <c r="F29" s="23" t="s"/>
+      <c r="G29" s="22" t="s"/>
+      <c r="H29" s="22" t="s"/>
       <c r="I29" s="15" t="s"/>
-      <c r="J29" s="23" t="s"/>
-      <c r="K29" s="23" t="s"/>
-      <c r="L29" s="23" t="s"/>
+      <c r="J29" s="22" t="s"/>
+      <c r="K29" s="22" t="s"/>
+      <c r="L29" s="22" t="s"/>
       <c r="M29" s="20" t="s"/>
-      <c r="N29" s="22" t="s"/>
+      <c r="N29" s="21" t="s"/>
     </row>
     <row r="30" spans="3:14" ht="41.4" customHeight="true">
       <c r="C30" s="15" t="s"/>
-      <c r="D30" s="26" t="s"/>
+      <c r="D30" s="24" t="s"/>
       <c r="E30" s="15" t="s"/>
-      <c r="F30" s="24" t="s"/>
-      <c r="G30" s="23" t="s"/>
-      <c r="H30" s="23" t="s"/>
+      <c r="F30" s="23" t="s"/>
+      <c r="G30" s="22" t="s"/>
+      <c r="H30" s="22" t="s"/>
       <c r="I30" s="15" t="s"/>
       <c r="J30" s="15" t="s"/>
       <c r="K30" s="15" t="s"/>
       <c r="L30" s="15" t="s"/>
       <c r="M30" s="20" t="s"/>
-      <c r="N30" s="22" t="s"/>
+      <c r="N30" s="21" t="s"/>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="15" t="s"/>
-      <c r="D31" s="26" t="s"/>
+      <c r="D31" s="24" t="s"/>
       <c r="E31" s="15" t="s"/>
-      <c r="F31" s="24" t="s"/>
+      <c r="F31" s="23" t="s"/>
       <c r="G31" s="15" t="s"/>
       <c r="H31" s="15" t="s"/>
       <c r="I31" s="15" t="s"/>
@@ -3568,13 +3603,13 @@
       <c r="K31" s="15" t="s"/>
       <c r="L31" s="15" t="s"/>
       <c r="M31" s="15" t="s"/>
-      <c r="N31" s="22" t="s"/>
+      <c r="N31" s="21" t="s"/>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="15" t="s"/>
-      <c r="D32" s="26" t="s"/>
+      <c r="D32" s="24" t="s"/>
       <c r="E32" s="15" t="s"/>
-      <c r="F32" s="24" t="s"/>
+      <c r="F32" s="23" t="s"/>
       <c r="G32" s="15" t="s"/>
       <c r="H32" s="15" t="s"/>
       <c r="I32" s="15" t="s"/>
@@ -3582,44 +3617,44 @@
       <c r="K32" s="15" t="s"/>
       <c r="L32" s="15" t="s"/>
       <c r="M32" s="15" t="s"/>
-      <c r="N32" s="22" t="s"/>
+      <c r="N32" s="21" t="s"/>
     </row>
     <row r="33" spans="3:14" ht="14.25" customHeight="true">
       <c r="C33" s="15" t="s"/>
-      <c r="D33" s="22" t="s"/>
-      <c r="E33" s="23" t="s"/>
-      <c r="F33" s="24" t="s"/>
-      <c r="G33" s="23" t="s"/>
-      <c r="H33" s="23" t="s"/>
-      <c r="I33" s="23" t="s"/>
+      <c r="D33" s="21" t="s"/>
+      <c r="E33" s="22" t="s"/>
+      <c r="F33" s="23" t="s"/>
+      <c r="G33" s="22" t="s"/>
+      <c r="H33" s="22" t="s"/>
+      <c r="I33" s="22" t="s"/>
       <c r="J33" s="15" t="s"/>
       <c r="K33" s="15" t="s"/>
       <c r="L33" s="15" t="s"/>
       <c r="M33" s="20" t="s"/>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <f>=MAX(M33:M36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="15" t="s"/>
-      <c r="D34" s="26" t="s"/>
-      <c r="E34" s="23" t="s"/>
-      <c r="F34" s="24" t="s"/>
-      <c r="G34" s="23" t="s"/>
+      <c r="D34" s="24" t="s"/>
+      <c r="E34" s="22" t="s"/>
+      <c r="F34" s="23" t="s"/>
+      <c r="G34" s="22" t="s"/>
       <c r="H34" s="15" t="s"/>
-      <c r="I34" s="23" t="s"/>
+      <c r="I34" s="22" t="s"/>
       <c r="J34" s="15" t="s"/>
       <c r="K34" s="15" t="s"/>
       <c r="L34" s="15" t="s"/>
       <c r="M34" s="20" t="s"/>
-      <c r="N34" s="22" t="s"/>
+      <c r="N34" s="21" t="s"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="15" t="s"/>
-      <c r="D35" s="26" t="s"/>
-      <c r="E35" s="23" t="s"/>
-      <c r="F35" s="24" t="s"/>
+      <c r="D35" s="24" t="s"/>
+      <c r="E35" s="22" t="s"/>
+      <c r="F35" s="23" t="s"/>
       <c r="G35" s="15" t="s"/>
       <c r="H35" s="15" t="s"/>
       <c r="I35" s="15" t="s"/>
@@ -3627,13 +3662,13 @@
       <c r="K35" s="15" t="s"/>
       <c r="L35" s="15" t="s"/>
       <c r="M35" s="20" t="s"/>
-      <c r="N35" s="22" t="s"/>
+      <c r="N35" s="21" t="s"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="15" t="s"/>
-      <c r="D36" s="26" t="s"/>
-      <c r="E36" s="23" t="s"/>
-      <c r="F36" s="24" t="s"/>
+      <c r="D36" s="24" t="s"/>
+      <c r="E36" s="22" t="s"/>
+      <c r="F36" s="23" t="s"/>
       <c r="G36" s="15" t="s"/>
       <c r="H36" s="15" t="s"/>
       <c r="I36" s="15" t="s"/>
@@ -3641,13 +3676,13 @@
       <c r="K36" s="15" t="s"/>
       <c r="L36" s="15" t="s"/>
       <c r="M36" s="15" t="s"/>
-      <c r="N36" s="22" t="s"/>
+      <c r="N36" s="21" t="s"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="15" t="s"/>
-      <c r="D37" s="26" t="s"/>
-      <c r="E37" s="23" t="s"/>
-      <c r="F37" s="24" t="s"/>
+      <c r="D37" s="24" t="s"/>
+      <c r="E37" s="22" t="s"/>
+      <c r="F37" s="23" t="s"/>
       <c r="G37" s="15" t="s"/>
       <c r="H37" s="15" t="s"/>
       <c r="I37" s="15" t="s"/>
@@ -3655,44 +3690,44 @@
       <c r="K37" s="15" t="s"/>
       <c r="L37" s="15" t="s"/>
       <c r="M37" s="15" t="s"/>
-      <c r="N37" s="22" t="s"/>
+      <c r="N37" s="21" t="s"/>
     </row>
     <row r="38" spans="3:14" ht="55.2" customHeight="true">
       <c r="C38" s="15" t="s"/>
-      <c r="D38" s="22" t="s"/>
+      <c r="D38" s="21" t="s"/>
       <c r="E38" s="15" t="s"/>
-      <c r="F38" s="24" t="s"/>
-      <c r="G38" s="23" t="s"/>
-      <c r="H38" s="23" t="s"/>
+      <c r="F38" s="23" t="s"/>
+      <c r="G38" s="22" t="s"/>
+      <c r="H38" s="22" t="s"/>
       <c r="I38" s="15" t="s"/>
-      <c r="J38" s="23" t="s"/>
-      <c r="K38" s="23" t="s"/>
-      <c r="L38" s="23" t="s"/>
+      <c r="J38" s="22" t="s"/>
+      <c r="K38" s="22" t="s"/>
+      <c r="L38" s="22" t="s"/>
       <c r="M38" s="20" t="s"/>
-      <c r="N38" s="22">
+      <c r="N38" s="21">
         <f>=MAX(M38:M41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
       <c r="C39" s="15" t="s"/>
-      <c r="D39" s="26" t="s"/>
+      <c r="D39" s="24" t="s"/>
       <c r="E39" s="15" t="s"/>
-      <c r="F39" s="24" t="s"/>
-      <c r="G39" s="23" t="s"/>
-      <c r="H39" s="23" t="s"/>
+      <c r="F39" s="23" t="s"/>
+      <c r="G39" s="22" t="s"/>
+      <c r="H39" s="22" t="s"/>
       <c r="I39" s="15" t="s"/>
-      <c r="J39" s="23" t="s"/>
-      <c r="K39" s="23" t="s"/>
-      <c r="L39" s="23" t="s"/>
+      <c r="J39" s="22" t="s"/>
+      <c r="K39" s="22" t="s"/>
+      <c r="L39" s="22" t="s"/>
       <c r="M39" s="20" t="s"/>
-      <c r="N39" s="22" t="s"/>
+      <c r="N39" s="21" t="s"/>
     </row>
     <row r="40" spans="3:14">
       <c r="C40" s="15" t="s"/>
-      <c r="D40" s="26" t="s"/>
+      <c r="D40" s="24" t="s"/>
       <c r="E40" s="15" t="s"/>
-      <c r="F40" s="24" t="s"/>
+      <c r="F40" s="23" t="s"/>
       <c r="G40" s="15" t="s"/>
       <c r="H40" s="15" t="s"/>
       <c r="I40" s="15" t="s"/>
@@ -3700,13 +3735,13 @@
       <c r="K40" s="15" t="s"/>
       <c r="L40" s="15" t="s"/>
       <c r="M40" s="20" t="s"/>
-      <c r="N40" s="22" t="s"/>
+      <c r="N40" s="21" t="s"/>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="15" t="s"/>
-      <c r="D41" s="26" t="s"/>
+      <c r="D41" s="24" t="s"/>
       <c r="E41" s="15" t="s"/>
-      <c r="F41" s="24" t="s"/>
+      <c r="F41" s="23" t="s"/>
       <c r="G41" s="15" t="s"/>
       <c r="H41" s="15" t="s"/>
       <c r="I41" s="15" t="s"/>
@@ -3714,13 +3749,13 @@
       <c r="K41" s="15" t="s"/>
       <c r="L41" s="15" t="s"/>
       <c r="M41" s="15" t="s"/>
-      <c r="N41" s="22" t="s"/>
+      <c r="N41" s="21" t="s"/>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="15" t="s"/>
-      <c r="D42" s="26" t="s"/>
+      <c r="D42" s="24" t="s"/>
       <c r="E42" s="15" t="s"/>
-      <c r="F42" s="24" t="s"/>
+      <c r="F42" s="23" t="s"/>
       <c r="G42" s="15" t="s"/>
       <c r="H42" s="15" t="s"/>
       <c r="I42" s="15" t="s"/>
@@ -3728,7 +3763,7 @@
       <c r="K42" s="15" t="s"/>
       <c r="L42" s="15" t="s"/>
       <c r="M42" s="15" t="s"/>
-      <c r="N42" s="22" t="s"/>
+      <c r="N42" s="21" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3973,19 +4008,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I16" s="18" t="s"/>
       <c r="J16" s="18" t="s"/>
@@ -4037,89 +4072,89 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="21">
         <v>0.5</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="23" t="s">
+      <c r="E18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="15" t="s"/>
-      <c r="J18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>29</v>
+      <c r="J18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="M18" s="20">
         <v>0.1</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f>=MAX(M18:M21)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C19" s="25" t="s"/>
-      <c r="D19" s="26" t="s"/>
+      <c r="C19" s="28" t="s"/>
+      <c r="D19" s="24" t="s"/>
       <c r="E19" s="15" t="s"/>
-      <c r="F19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="23" t="s">
+      <c r="F19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="15" t="s"/>
-      <c r="J19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>34</v>
+      <c r="J19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="M19" s="20">
         <v>0.1</v>
       </c>
-      <c r="N19" s="22" t="s"/>
+      <c r="N19" s="21" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C20" s="25" t="s"/>
-      <c r="D20" s="26" t="s"/>
+      <c r="C20" s="28" t="s"/>
+      <c r="D20" s="24" t="s"/>
       <c r="E20" s="15" t="s"/>
-      <c r="F20" s="24" t="s"/>
-      <c r="G20" s="23" t="s"/>
-      <c r="H20" s="23" t="s"/>
+      <c r="F20" s="23" t="s"/>
+      <c r="G20" s="22" t="s"/>
+      <c r="H20" s="22" t="s"/>
       <c r="I20" s="15" t="s"/>
-      <c r="J20" s="23" t="s"/>
-      <c r="K20" s="23" t="s"/>
-      <c r="L20" s="23" t="s"/>
+      <c r="J20" s="22" t="s"/>
+      <c r="K20" s="22" t="s"/>
+      <c r="L20" s="22" t="s"/>
       <c r="M20" s="20" t="s"/>
-      <c r="N20" s="22" t="s"/>
+      <c r="N20" s="21" t="s"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="25" t="s"/>
-      <c r="D21" s="26" t="s"/>
+      <c r="C21" s="28" t="s"/>
+      <c r="D21" s="24" t="s"/>
       <c r="E21" s="15" t="s"/>
-      <c r="F21" s="24" t="s"/>
+      <c r="F21" s="23" t="s"/>
       <c r="G21" s="15" t="s"/>
       <c r="H21" s="15" t="s"/>
       <c r="I21" s="15" t="s"/>
@@ -4127,13 +4162,13 @@
       <c r="K21" s="15" t="s"/>
       <c r="L21" s="15" t="s"/>
       <c r="M21" s="15" t="s"/>
-      <c r="N21" s="22" t="s"/>
+      <c r="N21" s="21" t="s"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="27" t="s"/>
-      <c r="D22" s="26" t="s"/>
+      <c r="C22" s="29" t="s"/>
+      <c r="D22" s="24" t="s"/>
       <c r="E22" s="15" t="s"/>
-      <c r="F22" s="24" t="s"/>
+      <c r="F22" s="23" t="s"/>
       <c r="G22" s="15" t="s"/>
       <c r="H22" s="15" t="s"/>
       <c r="I22" s="15" t="s"/>
@@ -4141,62 +4176,62 @@
       <c r="K22" s="15" t="s"/>
       <c r="L22" s="15" t="s"/>
       <c r="M22" s="15" t="s"/>
-      <c r="N22" s="22" t="s"/>
+      <c r="N22" s="21" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C23" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="22">
+      <c r="C23" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="21">
         <v>0.5</v>
       </c>
-      <c r="E23" s="23" t="s"/>
-      <c r="F23" s="24" t="s"/>
-      <c r="G23" s="23" t="s"/>
-      <c r="H23" s="23" t="s"/>
+      <c r="E23" s="22" t="s"/>
+      <c r="F23" s="23" t="s"/>
+      <c r="G23" s="22" t="s"/>
+      <c r="H23" s="22" t="s"/>
       <c r="I23" s="15" t="s"/>
-      <c r="J23" s="23" t="s"/>
-      <c r="K23" s="23" t="s"/>
-      <c r="L23" s="23" t="s"/>
+      <c r="J23" s="22" t="s"/>
+      <c r="K23" s="22" t="s"/>
+      <c r="L23" s="22" t="s"/>
       <c r="M23" s="20" t="s"/>
-      <c r="N23" s="22">
+      <c r="N23" s="21">
         <f>=MAX(M23:M26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="55.2" customHeight="true">
       <c r="C24" s="15" t="s"/>
-      <c r="D24" s="26" t="s"/>
+      <c r="D24" s="24" t="s"/>
       <c r="E24" s="15" t="s"/>
-      <c r="F24" s="24" t="s"/>
-      <c r="G24" s="23" t="s"/>
-      <c r="H24" s="23" t="s"/>
+      <c r="F24" s="23" t="s"/>
+      <c r="G24" s="22" t="s"/>
+      <c r="H24" s="22" t="s"/>
       <c r="I24" s="15" t="s"/>
-      <c r="J24" s="23" t="s"/>
-      <c r="K24" s="23" t="s"/>
-      <c r="L24" s="23" t="s"/>
+      <c r="J24" s="22" t="s"/>
+      <c r="K24" s="22" t="s"/>
+      <c r="L24" s="22" t="s"/>
       <c r="M24" s="20" t="s"/>
-      <c r="N24" s="22" t="s"/>
+      <c r="N24" s="21" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
       <c r="C25" s="15" t="s"/>
-      <c r="D25" s="26" t="s"/>
+      <c r="D25" s="24" t="s"/>
       <c r="E25" s="15" t="s"/>
-      <c r="F25" s="24" t="s"/>
-      <c r="G25" s="23" t="s"/>
-      <c r="H25" s="23" t="s"/>
+      <c r="F25" s="23" t="s"/>
+      <c r="G25" s="22" t="s"/>
+      <c r="H25" s="22" t="s"/>
       <c r="I25" s="15" t="s"/>
       <c r="J25" s="15" t="s"/>
       <c r="K25" s="15" t="s"/>
       <c r="L25" s="15" t="s"/>
       <c r="M25" s="20" t="s"/>
-      <c r="N25" s="22" t="s"/>
+      <c r="N25" s="21" t="s"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="15" t="s"/>
-      <c r="D26" s="26" t="s"/>
+      <c r="D26" s="24" t="s"/>
       <c r="E26" s="15" t="s"/>
-      <c r="F26" s="24" t="s"/>
+      <c r="F26" s="23" t="s"/>
       <c r="G26" s="15" t="s"/>
       <c r="H26" s="15" t="s"/>
       <c r="I26" s="15" t="s"/>
@@ -4204,13 +4239,13 @@
       <c r="K26" s="15" t="s"/>
       <c r="L26" s="15" t="s"/>
       <c r="M26" s="15" t="s"/>
-      <c r="N26" s="22" t="s"/>
+      <c r="N26" s="21" t="s"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="15" t="s"/>
-      <c r="D27" s="26" t="s"/>
+      <c r="D27" s="24" t="s"/>
       <c r="E27" s="15" t="s"/>
-      <c r="F27" s="24" t="s"/>
+      <c r="F27" s="23" t="s"/>
       <c r="G27" s="15" t="s"/>
       <c r="H27" s="15" t="s"/>
       <c r="I27" s="15" t="s"/>
@@ -4218,58 +4253,58 @@
       <c r="K27" s="15" t="s"/>
       <c r="L27" s="15" t="s"/>
       <c r="M27" s="15" t="s"/>
-      <c r="N27" s="22" t="s"/>
+      <c r="N27" s="21" t="s"/>
     </row>
     <row r="28" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C28" s="26" t="s"/>
-      <c r="D28" s="22" t="s"/>
-      <c r="E28" s="23" t="s"/>
-      <c r="F28" s="24" t="s"/>
-      <c r="G28" s="23" t="s"/>
-      <c r="H28" s="23" t="s"/>
+      <c r="C28" s="24" t="s"/>
+      <c r="D28" s="21" t="s"/>
+      <c r="E28" s="22" t="s"/>
+      <c r="F28" s="23" t="s"/>
+      <c r="G28" s="22" t="s"/>
+      <c r="H28" s="22" t="s"/>
       <c r="I28" s="15" t="s"/>
-      <c r="J28" s="23" t="s"/>
-      <c r="K28" s="23" t="s"/>
-      <c r="L28" s="23" t="s"/>
+      <c r="J28" s="22" t="s"/>
+      <c r="K28" s="22" t="s"/>
+      <c r="L28" s="22" t="s"/>
       <c r="M28" s="20" t="s"/>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <f>=MAX(M28:M31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
       <c r="C29" s="15" t="s"/>
-      <c r="D29" s="26" t="s"/>
+      <c r="D29" s="24" t="s"/>
       <c r="E29" s="15" t="s"/>
-      <c r="F29" s="24" t="s"/>
-      <c r="G29" s="23" t="s"/>
-      <c r="H29" s="23" t="s"/>
+      <c r="F29" s="23" t="s"/>
+      <c r="G29" s="22" t="s"/>
+      <c r="H29" s="22" t="s"/>
       <c r="I29" s="15" t="s"/>
-      <c r="J29" s="23" t="s"/>
-      <c r="K29" s="23" t="s"/>
-      <c r="L29" s="23" t="s"/>
+      <c r="J29" s="22" t="s"/>
+      <c r="K29" s="22" t="s"/>
+      <c r="L29" s="22" t="s"/>
       <c r="M29" s="20" t="s"/>
-      <c r="N29" s="22" t="s"/>
+      <c r="N29" s="21" t="s"/>
     </row>
     <row r="30" spans="3:14" ht="41.4" customHeight="true">
       <c r="C30" s="15" t="s"/>
-      <c r="D30" s="26" t="s"/>
+      <c r="D30" s="24" t="s"/>
       <c r="E30" s="15" t="s"/>
-      <c r="F30" s="24" t="s"/>
-      <c r="G30" s="23" t="s"/>
-      <c r="H30" s="23" t="s"/>
+      <c r="F30" s="23" t="s"/>
+      <c r="G30" s="22" t="s"/>
+      <c r="H30" s="22" t="s"/>
       <c r="I30" s="15" t="s"/>
       <c r="J30" s="15" t="s"/>
       <c r="K30" s="15" t="s"/>
       <c r="L30" s="15" t="s"/>
       <c r="M30" s="20" t="s"/>
-      <c r="N30" s="22" t="s"/>
+      <c r="N30" s="21" t="s"/>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="15" t="s"/>
-      <c r="D31" s="26" t="s"/>
+      <c r="D31" s="24" t="s"/>
       <c r="E31" s="15" t="s"/>
-      <c r="F31" s="24" t="s"/>
+      <c r="F31" s="23" t="s"/>
       <c r="G31" s="15" t="s"/>
       <c r="H31" s="15" t="s"/>
       <c r="I31" s="15" t="s"/>
@@ -4277,13 +4312,13 @@
       <c r="K31" s="15" t="s"/>
       <c r="L31" s="15" t="s"/>
       <c r="M31" s="15" t="s"/>
-      <c r="N31" s="22" t="s"/>
+      <c r="N31" s="21" t="s"/>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="15" t="s"/>
-      <c r="D32" s="26" t="s"/>
+      <c r="D32" s="24" t="s"/>
       <c r="E32" s="15" t="s"/>
-      <c r="F32" s="24" t="s"/>
+      <c r="F32" s="23" t="s"/>
       <c r="G32" s="15" t="s"/>
       <c r="H32" s="15" t="s"/>
       <c r="I32" s="15" t="s"/>
@@ -4291,44 +4326,44 @@
       <c r="K32" s="15" t="s"/>
       <c r="L32" s="15" t="s"/>
       <c r="M32" s="15" t="s"/>
-      <c r="N32" s="22" t="s"/>
+      <c r="N32" s="21" t="s"/>
     </row>
     <row r="33" spans="3:14" ht="14.25" customHeight="true">
       <c r="C33" s="15" t="s"/>
-      <c r="D33" s="22" t="s"/>
-      <c r="E33" s="23" t="s"/>
-      <c r="F33" s="24" t="s"/>
-      <c r="G33" s="23" t="s"/>
-      <c r="H33" s="23" t="s"/>
-      <c r="I33" s="23" t="s"/>
+      <c r="D33" s="21" t="s"/>
+      <c r="E33" s="22" t="s"/>
+      <c r="F33" s="23" t="s"/>
+      <c r="G33" s="22" t="s"/>
+      <c r="H33" s="22" t="s"/>
+      <c r="I33" s="22" t="s"/>
       <c r="J33" s="15" t="s"/>
       <c r="K33" s="15" t="s"/>
       <c r="L33" s="15" t="s"/>
       <c r="M33" s="20" t="s"/>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <f>=MAX(M33:M36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="15" t="s"/>
-      <c r="D34" s="26" t="s"/>
-      <c r="E34" s="23" t="s"/>
-      <c r="F34" s="24" t="s"/>
-      <c r="G34" s="23" t="s"/>
+      <c r="D34" s="24" t="s"/>
+      <c r="E34" s="22" t="s"/>
+      <c r="F34" s="23" t="s"/>
+      <c r="G34" s="22" t="s"/>
       <c r="H34" s="15" t="s"/>
-      <c r="I34" s="23" t="s"/>
+      <c r="I34" s="22" t="s"/>
       <c r="J34" s="15" t="s"/>
       <c r="K34" s="15" t="s"/>
       <c r="L34" s="15" t="s"/>
       <c r="M34" s="20" t="s"/>
-      <c r="N34" s="22" t="s"/>
+      <c r="N34" s="21" t="s"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="15" t="s"/>
-      <c r="D35" s="26" t="s"/>
-      <c r="E35" s="23" t="s"/>
-      <c r="F35" s="24" t="s"/>
+      <c r="D35" s="24" t="s"/>
+      <c r="E35" s="22" t="s"/>
+      <c r="F35" s="23" t="s"/>
       <c r="G35" s="15" t="s"/>
       <c r="H35" s="15" t="s"/>
       <c r="I35" s="15" t="s"/>
@@ -4336,13 +4371,13 @@
       <c r="K35" s="15" t="s"/>
       <c r="L35" s="15" t="s"/>
       <c r="M35" s="20" t="s"/>
-      <c r="N35" s="22" t="s"/>
+      <c r="N35" s="21" t="s"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="15" t="s"/>
-      <c r="D36" s="26" t="s"/>
-      <c r="E36" s="23" t="s"/>
-      <c r="F36" s="24" t="s"/>
+      <c r="D36" s="24" t="s"/>
+      <c r="E36" s="22" t="s"/>
+      <c r="F36" s="23" t="s"/>
       <c r="G36" s="15" t="s"/>
       <c r="H36" s="15" t="s"/>
       <c r="I36" s="15" t="s"/>
@@ -4350,13 +4385,13 @@
       <c r="K36" s="15" t="s"/>
       <c r="L36" s="15" t="s"/>
       <c r="M36" s="15" t="s"/>
-      <c r="N36" s="22" t="s"/>
+      <c r="N36" s="21" t="s"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="15" t="s"/>
-      <c r="D37" s="26" t="s"/>
-      <c r="E37" s="23" t="s"/>
-      <c r="F37" s="24" t="s"/>
+      <c r="D37" s="24" t="s"/>
+      <c r="E37" s="22" t="s"/>
+      <c r="F37" s="23" t="s"/>
       <c r="G37" s="15" t="s"/>
       <c r="H37" s="15" t="s"/>
       <c r="I37" s="15" t="s"/>
@@ -4364,44 +4399,44 @@
       <c r="K37" s="15" t="s"/>
       <c r="L37" s="15" t="s"/>
       <c r="M37" s="15" t="s"/>
-      <c r="N37" s="22" t="s"/>
+      <c r="N37" s="21" t="s"/>
     </row>
     <row r="38" spans="3:14" ht="55.2" customHeight="true">
       <c r="C38" s="15" t="s"/>
-      <c r="D38" s="22" t="s"/>
+      <c r="D38" s="21" t="s"/>
       <c r="E38" s="15" t="s"/>
-      <c r="F38" s="24" t="s"/>
-      <c r="G38" s="23" t="s"/>
-      <c r="H38" s="23" t="s"/>
+      <c r="F38" s="23" t="s"/>
+      <c r="G38" s="22" t="s"/>
+      <c r="H38" s="22" t="s"/>
       <c r="I38" s="15" t="s"/>
-      <c r="J38" s="23" t="s"/>
-      <c r="K38" s="23" t="s"/>
-      <c r="L38" s="23" t="s"/>
+      <c r="J38" s="22" t="s"/>
+      <c r="K38" s="22" t="s"/>
+      <c r="L38" s="22" t="s"/>
       <c r="M38" s="20" t="s"/>
-      <c r="N38" s="22">
+      <c r="N38" s="21">
         <f>=MAX(M38:M41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
       <c r="C39" s="15" t="s"/>
-      <c r="D39" s="26" t="s"/>
+      <c r="D39" s="24" t="s"/>
       <c r="E39" s="15" t="s"/>
-      <c r="F39" s="24" t="s"/>
-      <c r="G39" s="23" t="s"/>
-      <c r="H39" s="23" t="s"/>
+      <c r="F39" s="23" t="s"/>
+      <c r="G39" s="22" t="s"/>
+      <c r="H39" s="22" t="s"/>
       <c r="I39" s="15" t="s"/>
-      <c r="J39" s="23" t="s"/>
-      <c r="K39" s="23" t="s"/>
-      <c r="L39" s="23" t="s"/>
+      <c r="J39" s="22" t="s"/>
+      <c r="K39" s="22" t="s"/>
+      <c r="L39" s="22" t="s"/>
       <c r="M39" s="20" t="s"/>
-      <c r="N39" s="22" t="s"/>
+      <c r="N39" s="21" t="s"/>
     </row>
     <row r="40" spans="3:14">
       <c r="C40" s="15" t="s"/>
-      <c r="D40" s="26" t="s"/>
+      <c r="D40" s="24" t="s"/>
       <c r="E40" s="15" t="s"/>
-      <c r="F40" s="24" t="s"/>
+      <c r="F40" s="23" t="s"/>
       <c r="G40" s="15" t="s"/>
       <c r="H40" s="15" t="s"/>
       <c r="I40" s="15" t="s"/>
@@ -4409,13 +4444,13 @@
       <c r="K40" s="15" t="s"/>
       <c r="L40" s="15" t="s"/>
       <c r="M40" s="20" t="s"/>
-      <c r="N40" s="22" t="s"/>
+      <c r="N40" s="21" t="s"/>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="15" t="s"/>
-      <c r="D41" s="26" t="s"/>
+      <c r="D41" s="24" t="s"/>
       <c r="E41" s="15" t="s"/>
-      <c r="F41" s="24" t="s"/>
+      <c r="F41" s="23" t="s"/>
       <c r="G41" s="15" t="s"/>
       <c r="H41" s="15" t="s"/>
       <c r="I41" s="15" t="s"/>
@@ -4423,13 +4458,13 @@
       <c r="K41" s="15" t="s"/>
       <c r="L41" s="15" t="s"/>
       <c r="M41" s="15" t="s"/>
-      <c r="N41" s="22" t="s"/>
+      <c r="N41" s="21" t="s"/>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="15" t="s"/>
-      <c r="D42" s="26" t="s"/>
+      <c r="D42" s="24" t="s"/>
       <c r="E42" s="15" t="s"/>
-      <c r="F42" s="24" t="s"/>
+      <c r="F42" s="23" t="s"/>
       <c r="G42" s="15" t="s"/>
       <c r="H42" s="15" t="s"/>
       <c r="I42" s="15" t="s"/>
@@ -4437,7 +4472,7 @@
       <c r="K42" s="15" t="s"/>
       <c r="L42" s="15" t="s"/>
       <c r="M42" s="15" t="s"/>
-      <c r="N42" s="22" t="s"/>
+      <c r="N42" s="21" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4682,19 +4717,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I16" s="18" t="s"/>
       <c r="J16" s="18" t="s"/>
@@ -4748,271 +4783,271 @@
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
       <c r="C18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="22">
+        <v>23</v>
+      </c>
+      <c r="D18" s="21">
         <v>0.25</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="E18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="23">
         <v>45229</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>60</v>
+      <c r="G18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="I18" s="15" t="s"/>
-      <c r="J18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="23" t="s"/>
+      <c r="J18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="22" t="s"/>
       <c r="M18" s="20">
         <v>0.16</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f>=MAX(M20:M22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
       <c r="C19" s="15" t="s"/>
-      <c r="D19" s="26" t="s"/>
+      <c r="D19" s="24" t="s"/>
       <c r="E19" s="15" t="s"/>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>45230</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>60</v>
+      <c r="G19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="I19" s="15" t="s"/>
-      <c r="J19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="28">
+      <c r="J19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="25">
         <v>0.32</v>
       </c>
-      <c r="N19" s="22" t="s"/>
+      <c r="N19" s="21" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
       <c r="C20" s="15" t="s"/>
-      <c r="D20" s="26" t="s"/>
+      <c r="D20" s="24" t="s"/>
       <c r="E20" s="15" t="s"/>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>45231</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>60</v>
+      <c r="G20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="I20" s="15" t="s"/>
-      <c r="J20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>57</v>
+      <c r="J20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="M20" s="20">
         <v>0.42</v>
       </c>
-      <c r="N20" s="22" t="s"/>
+      <c r="N20" s="21" t="s"/>
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="15" t="s"/>
-      <c r="D21" s="26" t="s"/>
+      <c r="D21" s="24" t="s"/>
       <c r="E21" s="15" t="s"/>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>45232</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>60</v>
+      <c r="G21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="I21" s="15" t="s"/>
-      <c r="J21" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>57</v>
+      <c r="J21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="M21" s="20">
         <v>0.76</v>
       </c>
-      <c r="N21" s="22" t="s"/>
+      <c r="N21" s="21" t="s"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="15" t="s"/>
-      <c r="D22" s="26" t="s"/>
+      <c r="D22" s="24" t="s"/>
       <c r="E22" s="15" t="s"/>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>45233</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>60</v>
+      <c r="G22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="I22" s="15" t="s"/>
-      <c r="J22" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>47</v>
+      <c r="J22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M22" s="20">
         <v>1</v>
       </c>
-      <c r="N22" s="22" t="s"/>
+      <c r="N22" s="21" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
       <c r="C23" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="22">
+        <v>31</v>
+      </c>
+      <c r="D23" s="21">
         <v>0.25</v>
       </c>
-      <c r="E23" s="23" t="s"/>
-      <c r="F23" s="24">
+      <c r="E23" s="22" t="s"/>
+      <c r="F23" s="23">
         <v>45234</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="23" t="s"/>
+      <c r="G23" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="22" t="s"/>
       <c r="I23" s="15" t="s"/>
-      <c r="J23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>47</v>
+      <c r="J23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M23" s="20">
         <v>0</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="21">
         <f>=MAX(M23:M26)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="55.2" customHeight="true">
       <c r="C24" s="15" t="s"/>
-      <c r="D24" s="26" t="s"/>
+      <c r="D24" s="24" t="s"/>
       <c r="E24" s="15" t="s"/>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>45235</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="23" t="s"/>
+      <c r="G24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="22" t="s"/>
       <c r="I24" s="15" t="s"/>
-      <c r="J24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>66</v>
+      <c r="J24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="M24" s="20">
         <v>0</v>
       </c>
-      <c r="N24" s="22" t="s"/>
+      <c r="N24" s="21" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
       <c r="C25" s="15" t="s"/>
-      <c r="D25" s="26" t="s"/>
+      <c r="D25" s="24" t="s"/>
       <c r="E25" s="15" t="s"/>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>45236</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>60</v>
+      <c r="G25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="I25" s="15" t="s"/>
       <c r="J25" s="15" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M25" s="20">
         <v>0.02</v>
       </c>
-      <c r="N25" s="22" t="s"/>
+      <c r="N25" s="21" t="s"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="15" t="s"/>
-      <c r="D26" s="26" t="s"/>
+      <c r="D26" s="24" t="s"/>
       <c r="E26" s="15" t="s"/>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>45237</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I26" s="15" t="s"/>
       <c r="J26" s="15" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M26" s="20">
         <v>0.04</v>
       </c>
-      <c r="N26" s="22" t="s"/>
+      <c r="N26" s="21" t="s"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="15" t="s"/>
-      <c r="D27" s="26" t="s"/>
+      <c r="D27" s="24" t="s"/>
       <c r="E27" s="15" t="s"/>
-      <c r="F27" s="24" t="s"/>
+      <c r="F27" s="23" t="s"/>
       <c r="G27" s="15" t="s"/>
       <c r="H27" s="15" t="s"/>
       <c r="I27" s="15" t="s"/>
@@ -5020,58 +5055,58 @@
       <c r="K27" s="15" t="s"/>
       <c r="L27" s="15" t="s"/>
       <c r="M27" s="15" t="s"/>
-      <c r="N27" s="22" t="s"/>
+      <c r="N27" s="21" t="s"/>
     </row>
     <row r="28" spans="3:14" ht="55.2" customHeight="true">
       <c r="C28" s="15" t="s"/>
-      <c r="D28" s="22" t="s"/>
-      <c r="E28" s="23" t="s"/>
-      <c r="F28" s="24" t="s"/>
-      <c r="G28" s="23" t="s"/>
-      <c r="H28" s="23" t="s"/>
+      <c r="D28" s="21" t="s"/>
+      <c r="E28" s="22" t="s"/>
+      <c r="F28" s="23" t="s"/>
+      <c r="G28" s="22" t="s"/>
+      <c r="H28" s="22" t="s"/>
       <c r="I28" s="15" t="s"/>
-      <c r="J28" s="23" t="s"/>
-      <c r="K28" s="23" t="s"/>
-      <c r="L28" s="23" t="s"/>
+      <c r="J28" s="22" t="s"/>
+      <c r="K28" s="22" t="s"/>
+      <c r="L28" s="22" t="s"/>
       <c r="M28" s="20" t="s"/>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <f>=MAX(M28:M31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
       <c r="C29" s="15" t="s"/>
-      <c r="D29" s="26" t="s"/>
+      <c r="D29" s="24" t="s"/>
       <c r="E29" s="15" t="s"/>
-      <c r="F29" s="24" t="s"/>
-      <c r="G29" s="23" t="s"/>
-      <c r="H29" s="23" t="s"/>
+      <c r="F29" s="23" t="s"/>
+      <c r="G29" s="22" t="s"/>
+      <c r="H29" s="22" t="s"/>
       <c r="I29" s="15" t="s"/>
-      <c r="J29" s="23" t="s"/>
-      <c r="K29" s="23" t="s"/>
-      <c r="L29" s="23" t="s"/>
+      <c r="J29" s="22" t="s"/>
+      <c r="K29" s="22" t="s"/>
+      <c r="L29" s="22" t="s"/>
       <c r="M29" s="20" t="s"/>
-      <c r="N29" s="22" t="s"/>
+      <c r="N29" s="21" t="s"/>
     </row>
     <row r="30" spans="3:14" ht="41.4" customHeight="true">
       <c r="C30" s="15" t="s"/>
-      <c r="D30" s="26" t="s"/>
+      <c r="D30" s="24" t="s"/>
       <c r="E30" s="15" t="s"/>
-      <c r="F30" s="24" t="s"/>
-      <c r="G30" s="23" t="s"/>
-      <c r="H30" s="23" t="s"/>
+      <c r="F30" s="23" t="s"/>
+      <c r="G30" s="22" t="s"/>
+      <c r="H30" s="22" t="s"/>
       <c r="I30" s="15" t="s"/>
       <c r="J30" s="15" t="s"/>
       <c r="K30" s="15" t="s"/>
       <c r="L30" s="15" t="s"/>
       <c r="M30" s="20" t="s"/>
-      <c r="N30" s="22" t="s"/>
+      <c r="N30" s="21" t="s"/>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="15" t="s"/>
-      <c r="D31" s="26" t="s"/>
+      <c r="D31" s="24" t="s"/>
       <c r="E31" s="15" t="s"/>
-      <c r="F31" s="24" t="s"/>
+      <c r="F31" s="23" t="s"/>
       <c r="G31" s="15" t="s"/>
       <c r="H31" s="15" t="s"/>
       <c r="I31" s="15" t="s"/>
@@ -5079,13 +5114,13 @@
       <c r="K31" s="15" t="s"/>
       <c r="L31" s="15" t="s"/>
       <c r="M31" s="15" t="s"/>
-      <c r="N31" s="22" t="s"/>
+      <c r="N31" s="21" t="s"/>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="15" t="s"/>
-      <c r="D32" s="26" t="s"/>
+      <c r="D32" s="24" t="s"/>
       <c r="E32" s="15" t="s"/>
-      <c r="F32" s="24" t="s"/>
+      <c r="F32" s="23" t="s"/>
       <c r="G32" s="15" t="s"/>
       <c r="H32" s="15" t="s"/>
       <c r="I32" s="15" t="s"/>
@@ -5093,44 +5128,44 @@
       <c r="K32" s="15" t="s"/>
       <c r="L32" s="15" t="s"/>
       <c r="M32" s="15" t="s"/>
-      <c r="N32" s="22" t="s"/>
+      <c r="N32" s="21" t="s"/>
     </row>
     <row r="33" spans="3:14" ht="14.25" customHeight="true">
       <c r="C33" s="15" t="s"/>
-      <c r="D33" s="22" t="s"/>
-      <c r="E33" s="23" t="s"/>
-      <c r="F33" s="24" t="s"/>
-      <c r="G33" s="23" t="s"/>
-      <c r="H33" s="23" t="s"/>
-      <c r="I33" s="23" t="s"/>
+      <c r="D33" s="21" t="s"/>
+      <c r="E33" s="22" t="s"/>
+      <c r="F33" s="23" t="s"/>
+      <c r="G33" s="22" t="s"/>
+      <c r="H33" s="22" t="s"/>
+      <c r="I33" s="22" t="s"/>
       <c r="J33" s="15" t="s"/>
       <c r="K33" s="15" t="s"/>
       <c r="L33" s="15" t="s"/>
       <c r="M33" s="20" t="s"/>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <f>=MAX(M33:M36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="15" t="s"/>
-      <c r="D34" s="26" t="s"/>
-      <c r="E34" s="23" t="s"/>
-      <c r="F34" s="24" t="s"/>
-      <c r="G34" s="23" t="s"/>
+      <c r="D34" s="24" t="s"/>
+      <c r="E34" s="22" t="s"/>
+      <c r="F34" s="23" t="s"/>
+      <c r="G34" s="22" t="s"/>
       <c r="H34" s="15" t="s"/>
-      <c r="I34" s="23" t="s"/>
+      <c r="I34" s="22" t="s"/>
       <c r="J34" s="15" t="s"/>
       <c r="K34" s="15" t="s"/>
       <c r="L34" s="15" t="s"/>
       <c r="M34" s="20" t="s"/>
-      <c r="N34" s="22" t="s"/>
+      <c r="N34" s="21" t="s"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="15" t="s"/>
-      <c r="D35" s="26" t="s"/>
-      <c r="E35" s="23" t="s"/>
-      <c r="F35" s="24" t="s"/>
+      <c r="D35" s="24" t="s"/>
+      <c r="E35" s="22" t="s"/>
+      <c r="F35" s="23" t="s"/>
       <c r="G35" s="15" t="s"/>
       <c r="H35" s="15" t="s"/>
       <c r="I35" s="15" t="s"/>
@@ -5138,13 +5173,13 @@
       <c r="K35" s="15" t="s"/>
       <c r="L35" s="15" t="s"/>
       <c r="M35" s="20" t="s"/>
-      <c r="N35" s="22" t="s"/>
+      <c r="N35" s="21" t="s"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="15" t="s"/>
-      <c r="D36" s="26" t="s"/>
-      <c r="E36" s="23" t="s"/>
-      <c r="F36" s="24" t="s"/>
+      <c r="D36" s="24" t="s"/>
+      <c r="E36" s="22" t="s"/>
+      <c r="F36" s="23" t="s"/>
       <c r="G36" s="15" t="s"/>
       <c r="H36" s="15" t="s"/>
       <c r="I36" s="15" t="s"/>
@@ -5152,13 +5187,13 @@
       <c r="K36" s="15" t="s"/>
       <c r="L36" s="15" t="s"/>
       <c r="M36" s="15" t="s"/>
-      <c r="N36" s="22" t="s"/>
+      <c r="N36" s="21" t="s"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="15" t="s"/>
-      <c r="D37" s="26" t="s"/>
-      <c r="E37" s="23" t="s"/>
-      <c r="F37" s="24" t="s"/>
+      <c r="D37" s="24" t="s"/>
+      <c r="E37" s="22" t="s"/>
+      <c r="F37" s="23" t="s"/>
       <c r="G37" s="15" t="s"/>
       <c r="H37" s="15" t="s"/>
       <c r="I37" s="15" t="s"/>
@@ -5166,44 +5201,44 @@
       <c r="K37" s="15" t="s"/>
       <c r="L37" s="15" t="s"/>
       <c r="M37" s="15" t="s"/>
-      <c r="N37" s="22" t="s"/>
+      <c r="N37" s="21" t="s"/>
     </row>
     <row r="38" spans="3:14" ht="55.2" customHeight="true">
       <c r="C38" s="15" t="s"/>
-      <c r="D38" s="22" t="s"/>
+      <c r="D38" s="21" t="s"/>
       <c r="E38" s="15" t="s"/>
-      <c r="F38" s="24" t="s"/>
-      <c r="G38" s="23" t="s"/>
-      <c r="H38" s="23" t="s"/>
+      <c r="F38" s="23" t="s"/>
+      <c r="G38" s="22" t="s"/>
+      <c r="H38" s="22" t="s"/>
       <c r="I38" s="15" t="s"/>
-      <c r="J38" s="23" t="s"/>
-      <c r="K38" s="23" t="s"/>
-      <c r="L38" s="23" t="s"/>
+      <c r="J38" s="22" t="s"/>
+      <c r="K38" s="22" t="s"/>
+      <c r="L38" s="22" t="s"/>
       <c r="M38" s="20" t="s"/>
-      <c r="N38" s="22">
+      <c r="N38" s="21">
         <f>=MAX(M38:M41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
       <c r="C39" s="15" t="s"/>
-      <c r="D39" s="26" t="s"/>
+      <c r="D39" s="24" t="s"/>
       <c r="E39" s="15" t="s"/>
-      <c r="F39" s="24" t="s"/>
-      <c r="G39" s="23" t="s"/>
-      <c r="H39" s="23" t="s"/>
+      <c r="F39" s="23" t="s"/>
+      <c r="G39" s="22" t="s"/>
+      <c r="H39" s="22" t="s"/>
       <c r="I39" s="15" t="s"/>
-      <c r="J39" s="23" t="s"/>
-      <c r="K39" s="23" t="s"/>
-      <c r="L39" s="23" t="s"/>
+      <c r="J39" s="22" t="s"/>
+      <c r="K39" s="22" t="s"/>
+      <c r="L39" s="22" t="s"/>
       <c r="M39" s="20" t="s"/>
-      <c r="N39" s="22" t="s"/>
+      <c r="N39" s="21" t="s"/>
     </row>
     <row r="40" spans="3:14">
       <c r="C40" s="15" t="s"/>
-      <c r="D40" s="26" t="s"/>
+      <c r="D40" s="24" t="s"/>
       <c r="E40" s="15" t="s"/>
-      <c r="F40" s="24" t="s"/>
+      <c r="F40" s="23" t="s"/>
       <c r="G40" s="15" t="s"/>
       <c r="H40" s="15" t="s"/>
       <c r="I40" s="15" t="s"/>
@@ -5211,13 +5246,13 @@
       <c r="K40" s="15" t="s"/>
       <c r="L40" s="15" t="s"/>
       <c r="M40" s="20" t="s"/>
-      <c r="N40" s="22" t="s"/>
+      <c r="N40" s="21" t="s"/>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="15" t="s"/>
-      <c r="D41" s="26" t="s"/>
+      <c r="D41" s="24" t="s"/>
       <c r="E41" s="15" t="s"/>
-      <c r="F41" s="24" t="s"/>
+      <c r="F41" s="23" t="s"/>
       <c r="G41" s="15" t="s"/>
       <c r="H41" s="15" t="s"/>
       <c r="I41" s="15" t="s"/>
@@ -5225,13 +5260,13 @@
       <c r="K41" s="15" t="s"/>
       <c r="L41" s="15" t="s"/>
       <c r="M41" s="15" t="s"/>
-      <c r="N41" s="22" t="s"/>
+      <c r="N41" s="21" t="s"/>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="15" t="s"/>
-      <c r="D42" s="26" t="s"/>
+      <c r="D42" s="24" t="s"/>
       <c r="E42" s="15" t="s"/>
-      <c r="F42" s="24" t="s"/>
+      <c r="F42" s="23" t="s"/>
       <c r="G42" s="15" t="s"/>
       <c r="H42" s="15" t="s"/>
       <c r="I42" s="15" t="s"/>
@@ -5239,7 +5274,7 @@
       <c r="K42" s="15" t="s"/>
       <c r="L42" s="15" t="s"/>
       <c r="M42" s="15" t="s"/>
-      <c r="N42" s="22" t="s"/>
+      <c r="N42" s="21" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5290,854 +5325,854 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="22.8" customHeight="true">
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89" t="s"/>
-      <c r="E3" s="89" t="s"/>
-      <c r="F3" s="89" t="s"/>
-      <c r="G3" s="89" t="s"/>
-      <c r="H3" s="89" t="s"/>
-      <c r="I3" s="89" t="s"/>
-      <c r="J3" s="89" t="s"/>
-      <c r="K3" s="89" t="s"/>
-      <c r="L3" s="89" t="s"/>
-      <c r="M3" s="89" t="s"/>
-      <c r="N3" s="90" t="s"/>
+      <c r="D3" s="31" t="s"/>
+      <c r="E3" s="31" t="s"/>
+      <c r="F3" s="31" t="s"/>
+      <c r="G3" s="31" t="s"/>
+      <c r="H3" s="31" t="s"/>
+      <c r="I3" s="31" t="s"/>
+      <c r="J3" s="31" t="s"/>
+      <c r="K3" s="31" t="s"/>
+      <c r="L3" s="31" t="s"/>
+      <c r="M3" s="31" t="s"/>
+      <c r="N3" s="32" t="s"/>
     </row>
     <row r="4" spans="3:14" ht="131.25" customHeight="true">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="93" t="s"/>
-      <c r="F4" s="93" t="s"/>
-      <c r="G4" s="93" t="s"/>
-      <c r="H4" s="93" t="s"/>
-      <c r="I4" s="93" t="s"/>
-      <c r="J4" s="93" t="s"/>
-      <c r="K4" s="93" t="s"/>
-      <c r="L4" s="93" t="s"/>
-      <c r="M4" s="93" t="s"/>
-      <c r="N4" s="94" t="s"/>
+      <c r="E4" s="35" t="s"/>
+      <c r="F4" s="35" t="s"/>
+      <c r="G4" s="35" t="s"/>
+      <c r="H4" s="35" t="s"/>
+      <c r="I4" s="35" t="s"/>
+      <c r="J4" s="35" t="s"/>
+      <c r="K4" s="35" t="s"/>
+      <c r="L4" s="35" t="s"/>
+      <c r="M4" s="35" t="s"/>
+      <c r="N4" s="36" t="s"/>
     </row>
     <row r="5" spans="3:14">
-      <c r="C5" s="91" t="s"/>
-      <c r="D5" s="95" t="s"/>
-      <c r="E5" s="96" t="s"/>
-      <c r="F5" s="96" t="s"/>
-      <c r="G5" s="96" t="s"/>
-      <c r="H5" s="96" t="s"/>
-      <c r="I5" s="96" t="s"/>
-      <c r="J5" s="96" t="s"/>
-      <c r="K5" s="96" t="s"/>
-      <c r="L5" s="96" t="s"/>
-      <c r="M5" s="96" t="s"/>
-      <c r="N5" s="97" t="s"/>
+      <c r="C5" s="33" t="s"/>
+      <c r="D5" s="37" t="s"/>
+      <c r="E5" s="38" t="s"/>
+      <c r="F5" s="38" t="s"/>
+      <c r="G5" s="38" t="s"/>
+      <c r="H5" s="38" t="s"/>
+      <c r="I5" s="38" t="s"/>
+      <c r="J5" s="38" t="s"/>
+      <c r="K5" s="38" t="s"/>
+      <c r="L5" s="38" t="s"/>
+      <c r="M5" s="38" t="s"/>
+      <c r="N5" s="39" t="s"/>
     </row>
     <row r="6" spans="3:14">
-      <c r="C6" s="91" t="s"/>
-      <c r="D6" s="95" t="s"/>
-      <c r="E6" s="96" t="s"/>
-      <c r="F6" s="96" t="s"/>
-      <c r="G6" s="96" t="s"/>
-      <c r="H6" s="96" t="s"/>
-      <c r="I6" s="96" t="s"/>
-      <c r="J6" s="96" t="s"/>
-      <c r="K6" s="96" t="s"/>
-      <c r="L6" s="96" t="s"/>
-      <c r="M6" s="96" t="s"/>
-      <c r="N6" s="97" t="s"/>
+      <c r="C6" s="33" t="s"/>
+      <c r="D6" s="37" t="s"/>
+      <c r="E6" s="38" t="s"/>
+      <c r="F6" s="38" t="s"/>
+      <c r="G6" s="38" t="s"/>
+      <c r="H6" s="38" t="s"/>
+      <c r="I6" s="38" t="s"/>
+      <c r="J6" s="38" t="s"/>
+      <c r="K6" s="38" t="s"/>
+      <c r="L6" s="38" t="s"/>
+      <c r="M6" s="38" t="s"/>
+      <c r="N6" s="39" t="s"/>
     </row>
     <row r="7" spans="3:14">
-      <c r="C7" s="91" t="s"/>
-      <c r="D7" s="95" t="s"/>
-      <c r="E7" s="96" t="s"/>
-      <c r="F7" s="96" t="s"/>
-      <c r="G7" s="96" t="s"/>
-      <c r="H7" s="96" t="s"/>
-      <c r="I7" s="96" t="s"/>
-      <c r="J7" s="96" t="s"/>
-      <c r="K7" s="96" t="s"/>
-      <c r="L7" s="96" t="s"/>
-      <c r="M7" s="96" t="s"/>
-      <c r="N7" s="97" t="s"/>
+      <c r="C7" s="33" t="s"/>
+      <c r="D7" s="37" t="s"/>
+      <c r="E7" s="38" t="s"/>
+      <c r="F7" s="38" t="s"/>
+      <c r="G7" s="38" t="s"/>
+      <c r="H7" s="38" t="s"/>
+      <c r="I7" s="38" t="s"/>
+      <c r="J7" s="38" t="s"/>
+      <c r="K7" s="38" t="s"/>
+      <c r="L7" s="38" t="s"/>
+      <c r="M7" s="38" t="s"/>
+      <c r="N7" s="39" t="s"/>
     </row>
     <row r="8" spans="3:14">
-      <c r="C8" s="91" t="s"/>
-      <c r="D8" s="95" t="s"/>
-      <c r="E8" s="96" t="s"/>
-      <c r="F8" s="96" t="s"/>
-      <c r="G8" s="96" t="s"/>
-      <c r="H8" s="96" t="s"/>
-      <c r="I8" s="96" t="s"/>
-      <c r="J8" s="96" t="s"/>
-      <c r="K8" s="96" t="s"/>
-      <c r="L8" s="96" t="s"/>
-      <c r="M8" s="96" t="s"/>
-      <c r="N8" s="97" t="s"/>
+      <c r="C8" s="33" t="s"/>
+      <c r="D8" s="37" t="s"/>
+      <c r="E8" s="38" t="s"/>
+      <c r="F8" s="38" t="s"/>
+      <c r="G8" s="38" t="s"/>
+      <c r="H8" s="38" t="s"/>
+      <c r="I8" s="38" t="s"/>
+      <c r="J8" s="38" t="s"/>
+      <c r="K8" s="38" t="s"/>
+      <c r="L8" s="38" t="s"/>
+      <c r="M8" s="38" t="s"/>
+      <c r="N8" s="39" t="s"/>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="91" t="s"/>
-      <c r="D9" s="95" t="s"/>
-      <c r="E9" s="96" t="s"/>
-      <c r="F9" s="96" t="s"/>
-      <c r="G9" s="96" t="s"/>
-      <c r="H9" s="96" t="s"/>
-      <c r="I9" s="96" t="s"/>
-      <c r="J9" s="96" t="s"/>
-      <c r="K9" s="96" t="s"/>
-      <c r="L9" s="96" t="s"/>
-      <c r="M9" s="96" t="s"/>
-      <c r="N9" s="97" t="s"/>
+      <c r="C9" s="33" t="s"/>
+      <c r="D9" s="37" t="s"/>
+      <c r="E9" s="38" t="s"/>
+      <c r="F9" s="38" t="s"/>
+      <c r="G9" s="38" t="s"/>
+      <c r="H9" s="38" t="s"/>
+      <c r="I9" s="38" t="s"/>
+      <c r="J9" s="38" t="s"/>
+      <c r="K9" s="38" t="s"/>
+      <c r="L9" s="38" t="s"/>
+      <c r="M9" s="38" t="s"/>
+      <c r="N9" s="39" t="s"/>
     </row>
     <row r="10" spans="3:14">
-      <c r="C10" s="91" t="s"/>
-      <c r="D10" s="95" t="s"/>
-      <c r="E10" s="96" t="s"/>
-      <c r="F10" s="96" t="s"/>
-      <c r="G10" s="96" t="s"/>
-      <c r="H10" s="96" t="s"/>
-      <c r="I10" s="96" t="s"/>
-      <c r="J10" s="96" t="s"/>
-      <c r="K10" s="96" t="s"/>
-      <c r="L10" s="96" t="s"/>
-      <c r="M10" s="96" t="s"/>
-      <c r="N10" s="97" t="s"/>
+      <c r="C10" s="33" t="s"/>
+      <c r="D10" s="37" t="s"/>
+      <c r="E10" s="38" t="s"/>
+      <c r="F10" s="38" t="s"/>
+      <c r="G10" s="38" t="s"/>
+      <c r="H10" s="38" t="s"/>
+      <c r="I10" s="38" t="s"/>
+      <c r="J10" s="38" t="s"/>
+      <c r="K10" s="38" t="s"/>
+      <c r="L10" s="38" t="s"/>
+      <c r="M10" s="38" t="s"/>
+      <c r="N10" s="39" t="s"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="91" t="s"/>
-      <c r="D11" s="95" t="s"/>
-      <c r="E11" s="96" t="s"/>
-      <c r="F11" s="96" t="s"/>
-      <c r="G11" s="96" t="s"/>
-      <c r="H11" s="96" t="s"/>
-      <c r="I11" s="96" t="s"/>
-      <c r="J11" s="96" t="s"/>
-      <c r="K11" s="96" t="s"/>
-      <c r="L11" s="96" t="s"/>
-      <c r="M11" s="96" t="s"/>
-      <c r="N11" s="97" t="s"/>
+      <c r="C11" s="33" t="s"/>
+      <c r="D11" s="37" t="s"/>
+      <c r="E11" s="38" t="s"/>
+      <c r="F11" s="38" t="s"/>
+      <c r="G11" s="38" t="s"/>
+      <c r="H11" s="38" t="s"/>
+      <c r="I11" s="38" t="s"/>
+      <c r="J11" s="38" t="s"/>
+      <c r="K11" s="38" t="s"/>
+      <c r="L11" s="38" t="s"/>
+      <c r="M11" s="38" t="s"/>
+      <c r="N11" s="39" t="s"/>
     </row>
     <row r="12" spans="3:14">
-      <c r="C12" s="91" t="s"/>
-      <c r="D12" s="95" t="s"/>
-      <c r="E12" s="96" t="s"/>
-      <c r="F12" s="96" t="s"/>
-      <c r="G12" s="96" t="s"/>
-      <c r="H12" s="96" t="s"/>
-      <c r="I12" s="96" t="s"/>
-      <c r="J12" s="96" t="s"/>
-      <c r="K12" s="96" t="s"/>
-      <c r="L12" s="96" t="s"/>
-      <c r="M12" s="96" t="s"/>
-      <c r="N12" s="97" t="s"/>
+      <c r="C12" s="33" t="s"/>
+      <c r="D12" s="37" t="s"/>
+      <c r="E12" s="38" t="s"/>
+      <c r="F12" s="38" t="s"/>
+      <c r="G12" s="38" t="s"/>
+      <c r="H12" s="38" t="s"/>
+      <c r="I12" s="38" t="s"/>
+      <c r="J12" s="38" t="s"/>
+      <c r="K12" s="38" t="s"/>
+      <c r="L12" s="38" t="s"/>
+      <c r="M12" s="38" t="s"/>
+      <c r="N12" s="39" t="s"/>
     </row>
     <row r="13" spans="3:14">
-      <c r="C13" s="91" t="s"/>
-      <c r="D13" s="95" t="s"/>
-      <c r="E13" s="96" t="s"/>
-      <c r="F13" s="96" t="s"/>
-      <c r="G13" s="96" t="s"/>
-      <c r="H13" s="96" t="s"/>
-      <c r="I13" s="96" t="s"/>
-      <c r="J13" s="96" t="s"/>
-      <c r="K13" s="96" t="s"/>
-      <c r="L13" s="96" t="s"/>
-      <c r="M13" s="96" t="s"/>
-      <c r="N13" s="97" t="s"/>
+      <c r="C13" s="33" t="s"/>
+      <c r="D13" s="37" t="s"/>
+      <c r="E13" s="38" t="s"/>
+      <c r="F13" s="38" t="s"/>
+      <c r="G13" s="38" t="s"/>
+      <c r="H13" s="38" t="s"/>
+      <c r="I13" s="38" t="s"/>
+      <c r="J13" s="38" t="s"/>
+      <c r="K13" s="38" t="s"/>
+      <c r="L13" s="38" t="s"/>
+      <c r="M13" s="38" t="s"/>
+      <c r="N13" s="39" t="s"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="91" t="s"/>
-      <c r="D14" s="95" t="s"/>
-      <c r="E14" s="96" t="s"/>
-      <c r="F14" s="96" t="s"/>
-      <c r="G14" s="96" t="s"/>
-      <c r="H14" s="96" t="s"/>
-      <c r="I14" s="96" t="s"/>
-      <c r="J14" s="96" t="s"/>
-      <c r="K14" s="96" t="s"/>
-      <c r="L14" s="96" t="s"/>
-      <c r="M14" s="96" t="s"/>
-      <c r="N14" s="97" t="s"/>
+      <c r="C14" s="33" t="s"/>
+      <c r="D14" s="37" t="s"/>
+      <c r="E14" s="38" t="s"/>
+      <c r="F14" s="38" t="s"/>
+      <c r="G14" s="38" t="s"/>
+      <c r="H14" s="38" t="s"/>
+      <c r="I14" s="38" t="s"/>
+      <c r="J14" s="38" t="s"/>
+      <c r="K14" s="38" t="s"/>
+      <c r="L14" s="38" t="s"/>
+      <c r="M14" s="38" t="s"/>
+      <c r="N14" s="39" t="s"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="91" t="s"/>
-      <c r="D15" s="98" t="s"/>
-      <c r="E15" s="99" t="s"/>
-      <c r="F15" s="99" t="s"/>
-      <c r="G15" s="99" t="s"/>
-      <c r="H15" s="99" t="s"/>
-      <c r="I15" s="99" t="s"/>
-      <c r="J15" s="99" t="s"/>
-      <c r="K15" s="99" t="s"/>
-      <c r="L15" s="99" t="s"/>
-      <c r="M15" s="99" t="s"/>
-      <c r="N15" s="100" t="s"/>
+      <c r="C15" s="33" t="s"/>
+      <c r="D15" s="40" t="s"/>
+      <c r="E15" s="41" t="s"/>
+      <c r="F15" s="41" t="s"/>
+      <c r="G15" s="41" t="s"/>
+      <c r="H15" s="41" t="s"/>
+      <c r="I15" s="41" t="s"/>
+      <c r="J15" s="41" t="s"/>
+      <c r="K15" s="41" t="s"/>
+      <c r="L15" s="41" t="s"/>
+      <c r="M15" s="41" t="s"/>
+      <c r="N15" s="42" t="s"/>
     </row>
     <row r="16" spans="3:14" ht="99" customHeight="true">
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="F16" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="103" t="s"/>
-      <c r="J16" s="103" t="s"/>
-      <c r="K16" s="103" t="s"/>
-      <c r="L16" s="104" t="s"/>
-      <c r="M16" s="91" t="s">
+      <c r="H16" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="46" t="s"/>
+      <c r="J16" s="46" t="s"/>
+      <c r="K16" s="46" t="s"/>
+      <c r="L16" s="47" t="s"/>
+      <c r="M16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="86">
+      <c r="N16" s="48">
         <f>=N18*D18+N23*D23+N28*D28+N33*D33+N38*D38</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="91" t="s">
+      <c r="F17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="91" t="s">
+      <c r="G17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="91" t="s">
+      <c r="H17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="91" t="s">
+      <c r="I17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="91" t="s">
+      <c r="J17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="91" t="s">
+      <c r="K17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="91" t="s">
+      <c r="L17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="91" t="s">
+      <c r="M17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="91" t="s">
+      <c r="N17" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C18" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="87">
+      <c r="C18" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="49">
         <v>0.2</v>
       </c>
-      <c r="E18" s="85" t="s"/>
-      <c r="F18" s="84">
+      <c r="E18" s="50" t="s"/>
+      <c r="F18" s="51">
         <v>44544</v>
       </c>
-      <c r="G18" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="82" t="s"/>
-      <c r="J18" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="86">
+      <c r="G18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="43" t="s"/>
+      <c r="J18" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="48">
         <v>0.1</v>
       </c>
-      <c r="N18" s="87">
+      <c r="N18" s="49">
         <f>=MAX(M18:M21)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C19" s="82" t="s"/>
-      <c r="D19" s="83" t="s"/>
-      <c r="E19" s="82" t="s"/>
-      <c r="F19" s="84">
+      <c r="C19" s="43" t="s"/>
+      <c r="D19" s="52" t="s"/>
+      <c r="E19" s="43" t="s"/>
+      <c r="F19" s="51">
         <v>44545</v>
       </c>
-      <c r="G19" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="86">
+      <c r="G19" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="48">
         <v>0.45</v>
       </c>
-      <c r="N19" s="87" t="s"/>
+      <c r="N19" s="49" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C20" s="82" t="s"/>
-      <c r="D20" s="83" t="s"/>
-      <c r="E20" s="82" t="s"/>
-      <c r="F20" s="84">
+      <c r="C20" s="43" t="s"/>
+      <c r="D20" s="52" t="s"/>
+      <c r="E20" s="43" t="s"/>
+      <c r="F20" s="51">
         <v>44546</v>
       </c>
-      <c r="G20" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" s="86">
+      <c r="G20" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="48">
         <v>1</v>
       </c>
-      <c r="N20" s="87" t="s"/>
+      <c r="N20" s="49" t="s"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="82" t="s"/>
-      <c r="D21" s="83" t="s"/>
-      <c r="E21" s="82" t="s"/>
-      <c r="F21" s="84">
+      <c r="C21" s="43" t="s"/>
+      <c r="D21" s="52" t="s"/>
+      <c r="E21" s="43" t="s"/>
+      <c r="F21" s="51">
         <v>44547</v>
       </c>
-      <c r="G21" s="82" t="s"/>
-      <c r="H21" s="82" t="s"/>
-      <c r="I21" s="82" t="s"/>
-      <c r="J21" s="82" t="s"/>
-      <c r="K21" s="82" t="s"/>
-      <c r="L21" s="82" t="s"/>
-      <c r="M21" s="82" t="s"/>
-      <c r="N21" s="87" t="s"/>
+      <c r="G21" s="43" t="s"/>
+      <c r="H21" s="43" t="s"/>
+      <c r="I21" s="43" t="s"/>
+      <c r="J21" s="43" t="s"/>
+      <c r="K21" s="43" t="s"/>
+      <c r="L21" s="43" t="s"/>
+      <c r="M21" s="43" t="s"/>
+      <c r="N21" s="49" t="s"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="82" t="s"/>
-      <c r="D22" s="83" t="s"/>
-      <c r="E22" s="82" t="s"/>
-      <c r="F22" s="84">
+      <c r="C22" s="43" t="s"/>
+      <c r="D22" s="52" t="s"/>
+      <c r="E22" s="43" t="s"/>
+      <c r="F22" s="51">
         <v>44548</v>
       </c>
-      <c r="G22" s="82" t="s"/>
-      <c r="H22" s="82" t="s"/>
-      <c r="I22" s="82" t="s"/>
-      <c r="J22" s="82" t="s"/>
-      <c r="K22" s="82" t="s"/>
-      <c r="L22" s="82" t="s"/>
-      <c r="M22" s="82" t="s"/>
-      <c r="N22" s="87" t="s"/>
+      <c r="G22" s="43" t="s"/>
+      <c r="H22" s="43" t="s"/>
+      <c r="I22" s="43" t="s"/>
+      <c r="J22" s="43" t="s"/>
+      <c r="K22" s="43" t="s"/>
+      <c r="L22" s="43" t="s"/>
+      <c r="M22" s="43" t="s"/>
+      <c r="N22" s="49" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C23" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="87">
+      <c r="C23" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="49">
         <v>0.2</v>
       </c>
-      <c r="E23" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="84">
+      <c r="E23" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="51">
         <v>44544</v>
       </c>
-      <c r="G23" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="82" t="s"/>
-      <c r="J23" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" s="86">
+      <c r="G23" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="43" t="s"/>
+      <c r="J23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="48">
         <v>0.1</v>
       </c>
-      <c r="N23" s="87">
+      <c r="N23" s="49">
         <f>=MAX(M23:M26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C24" s="82" t="s"/>
-      <c r="D24" s="83" t="s"/>
-      <c r="E24" s="82" t="s"/>
-      <c r="F24" s="84">
+      <c r="C24" s="43" t="s"/>
+      <c r="D24" s="52" t="s"/>
+      <c r="E24" s="43" t="s"/>
+      <c r="F24" s="51">
         <v>44545</v>
       </c>
-      <c r="G24" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="M24" s="86">
+      <c r="G24" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="48">
         <v>0.45</v>
       </c>
-      <c r="N24" s="87" t="s"/>
+      <c r="N24" s="49" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
-      <c r="C25" s="82" t="s"/>
-      <c r="D25" s="83" t="s"/>
-      <c r="E25" s="82" t="s"/>
-      <c r="F25" s="84">
+      <c r="C25" s="43" t="s"/>
+      <c r="D25" s="52" t="s"/>
+      <c r="E25" s="43" t="s"/>
+      <c r="F25" s="51">
         <v>44546</v>
       </c>
-      <c r="G25" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="82" t="s"/>
-      <c r="K25" s="82" t="s"/>
-      <c r="L25" s="82" t="s"/>
-      <c r="M25" s="86">
+      <c r="G25" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="43" t="s"/>
+      <c r="K25" s="43" t="s"/>
+      <c r="L25" s="43" t="s"/>
+      <c r="M25" s="48">
         <v>1</v>
       </c>
-      <c r="N25" s="87" t="s"/>
+      <c r="N25" s="49" t="s"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="82" t="s"/>
-      <c r="D26" s="83" t="s"/>
-      <c r="E26" s="82" t="s"/>
-      <c r="F26" s="84">
+      <c r="C26" s="43" t="s"/>
+      <c r="D26" s="52" t="s"/>
+      <c r="E26" s="43" t="s"/>
+      <c r="F26" s="51">
         <v>44547</v>
       </c>
-      <c r="G26" s="82" t="s"/>
-      <c r="H26" s="82" t="s"/>
-      <c r="I26" s="82" t="s"/>
-      <c r="J26" s="82" t="s"/>
-      <c r="K26" s="82" t="s"/>
-      <c r="L26" s="82" t="s"/>
-      <c r="M26" s="82" t="s"/>
-      <c r="N26" s="87" t="s"/>
+      <c r="G26" s="43" t="s"/>
+      <c r="H26" s="43" t="s"/>
+      <c r="I26" s="43" t="s"/>
+      <c r="J26" s="43" t="s"/>
+      <c r="K26" s="43" t="s"/>
+      <c r="L26" s="43" t="s"/>
+      <c r="M26" s="43" t="s"/>
+      <c r="N26" s="49" t="s"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="82" t="s"/>
-      <c r="D27" s="83" t="s"/>
-      <c r="E27" s="82" t="s"/>
-      <c r="F27" s="84">
+      <c r="C27" s="43" t="s"/>
+      <c r="D27" s="52" t="s"/>
+      <c r="E27" s="43" t="s"/>
+      <c r="F27" s="51">
         <v>44548</v>
       </c>
-      <c r="G27" s="82" t="s"/>
-      <c r="H27" s="82" t="s"/>
-      <c r="I27" s="82" t="s"/>
-      <c r="J27" s="82" t="s"/>
-      <c r="K27" s="82" t="s"/>
-      <c r="L27" s="82" t="s"/>
-      <c r="M27" s="82" t="s"/>
-      <c r="N27" s="87" t="s"/>
+      <c r="G27" s="43" t="s"/>
+      <c r="H27" s="43" t="s"/>
+      <c r="I27" s="43" t="s"/>
+      <c r="J27" s="43" t="s"/>
+      <c r="K27" s="43" t="s"/>
+      <c r="L27" s="43" t="s"/>
+      <c r="M27" s="43" t="s"/>
+      <c r="N27" s="49" t="s"/>
     </row>
     <row r="28" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C28" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="87">
+      <c r="C28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="49">
         <v>0.3</v>
       </c>
-      <c r="E28" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="84">
+      <c r="E28" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="51">
         <v>44544</v>
       </c>
-      <c r="G28" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="82" t="s"/>
-      <c r="J28" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" s="86">
+      <c r="G28" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="43" t="s"/>
+      <c r="J28" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="48">
         <v>0.1</v>
       </c>
-      <c r="N28" s="87">
+      <c r="N28" s="49">
         <f>=MAX(M28:M31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C29" s="82" t="s"/>
-      <c r="D29" s="83" t="s"/>
-      <c r="E29" s="82" t="s"/>
-      <c r="F29" s="84">
+      <c r="C29" s="43" t="s"/>
+      <c r="D29" s="52" t="s"/>
+      <c r="E29" s="43" t="s"/>
+      <c r="F29" s="51">
         <v>44545</v>
       </c>
-      <c r="G29" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="85" t="s">
+      <c r="G29" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" s="48">
+        <v>0.45</v>
+      </c>
+      <c r="N29" s="49" t="s"/>
+    </row>
+    <row r="30" spans="3:14" ht="41.4" customHeight="true">
+      <c r="C30" s="43" t="s"/>
+      <c r="D30" s="52" t="s"/>
+      <c r="E30" s="43" t="s"/>
+      <c r="F30" s="51">
+        <v>44546</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="43" t="s"/>
+      <c r="K30" s="43" t="s"/>
+      <c r="L30" s="43" t="s"/>
+      <c r="M30" s="48">
+        <v>1</v>
+      </c>
+      <c r="N30" s="49" t="s"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="43" t="s"/>
+      <c r="D31" s="52" t="s"/>
+      <c r="E31" s="43" t="s"/>
+      <c r="F31" s="51">
+        <v>44547</v>
+      </c>
+      <c r="G31" s="43" t="s"/>
+      <c r="H31" s="43" t="s"/>
+      <c r="I31" s="43" t="s"/>
+      <c r="J31" s="43" t="s"/>
+      <c r="K31" s="43" t="s"/>
+      <c r="L31" s="43" t="s"/>
+      <c r="M31" s="43" t="s"/>
+      <c r="N31" s="49" t="s"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="43" t="s"/>
+      <c r="D32" s="52" t="s"/>
+      <c r="E32" s="43" t="s"/>
+      <c r="F32" s="51">
+        <v>44548</v>
+      </c>
+      <c r="G32" s="43" t="s"/>
+      <c r="H32" s="43" t="s"/>
+      <c r="I32" s="43" t="s"/>
+      <c r="J32" s="43" t="s"/>
+      <c r="K32" s="43" t="s"/>
+      <c r="L32" s="43" t="s"/>
+      <c r="M32" s="43" t="s"/>
+      <c r="N32" s="49" t="s"/>
+    </row>
+    <row r="33" spans="3:14" ht="14.25" customHeight="true">
+      <c r="C33" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="M29" s="86">
-        <v>0.45</v>
-      </c>
-      <c r="N29" s="87" t="s"/>
-    </row>
-    <row r="30" spans="3:14" ht="41.4" customHeight="true">
-      <c r="C30" s="82" t="s"/>
-      <c r="D30" s="83" t="s"/>
-      <c r="E30" s="82" t="s"/>
-      <c r="F30" s="84">
-        <v>44546</v>
-      </c>
-      <c r="G30" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="82" t="s"/>
-      <c r="K30" s="82" t="s"/>
-      <c r="L30" s="82" t="s"/>
-      <c r="M30" s="86">
-        <v>1</v>
-      </c>
-      <c r="N30" s="87" t="s"/>
-    </row>
-    <row r="31" spans="3:14">
-      <c r="C31" s="82" t="s"/>
-      <c r="D31" s="83" t="s"/>
-      <c r="E31" s="82" t="s"/>
-      <c r="F31" s="84">
-        <v>44547</v>
-      </c>
-      <c r="G31" s="82" t="s"/>
-      <c r="H31" s="82" t="s"/>
-      <c r="I31" s="82" t="s"/>
-      <c r="J31" s="82" t="s"/>
-      <c r="K31" s="82" t="s"/>
-      <c r="L31" s="82" t="s"/>
-      <c r="M31" s="82" t="s"/>
-      <c r="N31" s="87" t="s"/>
-    </row>
-    <row r="32" spans="3:14">
-      <c r="C32" s="82" t="s"/>
-      <c r="D32" s="83" t="s"/>
-      <c r="E32" s="82" t="s"/>
-      <c r="F32" s="84">
-        <v>44548</v>
-      </c>
-      <c r="G32" s="82" t="s"/>
-      <c r="H32" s="82" t="s"/>
-      <c r="I32" s="82" t="s"/>
-      <c r="J32" s="82" t="s"/>
-      <c r="K32" s="82" t="s"/>
-      <c r="L32" s="82" t="s"/>
-      <c r="M32" s="82" t="s"/>
-      <c r="N32" s="87" t="s"/>
-    </row>
-    <row r="33" spans="3:14" ht="14.25" customHeight="true">
-      <c r="C33" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="87">
-        <v>0.2</v>
-      </c>
-      <c r="E33" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="84">
+      <c r="F33" s="51">
         <v>44544</v>
       </c>
-      <c r="G33" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="85" t="s"/>
-      <c r="J33" s="82" t="s"/>
-      <c r="K33" s="82" t="s"/>
-      <c r="L33" s="82" t="s"/>
-      <c r="M33" s="86">
+      <c r="G33" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="50" t="s"/>
+      <c r="J33" s="43" t="s"/>
+      <c r="K33" s="43" t="s"/>
+      <c r="L33" s="43" t="s"/>
+      <c r="M33" s="48">
         <v>0.1</v>
       </c>
-      <c r="N33" s="87">
+      <c r="N33" s="49">
         <f>=MAX(M33:M36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:14">
-      <c r="C34" s="82" t="s"/>
-      <c r="D34" s="83" t="s"/>
-      <c r="E34" s="85" t="s"/>
-      <c r="F34" s="84">
+      <c r="C34" s="43" t="s"/>
+      <c r="D34" s="52" t="s"/>
+      <c r="E34" s="50" t="s"/>
+      <c r="F34" s="51">
         <v>44545</v>
       </c>
-      <c r="G34" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="82" t="s"/>
-      <c r="I34" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="82" t="s"/>
-      <c r="K34" s="82" t="s"/>
-      <c r="L34" s="82" t="s"/>
-      <c r="M34" s="86">
+      <c r="G34" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="43" t="s"/>
+      <c r="I34" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="43" t="s"/>
+      <c r="K34" s="43" t="s"/>
+      <c r="L34" s="43" t="s"/>
+      <c r="M34" s="48">
         <v>0.45</v>
       </c>
-      <c r="N34" s="87" t="s"/>
+      <c r="N34" s="49" t="s"/>
     </row>
     <row r="35" spans="3:14">
-      <c r="C35" s="82" t="s"/>
-      <c r="D35" s="83" t="s"/>
-      <c r="E35" s="85" t="s"/>
-      <c r="F35" s="84">
+      <c r="C35" s="43" t="s"/>
+      <c r="D35" s="52" t="s"/>
+      <c r="E35" s="50" t="s"/>
+      <c r="F35" s="51">
         <v>44546</v>
       </c>
-      <c r="G35" s="82" t="s"/>
-      <c r="H35" s="82" t="s"/>
-      <c r="I35" s="82" t="s"/>
-      <c r="J35" s="82" t="s"/>
-      <c r="K35" s="82" t="s"/>
-      <c r="L35" s="82" t="s"/>
-      <c r="M35" s="86">
+      <c r="G35" s="43" t="s"/>
+      <c r="H35" s="43" t="s"/>
+      <c r="I35" s="43" t="s"/>
+      <c r="J35" s="43" t="s"/>
+      <c r="K35" s="43" t="s"/>
+      <c r="L35" s="43" t="s"/>
+      <c r="M35" s="48">
         <v>1</v>
       </c>
-      <c r="N35" s="87" t="s"/>
+      <c r="N35" s="49" t="s"/>
     </row>
     <row r="36" spans="3:14">
-      <c r="C36" s="82" t="s"/>
-      <c r="D36" s="83" t="s"/>
-      <c r="E36" s="85" t="s"/>
-      <c r="F36" s="84">
+      <c r="C36" s="43" t="s"/>
+      <c r="D36" s="52" t="s"/>
+      <c r="E36" s="50" t="s"/>
+      <c r="F36" s="51">
         <v>44547</v>
       </c>
-      <c r="G36" s="82" t="s"/>
-      <c r="H36" s="82" t="s"/>
-      <c r="I36" s="82" t="s"/>
-      <c r="J36" s="82" t="s"/>
-      <c r="K36" s="82" t="s"/>
-      <c r="L36" s="82" t="s"/>
-      <c r="M36" s="82" t="s"/>
-      <c r="N36" s="87" t="s"/>
+      <c r="G36" s="43" t="s"/>
+      <c r="H36" s="43" t="s"/>
+      <c r="I36" s="43" t="s"/>
+      <c r="J36" s="43" t="s"/>
+      <c r="K36" s="43" t="s"/>
+      <c r="L36" s="43" t="s"/>
+      <c r="M36" s="43" t="s"/>
+      <c r="N36" s="49" t="s"/>
     </row>
     <row r="37" spans="3:14">
-      <c r="C37" s="82" t="s"/>
-      <c r="D37" s="83" t="s"/>
-      <c r="E37" s="85" t="s"/>
-      <c r="F37" s="84">
+      <c r="C37" s="43" t="s"/>
+      <c r="D37" s="52" t="s"/>
+      <c r="E37" s="50" t="s"/>
+      <c r="F37" s="51">
         <v>44548</v>
       </c>
-      <c r="G37" s="82" t="s"/>
-      <c r="H37" s="82" t="s"/>
-      <c r="I37" s="82" t="s"/>
-      <c r="J37" s="82" t="s"/>
-      <c r="K37" s="82" t="s"/>
-      <c r="L37" s="82" t="s"/>
-      <c r="M37" s="82" t="s"/>
-      <c r="N37" s="87" t="s"/>
+      <c r="G37" s="43" t="s"/>
+      <c r="H37" s="43" t="s"/>
+      <c r="I37" s="43" t="s"/>
+      <c r="J37" s="43" t="s"/>
+      <c r="K37" s="43" t="s"/>
+      <c r="L37" s="43" t="s"/>
+      <c r="M37" s="43" t="s"/>
+      <c r="N37" s="49" t="s"/>
     </row>
     <row r="38" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C38" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="87">
+      <c r="C38" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="49">
         <v>0.1</v>
       </c>
-      <c r="E38" s="82" t="s"/>
-      <c r="F38" s="84">
+      <c r="E38" s="43" t="s"/>
+      <c r="F38" s="51">
         <v>44544</v>
       </c>
-      <c r="G38" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="85" t="s">
+      <c r="G38" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="L38" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="M38" s="86">
+      <c r="J38" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="48">
         <v>0.1</v>
       </c>
-      <c r="N38" s="87">
+      <c r="N38" s="49">
         <f>=MAX(M38:M41)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C39" s="82" t="s"/>
-      <c r="D39" s="83" t="s"/>
-      <c r="E39" s="82" t="s"/>
-      <c r="F39" s="84">
+      <c r="C39" s="43" t="s"/>
+      <c r="D39" s="52" t="s"/>
+      <c r="E39" s="43" t="s"/>
+      <c r="F39" s="51">
         <v>44545</v>
       </c>
-      <c r="G39" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="K39" s="85" t="s">
+      <c r="G39" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="L39" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="M39" s="86">
+      <c r="J39" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="48">
         <v>0.45</v>
       </c>
-      <c r="N39" s="87" t="s"/>
+      <c r="N39" s="49" t="s"/>
     </row>
     <row r="40" spans="3:14">
-      <c r="C40" s="82" t="s"/>
-      <c r="D40" s="83" t="s"/>
-      <c r="E40" s="82" t="s"/>
-      <c r="F40" s="84">
+      <c r="C40" s="43" t="s"/>
+      <c r="D40" s="52" t="s"/>
+      <c r="E40" s="43" t="s"/>
+      <c r="F40" s="51">
         <v>44546</v>
       </c>
-      <c r="G40" s="82" t="s"/>
-      <c r="H40" s="82" t="s"/>
-      <c r="I40" s="82" t="s"/>
-      <c r="J40" s="82" t="s"/>
-      <c r="K40" s="82" t="s"/>
-      <c r="L40" s="82" t="s"/>
-      <c r="M40" s="86">
+      <c r="G40" s="43" t="s"/>
+      <c r="H40" s="43" t="s"/>
+      <c r="I40" s="43" t="s"/>
+      <c r="J40" s="43" t="s"/>
+      <c r="K40" s="43" t="s"/>
+      <c r="L40" s="43" t="s"/>
+      <c r="M40" s="48">
         <v>1</v>
       </c>
-      <c r="N40" s="87" t="s"/>
+      <c r="N40" s="49" t="s"/>
     </row>
     <row r="41" spans="3:14">
-      <c r="C41" s="82" t="s"/>
-      <c r="D41" s="83" t="s"/>
-      <c r="E41" s="82" t="s"/>
-      <c r="F41" s="84">
+      <c r="C41" s="43" t="s"/>
+      <c r="D41" s="52" t="s"/>
+      <c r="E41" s="43" t="s"/>
+      <c r="F41" s="51">
         <v>44547</v>
       </c>
-      <c r="G41" s="82" t="s"/>
-      <c r="H41" s="82" t="s"/>
-      <c r="I41" s="82" t="s"/>
-      <c r="J41" s="82" t="s"/>
-      <c r="K41" s="82" t="s"/>
-      <c r="L41" s="82" t="s"/>
-      <c r="M41" s="82" t="s"/>
-      <c r="N41" s="87" t="s"/>
+      <c r="G41" s="43" t="s"/>
+      <c r="H41" s="43" t="s"/>
+      <c r="I41" s="43" t="s"/>
+      <c r="J41" s="43" t="s"/>
+      <c r="K41" s="43" t="s"/>
+      <c r="L41" s="43" t="s"/>
+      <c r="M41" s="43" t="s"/>
+      <c r="N41" s="49" t="s"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="82" t="s"/>
-      <c r="D42" s="83" t="s"/>
-      <c r="E42" s="82" t="s"/>
-      <c r="F42" s="84">
+      <c r="C42" s="43" t="s"/>
+      <c r="D42" s="52" t="s"/>
+      <c r="E42" s="43" t="s"/>
+      <c r="F42" s="51">
         <v>44548</v>
       </c>
-      <c r="G42" s="82" t="s"/>
-      <c r="H42" s="82" t="s"/>
-      <c r="I42" s="82" t="s"/>
-      <c r="J42" s="82" t="s"/>
-      <c r="K42" s="82" t="s"/>
-      <c r="L42" s="82" t="s"/>
-      <c r="M42" s="82" t="s"/>
-      <c r="N42" s="87" t="s"/>
+      <c r="G42" s="43" t="s"/>
+      <c r="H42" s="43" t="s"/>
+      <c r="I42" s="43" t="s"/>
+      <c r="J42" s="43" t="s"/>
+      <c r="K42" s="43" t="s"/>
+      <c r="L42" s="43" t="s"/>
+      <c r="M42" s="43" t="s"/>
+      <c r="N42" s="49" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/NIIT-GUET-2022-Batch-2-Group2_开发日报.xlsx
+++ b/NIIT-GUET-2022-Batch-2-Group2_开发日报.xlsx
@@ -20,13 +20,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={46FE677E-E76D-4FE0-AB35-278D1F99FBDF}</author>
-    <author>tc={907DE75B-05A3-4F57-AFBF-19B0AD46B3DF}</author>
-    <author>tc={62B0E58C-02DB-4664-B94C-928387306677}</author>
-    <author>tc={BEEEA598-C1C8-4A3E-A6C3-510FA5A43CE7}</author>
+    <author>tc={8ACD047D-24DA-4C3F-BEF2-1B25121BB379}</author>
+    <author>tc={45E1C1E3-7913-471E-895A-D22DB063A34C}</author>
+    <author>tc={6EF35030-ECA6-4ED0-88CF-58B8B27D5D84}</author>
+    <author>tc={8AB43CE5-0FB0-4AF8-950F-C42863381427}</author>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <t>NIIT:
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="1">
+    <comment ref="E11" authorId="1">
       <text>
         <r>
           <t>NIIT:
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="2">
+    <comment ref="G11" authorId="2">
       <text>
         <r>
           <t>NIIT:
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="3">
+    <comment ref="D11" authorId="3">
       <text>
         <r>
           <t>NIIT:
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t/>
   </si>
@@ -90,20 +90,19 @@
     <t>队员姓名</t>
   </si>
   <si>
-    <t>陈伟安</t>
+    <t>杨俊杰</t>
   </si>
   <si>
     <t>学号</t>
   </si>
   <si>
-    <t>221603020429</t>
+    <t>221603020430</t>
   </si>
   <si>
     <t>主要负责模块</t>
   </si>
   <si>
-    <t>1.物品发布页资料收集
-2.编写网页代码</t>
+    <t>跳蚤市场：1.收集资料  2.确定排版样式  3.编写代码</t>
   </si>
   <si>
     <t>队员总完成度</t>
@@ -145,125 +144,24 @@
     <t>任务完成度</t>
   </si>
   <si>
-    <t>物品发布页资料收集</t>
-  </si>
-  <si>
-    <t>网页收集</t>
-  </si>
-  <si>
-    <t>23/11/2</t>
-  </si>
-  <si>
-    <t>收集图片</t>
-  </si>
-  <si>
-    <t>图片基本收集完成</t>
-  </si>
-  <si>
-    <t>图片大小，清晰度不统一</t>
-  </si>
-  <si>
-    <t>进行图片的修改</t>
-  </si>
-  <si>
-    <t>23/11/5</t>
-  </si>
-  <si>
-    <t>收集相关资料</t>
-  </si>
-  <si>
-    <t>相关图片的资料基本收集完全</t>
-  </si>
-  <si>
-    <t>个人信息等资料有待收集</t>
-  </si>
-  <si>
-    <t>考虑是否隐藏个人信息</t>
-  </si>
-  <si>
-    <t>编写网页代码</t>
-  </si>
-  <si>
-    <t>凌建华</t>
-  </si>
-  <si>
-    <t>221603020427</t>
-  </si>
-  <si>
-    <t>1. 整合与搜索所需材料
-2. 物品详细页面</t>
-  </si>
-  <si>
-    <t>1.整合与搜索所需材料</t>
-  </si>
-  <si>
-    <t>网络搜索与整合</t>
-  </si>
-  <si>
-    <t>收集相关材料图片</t>
-  </si>
-  <si>
-    <t>bing搜索确实好用</t>
-  </si>
-  <si>
-    <t>没有好的图片素材</t>
-  </si>
-  <si>
-    <t>找更好的素材</t>
-  </si>
-  <si>
-    <t>整合材料</t>
-  </si>
-  <si>
-    <t>文心一言整合文字确实挺不错的</t>
+    <t>收集资料</t>
+  </si>
+  <si>
+    <t>浏览器搜索</t>
+  </si>
+  <si>
+    <t>收集部分资料</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>收集和查阅资料很累，但是过程很开心</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>继续整合</t>
-  </si>
-  <si>
-    <t>发现好多好玩的二手物品</t>
-  </si>
-  <si>
-    <t>图片素材不够清晰</t>
-  </si>
-  <si>
-    <t>利用工具高清画图片</t>
-  </si>
-  <si>
-    <t>2.物品详细页面</t>
-  </si>
-  <si>
-    <t>JavaScript
-bootsrap</t>
-  </si>
-  <si>
-    <t>杨俊杰</t>
-  </si>
-  <si>
-    <t>221603020430</t>
-  </si>
-  <si>
-    <t>跳蚤市场：1.收集资料  2.确定排版样式  3.编写代码</t>
-  </si>
-  <si>
-    <t>收集资料</t>
-  </si>
-  <si>
-    <t>浏览器搜索</t>
-  </si>
-  <si>
-    <t>收集部分资料</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>收集和查阅资料很累，但是过程很开心</t>
-  </si>
-  <si>
     <t>很糟糕，网络不好</t>
   </si>
   <si>
@@ -273,6 +171,9 @@
     <t>确定排版样式</t>
   </si>
   <si>
+    <t>网页查找</t>
+  </si>
+  <si>
     <t>周末给自己放假</t>
   </si>
   <si>
@@ -327,42 +228,7 @@
     <t>更加严重了</t>
   </si>
   <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>校园二手物品交易平台</t>
-  </si>
-  <si>
-    <t>项目描述</t>
-  </si>
-  <si>
-    <t>主要模块和功能</t>
-  </si>
-  <si>
-    <t>主要实现技术</t>
-  </si>
-  <si>
-    <t>组长</t>
-  </si>
-  <si>
     <t>蒋祖为</t>
-  </si>
-  <si>
-    <t>团队成员</t>
-  </si>
-  <si>
-    <t>任务划分</t>
-  </si>
-  <si>
-    <t>1. 首页
-2. 用户登录与注册页面
-3.JS代码编写</t>
-  </si>
-  <si>
-    <t>总完成度</t>
-  </si>
-  <si>
-    <t>注：该文档，由组长创建在线共享文档，然后监督促队员的开发进度。</t>
   </si>
   <si>
     <t>221603020428</t>
@@ -432,6 +298,55 @@
     <t>2. xxx</t>
   </si>
   <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>校园二手物品交易平台</t>
+  </si>
+  <si>
+    <t>项目描述</t>
+  </si>
+  <si>
+    <t>主要模块和功能</t>
+  </si>
+  <si>
+    <t>主要实现技术</t>
+  </si>
+  <si>
+    <t>组长</t>
+  </si>
+  <si>
+    <t>团队成员</t>
+  </si>
+  <si>
+    <t>凌建华</t>
+  </si>
+  <si>
+    <t>陈伟安</t>
+  </si>
+  <si>
+    <t>任务划分</t>
+  </si>
+  <si>
+    <t>1. 首页
+2. 用户登录与注册页面
+3.JS代码编写</t>
+  </si>
+  <si>
+    <t>1. 整合与搜索所需材料
+2. 物品详细页面</t>
+  </si>
+  <si>
+    <t>1.物品发布页资料收集
+2.编写网页代码</t>
+  </si>
+  <si>
+    <t>总完成度</t>
+  </si>
+  <si>
+    <t>注：该文档，由组长创建在线共享文档，然后监督促队员的开发进度。</t>
+  </si>
+  <si>
     <t>1. 首页</t>
   </si>
   <si>
@@ -475,6 +390,9 @@
 2. 美化登录页面</t>
   </si>
   <si>
+    <t>1. 完善表单验证</t>
+  </si>
+  <si>
     <t>3. JS代码编写</t>
   </si>
   <si>
@@ -487,7 +405,167 @@
     <t>折腾了好几个小时，后面才发现localStorage只能存储字符串，需要把数组或JS对象进行相应转换才能存储与读取</t>
   </si>
   <si>
+    <t>1. 重构登录与注册表单验证的JS</t>
+  </si>
+  <si>
     <t>4. 文档（word、ppt）</t>
+  </si>
+  <si>
+    <t>221603020429</t>
+  </si>
+  <si>
+    <t>物品发布页资料收集</t>
+  </si>
+  <si>
+    <t>网页收集</t>
+  </si>
+  <si>
+    <t>23/11/2</t>
+  </si>
+  <si>
+    <t>收集图片</t>
+  </si>
+  <si>
+    <t>图片基本收集完成</t>
+  </si>
+  <si>
+    <t>图片大小，清晰度不统一</t>
+  </si>
+  <si>
+    <t>进行图片的修改</t>
+  </si>
+  <si>
+    <t>23/11/5</t>
+  </si>
+  <si>
+    <t>收集相关资料</t>
+  </si>
+  <si>
+    <t>相关图片的资料基本收集完全</t>
+  </si>
+  <si>
+    <t>个人信息等资料有待收集</t>
+  </si>
+  <si>
+    <t>考虑是否隐藏个人信息</t>
+  </si>
+  <si>
+    <t>23/11/7</t>
+  </si>
+  <si>
+    <t>收集图片材料</t>
+  </si>
+  <si>
+    <t>资料基本完成</t>
+  </si>
+  <si>
+    <t>23/11/10</t>
+  </si>
+  <si>
+    <t>23/11/13</t>
+  </si>
+  <si>
+    <t>整理材料</t>
+  </si>
+  <si>
+    <t>资料收集完毕</t>
+  </si>
+  <si>
+    <t>编写网页代码</t>
+  </si>
+  <si>
+    <t>221603020427</t>
+  </si>
+  <si>
+    <t>1.整合与搜索所需材料</t>
+  </si>
+  <si>
+    <t>网络搜索与整合</t>
+  </si>
+  <si>
+    <t>收集相关材料图片</t>
+  </si>
+  <si>
+    <t>bing搜索确实好用</t>
+  </si>
+  <si>
+    <t>没有好的图片素材</t>
+  </si>
+  <si>
+    <t>找更好的素材</t>
+  </si>
+  <si>
+    <t>整合材料</t>
+  </si>
+  <si>
+    <t>文心一言整合文字确实挺不错的</t>
+  </si>
+  <si>
+    <t>继续整合</t>
+  </si>
+  <si>
+    <t>发现好多好玩的二手物品</t>
+  </si>
+  <si>
+    <t>图片素材不够清晰</t>
+  </si>
+  <si>
+    <t>利用工具高清画图片</t>
+  </si>
+  <si>
+    <t>图片有水印</t>
+  </si>
+  <si>
+    <t>寻找更好的图源</t>
+  </si>
+  <si>
+    <t>整合所有材料</t>
+  </si>
+  <si>
+    <t>2.物品详细页面</t>
+  </si>
+  <si>
+    <t>JavaScript、
+bootsrap、HTML</t>
+  </si>
+  <si>
+    <t>页面初步编写</t>
+  </si>
+  <si>
+    <t>使我更加熟练使用bootstrap</t>
+  </si>
+  <si>
+    <t>元素位置不好调整</t>
+  </si>
+  <si>
+    <t>继续编写</t>
+  </si>
+  <si>
+    <t>更加了解bootstrap</t>
+  </si>
+  <si>
+    <t>图片不够规矩</t>
+  </si>
+  <si>
+    <t>调整页面</t>
+  </si>
+  <si>
+    <t>页面内容扩展</t>
+  </si>
+  <si>
+    <t>懂得bootstrap的更多用法</t>
+  </si>
+  <si>
+    <t>轮播图大小不好调整</t>
+  </si>
+  <si>
+    <t>继续修改</t>
+  </si>
+  <si>
+    <t>页面整合</t>
+  </si>
+  <si>
+    <t>大体轮廓初步成型获得成就感</t>
   </si>
   <si>
     <r>
@@ -735,6 +813,19 @@
       <name val="等线"/>
       <color theme="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="true"/>
+      <color theme="1"/>
+      <sz val="18"/>
     </font>
     <font>
       <name val="等线"/>
@@ -782,19 +873,6 @@
       <sz val="16"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="true"/>
-      <color theme="1"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -813,13 +891,13 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="52">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -966,9 +1044,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
     <border>
       <left style="thin">
         <color auto="true"/>
@@ -979,8 +1054,35 @@
       <top style="thin">
         <color auto="true"/>
       </top>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -993,9 +1095,77 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <diagonal/>
     </border>
     <border>
@@ -1022,6 +1192,20 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
       <right style="thin">
         <color auto="true"/>
       </right>
@@ -1111,14 +1295,101 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color auto="true"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <diagonal/>
     </border>
@@ -1129,10 +1400,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1144,10 +1415,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1159,10 +1430,10 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1172,28 +1443,34 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,61 +1479,40 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </top>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1265,28 +1521,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="true"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <bottom style="thin">
-        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,11 +1538,14 @@
       <left style="thin">
         <color auto="true"/>
       </left>
-      <right style="thin">
-        <color auto="true"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color auto="true"/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,100 +1553,16 @@
       <left style="thin">
         <color auto="true"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color auto="true"/>
       </right>
       <bottom style="thin">
         <color auto="true"/>
       </bottom>
-      <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-    </border>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0"/>
@@ -1548,7 +1711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,7 +1776,363 @@
     <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="14" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="15" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="15" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="15" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="16" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" xfId="0"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="16" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="16" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="17" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="17" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="19" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="18" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="19" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="17" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="20" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="17" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="21" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="22" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="23" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="20" xfId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="15" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="28" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="28" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="28" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="11" fillId="5" borderId="15" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="12" fillId="5" borderId="15" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="4" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="4" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="39" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="39" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="39" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="40" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="42" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="24" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="24" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="44" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="16" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="16" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="15" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="46" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="47" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="50" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="52" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="54" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="55" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="56" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="56" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="56" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="57" xfId="0"/>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1623,298 +2142,31 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="15" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="58" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="16" xfId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0">
+    <xf fontId="0" fillId="0" borderId="59" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="28" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="9" fillId="4" borderId="18" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="10" fillId="4" borderId="18" xfId="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="4" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="17" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="17" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="33" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="33" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0">
-      <alignment vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="33" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="34" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="18" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="36" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="18" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="38" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="38" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="39" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="42" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="44" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="44" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="44" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="45" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="4" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="47" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="50" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="51" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="51" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="51" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="51" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="51" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="6" fillId="3" borderId="9" xfId="0"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="28" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="300" fontId="8" fillId="3" borderId="9" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <tc2018:personList xmlns:tc2018="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <tc2018:person displayName="小莱" id="{CA4C9AA1-0F24-4594-9EB4-3CB7766737FC}"/>
+  <tc2018:person displayName="小莱" id="{E52639F0-F405-4E8F-A750-32C3CF0BCA38}"/>
 </tc2018:personList>
 </file>
 
@@ -2175,19 +2427,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <tc2018:ThreadedComments xmlns:tc2018="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <tc2018:threadedComment ref="D11" dT="2023-11-01T02:50:35Z" personId="{CA4C9AA1-0F24-4594-9EB4-3CB7766737FC}" id="{46FE677E-E76D-4FE0-AB35-278D1F99FBDF}">
+  <tc2018:threadedComment ref="F11" dT="2023-11-01T02:50:35Z" personId="{E52639F0-F405-4E8F-A750-32C3CF0BCA38}" id="{8ACD047D-24DA-4C3F-BEF2-1B25121BB379}">
     <tc2018:text>NIIT:
 由队长评估</tc2018:text>
   </tc2018:threadedComment>
-  <tc2018:threadedComment ref="G11" dT="2023-11-01T02:50:35Z" personId="{CA4C9AA1-0F24-4594-9EB4-3CB7766737FC}" id="{907DE75B-05A3-4F57-AFBF-19B0AD46B3DF}">
+  <tc2018:threadedComment ref="E11" dT="2023-11-01T02:50:35Z" personId="{E52639F0-F405-4E8F-A750-32C3CF0BCA38}" id="{45E1C1E3-7913-471E-895A-D22DB063A34C}">
     <tc2018:text>NIIT:
 由队长评估</tc2018:text>
   </tc2018:threadedComment>
-  <tc2018:threadedComment ref="E11" dT="2023-11-01T02:50:35Z" personId="{CA4C9AA1-0F24-4594-9EB4-3CB7766737FC}" id="{62B0E58C-02DB-4664-B94C-928387306677}">
+  <tc2018:threadedComment ref="G11" dT="2023-11-01T02:50:35Z" personId="{E52639F0-F405-4E8F-A750-32C3CF0BCA38}" id="{6EF35030-ECA6-4ED0-88CF-58B8B27D5D84}">
     <tc2018:text>NIIT:
 由队长评估</tc2018:text>
   </tc2018:threadedComment>
-  <tc2018:threadedComment ref="F11" dT="2023-11-01T02:50:35Z" personId="{CA4C9AA1-0F24-4594-9EB4-3CB7766737FC}" id="{BEEEA598-C1C8-4A3E-A6C3-510FA5A43CE7}">
+  <tc2018:threadedComment ref="D11" dT="2023-11-01T02:50:35Z" personId="{E52639F0-F405-4E8F-A750-32C3CF0BCA38}" id="{8AB43CE5-0FB0-4AF8-950F-C42863381427}">
     <tc2018:text>NIIT:
 由队长评估</tc2018:text>
   </tc2018:threadedComment>
@@ -2205,178 +2457,178 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.23047" style="122" hidden="true" customWidth="true"/>
-    <col min="2" max="2" width="7.85156" style="122" hidden="true" customWidth="true"/>
-    <col min="3" max="3" width="24.5" style="122" customWidth="true"/>
-    <col min="4" max="7" width="42.3796" style="122" customWidth="true"/>
-    <col min="8" max="26" width="9" style="122"/>
+    <col min="1" max="1" width="7.23047" style="157" hidden="true" customWidth="true"/>
+    <col min="2" max="2" width="7.85156" style="157" hidden="true" customWidth="true"/>
+    <col min="3" max="3" width="24.5" style="157" customWidth="true"/>
+    <col min="4" max="7" width="42.3796" style="157" customWidth="true"/>
+    <col min="8" max="26" width="9" style="157"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="30" customHeight="true">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s"/>
-      <c r="E2" s="32" t="s"/>
-      <c r="F2" s="32" t="s"/>
-      <c r="G2" s="33" t="s"/>
+      <c r="D2" s="79" t="s"/>
+      <c r="E2" s="79" t="s"/>
+      <c r="F2" s="79" t="s"/>
+      <c r="G2" s="80" t="s"/>
     </row>
     <row r="3" spans="3:7">
-      <c r="C3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="36" t="s"/>
-      <c r="F3" s="36" t="s"/>
-      <c r="G3" s="37" t="s"/>
+      <c r="C3" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="83" t="s"/>
+      <c r="F3" s="83" t="s"/>
+      <c r="G3" s="84" t="s"/>
     </row>
     <row r="4" spans="3:7" ht="145.5" customHeight="true">
-      <c r="C4" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="39" t="s"/>
-      <c r="F4" s="39" t="s"/>
-      <c r="G4" s="39" t="s"/>
+      <c r="C4" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="86" t="s"/>
+      <c r="F4" s="86" t="s"/>
+      <c r="G4" s="86" t="s"/>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="40" t="s"/>
-      <c r="F5" s="40" t="s"/>
-      <c r="G5" s="40" t="s"/>
+      <c r="C5" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="87" t="s"/>
+      <c r="F5" s="87" t="s"/>
+      <c r="G5" s="87" t="s"/>
     </row>
     <row r="6" spans="3:7" ht="225.75" customHeight="true">
-      <c r="C6" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="42" t="s"/>
-      <c r="F6" s="42" t="s"/>
-      <c r="G6" s="42" t="s"/>
+      <c r="C6" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="89" t="s"/>
+      <c r="F6" s="89" t="s"/>
+      <c r="G6" s="89" t="s"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="86" t="s">
         <f>=D8</f>
-        <v>89</v>
-      </c>
-      <c r="E7" s="39" t="s"/>
-      <c r="F7" s="39" t="s"/>
-      <c r="G7" s="39" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="86" t="s"/>
+      <c r="F7" s="86" t="s"/>
+      <c r="G7" s="86" t="s"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="86" t="s">
         <f>='开发日报-蒋祖为'!D16</f>
-        <v>89</v>
-      </c>
-      <c r="E8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="86" t="s">
         <f>='开发日报-凌建华'!D16</f>
-        <v>36</v>
-      </c>
-      <c r="F8" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="86" t="s">
         <f>='开发日报-陈伟安'!D16</f>
+        <v>77</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <f>='开发日报-杨俊杰'!D16</f>
         <v>5</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <f>='开发日报-杨俊杰'!D16</f>
-        <v>54</v>
-      </c>
     </row>
     <row r="9" spans="3:7" ht="81.6" customHeight="true">
-      <c r="C9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="87" t="s">
         <f>='开发日报-蒋祖为'!H16</f>
-        <v>92</v>
-      </c>
-      <c r="E9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="87" t="s">
         <f>='开发日报-凌建华'!H16</f>
-        <v>38</v>
-      </c>
-      <c r="F9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="87" t="s">
         <f>='开发日报-陈伟安'!H16</f>
+        <v>81</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <f>='开发日报-杨俊杰'!H16</f>
         <v>9</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <f>='开发日报-杨俊杰'!H16</f>
-        <v>56</v>
-      </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="90">
         <f>='开发日报-蒋祖为'!N16</f>
-        <v>0.225</v>
-      </c>
-      <c r="E10" s="43">
+        <v>0.309</v>
+      </c>
+      <c r="E10" s="90">
         <f>='开发日报-凌建华'!N16</f>
-        <v>0.12</v>
-      </c>
-      <c r="F10" s="43">
+        <v>0.42</v>
+      </c>
+      <c r="F10" s="90">
         <f>='开发日报-陈伟安'!N16</f>
         <v>0.2</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="90">
         <f>='开发日报-杨俊杰'!N16</f>
-        <v>0.26</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="90">
         <v>0.25</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="90">
         <v>0.25</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="90">
         <v>0.25</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="90">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="44">
+      <c r="C12" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="91">
         <f>=D10*D11+E10*E11+F10*F11+G10*G11</f>
-        <v>0.20125</v>
-      </c>
-      <c r="E12" s="45" t="s"/>
-      <c r="F12" s="45" t="s"/>
-      <c r="G12" s="45" t="s"/>
+        <v>0.310375</v>
+      </c>
+      <c r="E12" s="92" t="s"/>
+      <c r="F12" s="92" t="s"/>
+      <c r="G12" s="92" t="s"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="46" t="s"/>
-      <c r="E14" s="46" t="s"/>
-      <c r="F14" s="46" t="s"/>
-      <c r="G14" s="46" t="s"/>
+      <c r="C14" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="93" t="s"/>
+      <c r="E14" s="93" t="s"/>
+      <c r="F14" s="93" t="s"/>
+      <c r="G14" s="93" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2609,19 +2861,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I16" s="19" t="s"/>
       <c r="J16" s="19" t="s"/>
@@ -2632,489 +2884,505 @@
       </c>
       <c r="N16" s="21">
         <f>=N18*D18+N23*D23+N28*D28+N33*D33+N38*D38</f>
-        <v>0.225</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="70" t="s">
+      <c r="K17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="70" t="s">
+      <c r="M17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="70" t="s">
+      <c r="N17" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C18" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="72">
+      <c r="C18" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="95">
         <v>0.3</v>
       </c>
-      <c r="E18" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="74">
+      <c r="E18" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="97">
         <v>45231</v>
       </c>
-      <c r="G18" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="76" t="s"/>
-      <c r="J18" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="73" t="s"/>
-      <c r="L18" s="73" t="s"/>
-      <c r="M18" s="77">
+      <c r="G18" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="99" t="s"/>
+      <c r="J18" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="96" t="s"/>
+      <c r="L18" s="96" t="s"/>
+      <c r="M18" s="100">
         <v>0.1</v>
       </c>
-      <c r="N18" s="78">
+      <c r="N18" s="101">
         <f>=MAX(M18:M22)</f>
         <v>0.18</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C19" s="79" t="s"/>
-      <c r="D19" s="80" t="s"/>
-      <c r="E19" s="81" t="s"/>
-      <c r="F19" s="74">
+      <c r="C19" s="102" t="s"/>
+      <c r="D19" s="28" t="s"/>
+      <c r="E19" s="23" t="s"/>
+      <c r="F19" s="97">
         <v>45238</v>
       </c>
-      <c r="G19" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="81" t="s"/>
-      <c r="J19" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="82" t="s"/>
-      <c r="L19" s="82" t="s"/>
-      <c r="M19" s="83">
+      <c r="G19" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="23" t="s"/>
+      <c r="J19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="25" t="s"/>
+      <c r="L19" s="25" t="s"/>
+      <c r="M19" s="27">
         <v>0.15</v>
       </c>
-      <c r="N19" s="84" t="s"/>
+      <c r="N19" s="103" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C20" s="79" t="s"/>
-      <c r="D20" s="80" t="s"/>
-      <c r="E20" s="81" t="s"/>
-      <c r="F20" s="85">
+      <c r="C20" s="102" t="s"/>
+      <c r="D20" s="28" t="s"/>
+      <c r="E20" s="23" t="s"/>
+      <c r="F20" s="26">
         <v>45245</v>
       </c>
-      <c r="G20" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="81" t="s"/>
-      <c r="J20" s="82" t="s"/>
-      <c r="K20" s="82" t="s"/>
-      <c r="L20" s="82" t="s"/>
-      <c r="M20" s="83">
+      <c r="G20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="23" t="s"/>
+      <c r="J20" s="25" t="s"/>
+      <c r="K20" s="25" t="s"/>
+      <c r="L20" s="25" t="s"/>
+      <c r="M20" s="27">
         <v>0.18</v>
       </c>
-      <c r="N20" s="84" t="s"/>
+      <c r="N20" s="103" t="s"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="79" t="s"/>
-      <c r="D21" s="80" t="s"/>
-      <c r="E21" s="81" t="s"/>
-      <c r="F21" s="85" t="s"/>
-      <c r="G21" s="81" t="s"/>
-      <c r="H21" s="81" t="s"/>
-      <c r="I21" s="81" t="s"/>
-      <c r="J21" s="81" t="s"/>
-      <c r="K21" s="81" t="s"/>
-      <c r="L21" s="81" t="s"/>
-      <c r="M21" s="81" t="s"/>
-      <c r="N21" s="84" t="s"/>
+      <c r="C21" s="102" t="s"/>
+      <c r="D21" s="28" t="s"/>
+      <c r="E21" s="23" t="s"/>
+      <c r="F21" s="26" t="s"/>
+      <c r="G21" s="23" t="s"/>
+      <c r="H21" s="23" t="s"/>
+      <c r="I21" s="23" t="s"/>
+      <c r="J21" s="23" t="s"/>
+      <c r="K21" s="23" t="s"/>
+      <c r="L21" s="23" t="s"/>
+      <c r="M21" s="23" t="s"/>
+      <c r="N21" s="103" t="s"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="86" t="s"/>
-      <c r="D22" s="87" t="s"/>
-      <c r="E22" s="88" t="s"/>
-      <c r="F22" s="89" t="s"/>
-      <c r="G22" s="88" t="s"/>
-      <c r="H22" s="88" t="s"/>
-      <c r="I22" s="88" t="s"/>
-      <c r="J22" s="88" t="s"/>
-      <c r="K22" s="88" t="s"/>
-      <c r="L22" s="88" t="s"/>
-      <c r="M22" s="90" t="s"/>
-      <c r="N22" s="91" t="s"/>
+      <c r="C22" s="104" t="s"/>
+      <c r="D22" s="105" t="s"/>
+      <c r="E22" s="54" t="s"/>
+      <c r="F22" s="106" t="s"/>
+      <c r="G22" s="54" t="s"/>
+      <c r="H22" s="54" t="s"/>
+      <c r="I22" s="54" t="s"/>
+      <c r="J22" s="54" t="s"/>
+      <c r="K22" s="54" t="s"/>
+      <c r="L22" s="54" t="s"/>
+      <c r="M22" s="107" t="s"/>
+      <c r="N22" s="108" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C23" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="72">
+      <c r="C23" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="95">
         <v>0.3</v>
       </c>
-      <c r="E23" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="74">
+      <c r="E23" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="97">
         <v>45238</v>
       </c>
-      <c r="G23" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="76" t="s"/>
-      <c r="J23" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="73" t="s"/>
-      <c r="L23" s="73" t="s"/>
-      <c r="M23" s="77">
+      <c r="G23" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="99" t="s"/>
+      <c r="J23" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="96" t="s"/>
+      <c r="L23" s="96" t="s"/>
+      <c r="M23" s="100">
         <v>0.1</v>
       </c>
-      <c r="N23" s="78">
+      <c r="N23" s="101">
         <f>=MAX(M23:M27)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="55.2" customHeight="true">
+      <c r="C24" s="102" t="s"/>
+      <c r="D24" s="28" t="s"/>
+      <c r="E24" s="23" t="s"/>
+      <c r="F24" s="26">
+        <v>45245</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="23" t="s"/>
+      <c r="J24" s="25" t="s"/>
+      <c r="K24" s="25" t="s"/>
+      <c r="L24" s="25" t="s"/>
+      <c r="M24" s="27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C24" s="79" t="s"/>
-      <c r="D24" s="80" t="s"/>
-      <c r="E24" s="81" t="s"/>
-      <c r="F24" s="85">
-        <v>45245</v>
-      </c>
-      <c r="G24" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="81" t="s"/>
-      <c r="J24" s="82" t="s"/>
-      <c r="K24" s="82" t="s"/>
-      <c r="L24" s="82" t="s"/>
-      <c r="M24" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="N24" s="84" t="s"/>
+      <c r="N24" s="103" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
-      <c r="C25" s="79" t="s"/>
-      <c r="D25" s="80" t="s"/>
-      <c r="E25" s="81" t="s"/>
-      <c r="F25" s="85" t="s"/>
-      <c r="G25" s="82" t="s"/>
-      <c r="H25" s="82" t="s"/>
-      <c r="I25" s="81" t="s"/>
-      <c r="J25" s="81" t="s"/>
-      <c r="K25" s="81" t="s"/>
-      <c r="L25" s="81" t="s"/>
-      <c r="M25" s="83" t="s"/>
-      <c r="N25" s="84" t="s"/>
+      <c r="C25" s="102" t="s"/>
+      <c r="D25" s="28" t="s"/>
+      <c r="E25" s="23" t="s"/>
+      <c r="F25" s="109">
+        <v>45252</v>
+      </c>
+      <c r="G25" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="111" t="s"/>
+      <c r="J25" s="111" t="s"/>
+      <c r="K25" s="111" t="s"/>
+      <c r="L25" s="111" t="s"/>
+      <c r="M25" s="112">
+        <v>0.7</v>
+      </c>
+      <c r="N25" s="103" t="s"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="79" t="s"/>
-      <c r="D26" s="80" t="s"/>
-      <c r="E26" s="81" t="s"/>
-      <c r="F26" s="85" t="s"/>
-      <c r="G26" s="81" t="s"/>
-      <c r="H26" s="81" t="s"/>
-      <c r="I26" s="81" t="s"/>
-      <c r="J26" s="81" t="s"/>
-      <c r="K26" s="81" t="s"/>
-      <c r="L26" s="81" t="s"/>
-      <c r="M26" s="81" t="s"/>
-      <c r="N26" s="84" t="s"/>
+      <c r="C26" s="102" t="s"/>
+      <c r="D26" s="28" t="s"/>
+      <c r="E26" s="23" t="s"/>
+      <c r="F26" s="26" t="s"/>
+      <c r="G26" s="23" t="s"/>
+      <c r="H26" s="23" t="s"/>
+      <c r="I26" s="23" t="s"/>
+      <c r="J26" s="23" t="s"/>
+      <c r="K26" s="23" t="s"/>
+      <c r="L26" s="23" t="s"/>
+      <c r="M26" s="23" t="s"/>
+      <c r="N26" s="103" t="s"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="86" t="s"/>
-      <c r="D27" s="87" t="s"/>
-      <c r="E27" s="88" t="s"/>
-      <c r="F27" s="89" t="s"/>
-      <c r="G27" s="88" t="s"/>
-      <c r="H27" s="88" t="s"/>
-      <c r="I27" s="88" t="s"/>
-      <c r="J27" s="88" t="s"/>
-      <c r="K27" s="88" t="s"/>
-      <c r="L27" s="88" t="s"/>
-      <c r="M27" s="88" t="s"/>
-      <c r="N27" s="91" t="s"/>
+      <c r="C27" s="104" t="s"/>
+      <c r="D27" s="105" t="s"/>
+      <c r="E27" s="54" t="s"/>
+      <c r="F27" s="106" t="s"/>
+      <c r="G27" s="54" t="s"/>
+      <c r="H27" s="54" t="s"/>
+      <c r="I27" s="54" t="s"/>
+      <c r="J27" s="54" t="s"/>
+      <c r="K27" s="54" t="s"/>
+      <c r="L27" s="54" t="s"/>
+      <c r="M27" s="54" t="s"/>
+      <c r="N27" s="108" t="s"/>
     </row>
     <row r="28" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C28" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="72">
+      <c r="C28" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="95">
         <v>0.3</v>
       </c>
-      <c r="E28" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="74">
+      <c r="E28" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="97">
         <v>45238</v>
       </c>
-      <c r="G28" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="76" t="s"/>
-      <c r="J28" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="73" t="s"/>
-      <c r="L28" s="73" t="s"/>
-      <c r="M28" s="77">
+      <c r="G28" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="99" t="s"/>
+      <c r="J28" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="96" t="s"/>
+      <c r="L28" s="96" t="s"/>
+      <c r="M28" s="100">
         <v>0.07</v>
       </c>
-      <c r="N28" s="78">
+      <c r="N28" s="101">
         <f>=MAX(M28:M31)</f>
-        <v>0.07</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C29" s="79" t="s"/>
-      <c r="D29" s="80" t="s"/>
-      <c r="E29" s="81" t="s"/>
-      <c r="F29" s="85" t="s"/>
-      <c r="G29" s="82" t="s"/>
-      <c r="H29" s="82" t="s"/>
-      <c r="I29" s="81" t="s"/>
-      <c r="J29" s="82" t="s"/>
-      <c r="K29" s="82" t="s"/>
-      <c r="L29" s="82" t="s"/>
-      <c r="M29" s="83" t="s"/>
-      <c r="N29" s="84" t="s"/>
+      <c r="C29" s="102" t="s"/>
+      <c r="D29" s="28" t="s"/>
+      <c r="E29" s="23" t="s"/>
+      <c r="F29" s="109">
+        <v>45252</v>
+      </c>
+      <c r="G29" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="113" t="s"/>
+      <c r="J29" s="114" t="s"/>
+      <c r="K29" s="114" t="s"/>
+      <c r="L29" s="114" t="s"/>
+      <c r="M29" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="N29" s="103" t="s"/>
     </row>
     <row r="30" spans="3:14" ht="41.4" customHeight="true">
-      <c r="C30" s="79" t="s"/>
-      <c r="D30" s="80" t="s"/>
-      <c r="E30" s="81" t="s"/>
-      <c r="F30" s="85" t="s"/>
-      <c r="G30" s="82" t="s"/>
-      <c r="H30" s="82" t="s"/>
-      <c r="I30" s="81" t="s"/>
-      <c r="J30" s="81" t="s"/>
-      <c r="K30" s="81" t="s"/>
-      <c r="L30" s="81" t="s"/>
-      <c r="M30" s="83" t="s"/>
-      <c r="N30" s="84" t="s"/>
+      <c r="C30" s="102" t="s"/>
+      <c r="D30" s="28" t="s"/>
+      <c r="E30" s="23" t="s"/>
+      <c r="F30" s="26" t="s"/>
+      <c r="G30" s="25" t="s"/>
+      <c r="H30" s="25" t="s"/>
+      <c r="I30" s="23" t="s"/>
+      <c r="J30" s="23" t="s"/>
+      <c r="K30" s="23" t="s"/>
+      <c r="L30" s="23" t="s"/>
+      <c r="M30" s="27" t="s"/>
+      <c r="N30" s="103" t="s"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="79" t="s"/>
-      <c r="D31" s="80" t="s"/>
-      <c r="E31" s="81" t="s"/>
-      <c r="F31" s="85" t="s"/>
-      <c r="G31" s="81" t="s"/>
-      <c r="H31" s="81" t="s"/>
-      <c r="I31" s="81" t="s"/>
-      <c r="J31" s="81" t="s"/>
-      <c r="K31" s="81" t="s"/>
-      <c r="L31" s="81" t="s"/>
-      <c r="M31" s="81" t="s"/>
-      <c r="N31" s="84" t="s"/>
+      <c r="C31" s="102" t="s"/>
+      <c r="D31" s="28" t="s"/>
+      <c r="E31" s="23" t="s"/>
+      <c r="F31" s="26" t="s"/>
+      <c r="G31" s="23" t="s"/>
+      <c r="H31" s="23" t="s"/>
+      <c r="I31" s="23" t="s"/>
+      <c r="J31" s="23" t="s"/>
+      <c r="K31" s="23" t="s"/>
+      <c r="L31" s="23" t="s"/>
+      <c r="M31" s="23" t="s"/>
+      <c r="N31" s="103" t="s"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="92" t="s"/>
-      <c r="D32" s="93" t="s"/>
-      <c r="E32" s="94" t="s"/>
-      <c r="F32" s="95" t="s"/>
-      <c r="G32" s="94" t="s"/>
-      <c r="H32" s="94" t="s"/>
-      <c r="I32" s="94" t="s"/>
-      <c r="J32" s="94" t="s"/>
-      <c r="K32" s="94" t="s"/>
-      <c r="L32" s="94" t="s"/>
-      <c r="M32" s="94" t="s"/>
-      <c r="N32" s="96" t="s"/>
+      <c r="C32" s="116" t="s"/>
+      <c r="D32" s="117" t="s"/>
+      <c r="E32" s="118" t="s"/>
+      <c r="F32" s="119" t="s"/>
+      <c r="G32" s="118" t="s"/>
+      <c r="H32" s="118" t="s"/>
+      <c r="I32" s="118" t="s"/>
+      <c r="J32" s="118" t="s"/>
+      <c r="K32" s="118" t="s"/>
+      <c r="L32" s="118" t="s"/>
+      <c r="M32" s="118" t="s"/>
+      <c r="N32" s="120" t="s"/>
     </row>
     <row r="33" spans="3:14" ht="14.25" customHeight="true">
-      <c r="C33" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="98">
+      <c r="C33" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="122">
         <v>0.1</v>
       </c>
-      <c r="E33" s="99" t="s"/>
-      <c r="F33" s="100" t="s"/>
-      <c r="G33" s="99" t="s"/>
-      <c r="H33" s="99" t="s"/>
-      <c r="I33" s="99" t="s"/>
-      <c r="J33" s="101" t="s"/>
-      <c r="K33" s="101" t="s"/>
-      <c r="L33" s="101" t="s"/>
-      <c r="M33" s="102" t="s"/>
-      <c r="N33" s="103">
+      <c r="E33" s="123" t="s"/>
+      <c r="F33" s="124" t="s"/>
+      <c r="G33" s="123" t="s"/>
+      <c r="H33" s="123" t="s"/>
+      <c r="I33" s="123" t="s"/>
+      <c r="J33" s="125" t="s"/>
+      <c r="K33" s="125" t="s"/>
+      <c r="L33" s="125" t="s"/>
+      <c r="M33" s="126" t="s"/>
+      <c r="N33" s="127">
         <f>=MAX(M33:M36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:14">
-      <c r="C34" s="104" t="s"/>
-      <c r="D34" s="105" t="s"/>
-      <c r="E34" s="106" t="s"/>
-      <c r="F34" s="107" t="s"/>
-      <c r="G34" s="106" t="s"/>
-      <c r="H34" s="108" t="s"/>
-      <c r="I34" s="106" t="s"/>
-      <c r="J34" s="108" t="s"/>
-      <c r="K34" s="108" t="s"/>
-      <c r="L34" s="108" t="s"/>
-      <c r="M34" s="109" t="s"/>
-      <c r="N34" s="110" t="s"/>
+      <c r="C34" s="128" t="s"/>
+      <c r="D34" s="129" t="s"/>
+      <c r="E34" s="130" t="s"/>
+      <c r="F34" s="131" t="s"/>
+      <c r="G34" s="130" t="s"/>
+      <c r="H34" s="132" t="s"/>
+      <c r="I34" s="130" t="s"/>
+      <c r="J34" s="132" t="s"/>
+      <c r="K34" s="132" t="s"/>
+      <c r="L34" s="132" t="s"/>
+      <c r="M34" s="133" t="s"/>
+      <c r="N34" s="134" t="s"/>
     </row>
     <row r="35" spans="3:14">
-      <c r="C35" s="104" t="s"/>
-      <c r="D35" s="105" t="s"/>
-      <c r="E35" s="106" t="s"/>
-      <c r="F35" s="107" t="s"/>
-      <c r="G35" s="108" t="s"/>
-      <c r="H35" s="108" t="s"/>
-      <c r="I35" s="108" t="s"/>
-      <c r="J35" s="108" t="s"/>
-      <c r="K35" s="108" t="s"/>
-      <c r="L35" s="108" t="s"/>
-      <c r="M35" s="109" t="s"/>
-      <c r="N35" s="110" t="s"/>
+      <c r="C35" s="128" t="s"/>
+      <c r="D35" s="129" t="s"/>
+      <c r="E35" s="130" t="s"/>
+      <c r="F35" s="131" t="s"/>
+      <c r="G35" s="132" t="s"/>
+      <c r="H35" s="132" t="s"/>
+      <c r="I35" s="132" t="s"/>
+      <c r="J35" s="132" t="s"/>
+      <c r="K35" s="132" t="s"/>
+      <c r="L35" s="132" t="s"/>
+      <c r="M35" s="133" t="s"/>
+      <c r="N35" s="134" t="s"/>
     </row>
     <row r="36" spans="3:14">
-      <c r="C36" s="104" t="s"/>
-      <c r="D36" s="105" t="s"/>
-      <c r="E36" s="106" t="s"/>
-      <c r="F36" s="107" t="s"/>
-      <c r="G36" s="108" t="s"/>
-      <c r="H36" s="108" t="s"/>
-      <c r="I36" s="108" t="s"/>
-      <c r="J36" s="108" t="s"/>
-      <c r="K36" s="108" t="s"/>
-      <c r="L36" s="108" t="s"/>
-      <c r="M36" s="108" t="s"/>
-      <c r="N36" s="110" t="s"/>
+      <c r="C36" s="128" t="s"/>
+      <c r="D36" s="129" t="s"/>
+      <c r="E36" s="130" t="s"/>
+      <c r="F36" s="131" t="s"/>
+      <c r="G36" s="132" t="s"/>
+      <c r="H36" s="132" t="s"/>
+      <c r="I36" s="132" t="s"/>
+      <c r="J36" s="132" t="s"/>
+      <c r="K36" s="132" t="s"/>
+      <c r="L36" s="132" t="s"/>
+      <c r="M36" s="132" t="s"/>
+      <c r="N36" s="134" t="s"/>
     </row>
     <row r="37" spans="3:14">
-      <c r="C37" s="111" t="s"/>
-      <c r="D37" s="112" t="s"/>
-      <c r="E37" s="113" t="s"/>
-      <c r="F37" s="114" t="s"/>
-      <c r="G37" s="115" t="s"/>
-      <c r="H37" s="115" t="s"/>
-      <c r="I37" s="115" t="s"/>
-      <c r="J37" s="115" t="s"/>
-      <c r="K37" s="115" t="s"/>
-      <c r="L37" s="115" t="s"/>
-      <c r="M37" s="115" t="s"/>
-      <c r="N37" s="116" t="s"/>
+      <c r="C37" s="135" t="s"/>
+      <c r="D37" s="136" t="s"/>
+      <c r="E37" s="137" t="s"/>
+      <c r="F37" s="138" t="s"/>
+      <c r="G37" s="139" t="s"/>
+      <c r="H37" s="139" t="s"/>
+      <c r="I37" s="139" t="s"/>
+      <c r="J37" s="139" t="s"/>
+      <c r="K37" s="139" t="s"/>
+      <c r="L37" s="139" t="s"/>
+      <c r="M37" s="139" t="s"/>
+      <c r="N37" s="140" t="s"/>
     </row>
     <row r="38" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C38" s="117" t="s"/>
-      <c r="D38" s="118" t="s"/>
-      <c r="E38" s="117" t="s"/>
-      <c r="F38" s="119" t="s"/>
-      <c r="G38" s="120" t="s"/>
-      <c r="H38" s="120" t="s"/>
-      <c r="I38" s="117" t="s"/>
-      <c r="J38" s="120" t="s"/>
-      <c r="K38" s="120" t="s"/>
-      <c r="L38" s="120" t="s"/>
-      <c r="M38" s="121" t="s"/>
-      <c r="N38" s="118">
+      <c r="C38" s="141" t="s"/>
+      <c r="D38" s="142" t="s"/>
+      <c r="E38" s="141" t="s"/>
+      <c r="F38" s="143" t="s"/>
+      <c r="G38" s="144" t="s"/>
+      <c r="H38" s="144" t="s"/>
+      <c r="I38" s="141" t="s"/>
+      <c r="J38" s="144" t="s"/>
+      <c r="K38" s="144" t="s"/>
+      <c r="L38" s="144" t="s"/>
+      <c r="M38" s="145" t="s"/>
+      <c r="N38" s="142">
         <f>=MAX(M38:M41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C39" s="60" t="s"/>
-      <c r="D39" s="69" t="s"/>
-      <c r="E39" s="60" t="s"/>
-      <c r="F39" s="68" t="s"/>
-      <c r="G39" s="67" t="s"/>
-      <c r="H39" s="67" t="s"/>
-      <c r="I39" s="60" t="s"/>
-      <c r="J39" s="67" t="s"/>
-      <c r="K39" s="67" t="s"/>
-      <c r="L39" s="67" t="s"/>
-      <c r="M39" s="65" t="s"/>
-      <c r="N39" s="66" t="s"/>
+      <c r="C39" s="68" t="s"/>
+      <c r="D39" s="77" t="s"/>
+      <c r="E39" s="68" t="s"/>
+      <c r="F39" s="76" t="s"/>
+      <c r="G39" s="75" t="s"/>
+      <c r="H39" s="75" t="s"/>
+      <c r="I39" s="68" t="s"/>
+      <c r="J39" s="75" t="s"/>
+      <c r="K39" s="75" t="s"/>
+      <c r="L39" s="75" t="s"/>
+      <c r="M39" s="73" t="s"/>
+      <c r="N39" s="74" t="s"/>
     </row>
     <row r="40" spans="3:14">
-      <c r="C40" s="60" t="s"/>
-      <c r="D40" s="69" t="s"/>
-      <c r="E40" s="60" t="s"/>
-      <c r="F40" s="68" t="s"/>
-      <c r="G40" s="60" t="s"/>
-      <c r="H40" s="60" t="s"/>
-      <c r="I40" s="60" t="s"/>
-      <c r="J40" s="60" t="s"/>
-      <c r="K40" s="60" t="s"/>
-      <c r="L40" s="60" t="s"/>
-      <c r="M40" s="65" t="s"/>
-      <c r="N40" s="66" t="s"/>
+      <c r="C40" s="68" t="s"/>
+      <c r="D40" s="77" t="s"/>
+      <c r="E40" s="68" t="s"/>
+      <c r="F40" s="76" t="s"/>
+      <c r="G40" s="68" t="s"/>
+      <c r="H40" s="68" t="s"/>
+      <c r="I40" s="68" t="s"/>
+      <c r="J40" s="68" t="s"/>
+      <c r="K40" s="68" t="s"/>
+      <c r="L40" s="68" t="s"/>
+      <c r="M40" s="73" t="s"/>
+      <c r="N40" s="74" t="s"/>
     </row>
     <row r="41" spans="3:14">
-      <c r="C41" s="60" t="s"/>
-      <c r="D41" s="69" t="s"/>
-      <c r="E41" s="60" t="s"/>
-      <c r="F41" s="68" t="s"/>
-      <c r="G41" s="60" t="s"/>
-      <c r="H41" s="60" t="s"/>
-      <c r="I41" s="60" t="s"/>
-      <c r="J41" s="60" t="s"/>
-      <c r="K41" s="60" t="s"/>
-      <c r="L41" s="60" t="s"/>
-      <c r="M41" s="60" t="s"/>
-      <c r="N41" s="66" t="s"/>
+      <c r="C41" s="68" t="s"/>
+      <c r="D41" s="77" t="s"/>
+      <c r="E41" s="68" t="s"/>
+      <c r="F41" s="76" t="s"/>
+      <c r="G41" s="68" t="s"/>
+      <c r="H41" s="68" t="s"/>
+      <c r="I41" s="68" t="s"/>
+      <c r="J41" s="68" t="s"/>
+      <c r="K41" s="68" t="s"/>
+      <c r="L41" s="68" t="s"/>
+      <c r="M41" s="68" t="s"/>
+      <c r="N41" s="74" t="s"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="60" t="s"/>
-      <c r="D42" s="69" t="s"/>
-      <c r="E42" s="60" t="s"/>
-      <c r="F42" s="68" t="s"/>
-      <c r="G42" s="60" t="s"/>
-      <c r="H42" s="60" t="s"/>
-      <c r="I42" s="60" t="s"/>
-      <c r="J42" s="60" t="s"/>
-      <c r="K42" s="60" t="s"/>
-      <c r="L42" s="60" t="s"/>
-      <c r="M42" s="60" t="s"/>
-      <c r="N42" s="66" t="s"/>
+      <c r="C42" s="68" t="s"/>
+      <c r="D42" s="77" t="s"/>
+      <c r="E42" s="68" t="s"/>
+      <c r="F42" s="76" t="s"/>
+      <c r="G42" s="68" t="s"/>
+      <c r="H42" s="68" t="s"/>
+      <c r="I42" s="68" t="s"/>
+      <c r="J42" s="68" t="s"/>
+      <c r="K42" s="68" t="s"/>
+      <c r="L42" s="68" t="s"/>
+      <c r="M42" s="68" t="s"/>
+      <c r="N42" s="74" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3148,7 +3416,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="开发日报-凌建华"/>
-  <dimension ref="O42"/>
+  <dimension ref="O43"/>
   <sheetViews>
     <sheetView showGridLines="true" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H16" sqref="H16:L16"/>
@@ -3359,19 +3627,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I16" s="19" t="s"/>
       <c r="J16" s="19" t="s"/>
@@ -3381,8 +3649,8 @@
         <v>10</v>
       </c>
       <c r="N16" s="21">
-        <f>=N18*D18+N23*D23+N28*D28+N33*D33+N38*D38</f>
-        <v>0.12</v>
+        <f>=N18*D18+N23*D23+N29*D29+N34*D34+N39*D39</f>
+        <v>0.42</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -3425,195 +3693,269 @@
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
       <c r="C18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="23">
+        <v>125</v>
+      </c>
+      <c r="D18" s="147">
         <v>0.4</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="25">
+      <c r="E18" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="149">
         <v>45231</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="148" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="16" t="s"/>
-      <c r="J18" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>44</v>
+      <c r="J18" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="148" t="s">
+        <v>130</v>
       </c>
       <c r="M18" s="21">
         <v>0.1</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="147">
         <f>=MAX(M18:M21)</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
       <c r="C19" s="16" t="s"/>
-      <c r="D19" s="27" t="s"/>
+      <c r="D19" s="151" t="s"/>
       <c r="E19" s="16" t="s"/>
-      <c r="F19" s="25">
+      <c r="F19" s="149">
         <v>45233</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="24" t="s">
+      <c r="G19" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="148" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="16" t="s"/>
-      <c r="J19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>48</v>
+      <c r="J19" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="148" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="148" t="s">
+        <v>133</v>
       </c>
       <c r="M19" s="21">
         <v>0.2</v>
       </c>
-      <c r="N19" s="23" t="s"/>
+      <c r="N19" s="147" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
       <c r="C20" s="16" t="s"/>
-      <c r="D20" s="27" t="s"/>
+      <c r="D20" s="151" t="s"/>
       <c r="E20" s="16" t="s"/>
-      <c r="F20" s="25">
+      <c r="F20" s="149">
         <v>45235</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="24" t="s">
+      <c r="G20" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="148" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="16" t="s"/>
-      <c r="J20" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>51</v>
+      <c r="J20" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="148" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="148" t="s">
+        <v>136</v>
       </c>
       <c r="M20" s="21">
         <v>0.3</v>
       </c>
-      <c r="N20" s="23" t="s"/>
+      <c r="N20" s="147" t="s"/>
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="16" t="s"/>
-      <c r="D21" s="27" t="s"/>
+      <c r="D21" s="151" t="s"/>
       <c r="E21" s="16" t="s"/>
-      <c r="F21" s="25" t="s"/>
-      <c r="G21" s="16" t="s"/>
-      <c r="H21" s="16" t="s"/>
+      <c r="F21" s="149">
+        <v>45237</v>
+      </c>
+      <c r="G21" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="16" t="s"/>
       <c r="J21" s="16" t="s"/>
-      <c r="K21" s="16" t="s"/>
-      <c r="L21" s="16" t="s"/>
-      <c r="M21" s="16" t="s"/>
-      <c r="N21" s="23" t="s"/>
+      <c r="K21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="N21" s="147" t="s"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="16" t="s"/>
-      <c r="D22" s="27" t="s"/>
+      <c r="D22" s="151" t="s"/>
       <c r="E22" s="16" t="s"/>
-      <c r="F22" s="25" t="s"/>
-      <c r="G22" s="16" t="s"/>
-      <c r="H22" s="16" t="s"/>
+      <c r="F22" s="149">
+        <v>45238</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="16" t="s"/>
       <c r="J22" s="16" t="s"/>
       <c r="K22" s="16" t="s"/>
       <c r="L22" s="16" t="s"/>
-      <c r="M22" s="16" t="s"/>
-      <c r="N22" s="23" t="s"/>
+      <c r="M22" s="21">
+        <v>1</v>
+      </c>
+      <c r="N22" s="147" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
       <c r="C23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="23">
+        <v>140</v>
+      </c>
+      <c r="D23" s="147">
         <v>0.6</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="25" t="s"/>
-      <c r="G23" s="24" t="s"/>
-      <c r="H23" s="24" t="s"/>
+      <c r="E23" s="148" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="149">
+        <v>45244</v>
+      </c>
+      <c r="G23" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="148" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="16" t="s"/>
-      <c r="J23" s="24" t="s"/>
-      <c r="K23" s="24" t="s"/>
-      <c r="L23" s="24" t="s"/>
-      <c r="M23" s="21" t="s"/>
-      <c r="N23" s="23">
+      <c r="J23" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="148" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="N23" s="147">
         <f>=MAX(M23:M26)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="55.2" customHeight="true">
       <c r="C24" s="16" t="s"/>
-      <c r="D24" s="27" t="s"/>
+      <c r="D24" s="151" t="s"/>
       <c r="E24" s="16" t="s"/>
-      <c r="F24" s="25" t="s"/>
-      <c r="G24" s="24" t="s"/>
-      <c r="H24" s="24" t="s"/>
+      <c r="F24" s="149">
+        <v>45245</v>
+      </c>
+      <c r="G24" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="148" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="16" t="s"/>
-      <c r="J24" s="24" t="s"/>
-      <c r="K24" s="24" t="s"/>
-      <c r="L24" s="24" t="s"/>
-      <c r="M24" s="21" t="s"/>
-      <c r="N24" s="23" t="s"/>
+      <c r="J24" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="N24" s="147" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
       <c r="C25" s="16" t="s"/>
-      <c r="D25" s="27" t="s"/>
+      <c r="D25" s="151" t="s"/>
       <c r="E25" s="16" t="s"/>
-      <c r="F25" s="25" t="s"/>
-      <c r="G25" s="24" t="s"/>
-      <c r="H25" s="24" t="s"/>
+      <c r="F25" s="149">
+        <v>45249</v>
+      </c>
+      <c r="G25" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="148" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="16" t="s"/>
-      <c r="J25" s="16" t="s"/>
-      <c r="K25" s="16" t="s"/>
-      <c r="L25" s="16" t="s"/>
-      <c r="M25" s="21" t="s"/>
-      <c r="N25" s="23" t="s"/>
+      <c r="J25" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="N25" s="147" t="s"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="16" t="s"/>
-      <c r="D26" s="27" t="s"/>
+      <c r="D26" s="151" t="s"/>
       <c r="E26" s="16" t="s"/>
-      <c r="F26" s="25" t="s"/>
-      <c r="G26" s="16" t="s"/>
-      <c r="H26" s="16" t="s"/>
+      <c r="F26" s="149">
+        <v>45250</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" s="16" t="s"/>
-      <c r="J26" s="16" t="s"/>
+      <c r="J26" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="K26" s="16" t="s"/>
-      <c r="L26" s="16" t="s"/>
-      <c r="M26" s="16" t="s"/>
-      <c r="N26" s="23" t="s"/>
+      <c r="L26" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="N26" s="147" t="s"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="16" t="s"/>
-      <c r="D27" s="27" t="s"/>
+      <c r="D27" s="151" t="s"/>
       <c r="E27" s="16" t="s"/>
-      <c r="F27" s="25" t="s"/>
+      <c r="F27" s="149" t="s"/>
       <c r="G27" s="16" t="s"/>
       <c r="H27" s="16" t="s"/>
       <c r="I27" s="16" t="s"/>
@@ -3621,72 +3963,72 @@
       <c r="K27" s="16" t="s"/>
       <c r="L27" s="16" t="s"/>
       <c r="M27" s="16" t="s"/>
-      <c r="N27" s="23" t="s"/>
-    </row>
-    <row r="28" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C28" s="16" t="s"/>
-      <c r="D28" s="23" t="s"/>
-      <c r="E28" s="24" t="s"/>
-      <c r="F28" s="25" t="s"/>
-      <c r="G28" s="24" t="s"/>
-      <c r="H28" s="24" t="s"/>
-      <c r="I28" s="16" t="s"/>
-      <c r="J28" s="24" t="s"/>
-      <c r="K28" s="24" t="s"/>
-      <c r="L28" s="24" t="s"/>
-      <c r="M28" s="21" t="s"/>
-      <c r="N28" s="23">
-        <f>=MAX(M28:M31)</f>
-        <v>0</v>
-      </c>
+      <c r="N27" s="147" t="s"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="153" t="s"/>
+      <c r="D28" s="154" t="s"/>
+      <c r="E28" s="155" t="s"/>
+      <c r="F28" s="156" t="s"/>
+      <c r="G28" s="153" t="s"/>
+      <c r="H28" s="153" t="s"/>
+      <c r="I28" s="153" t="s"/>
+      <c r="J28" s="153" t="s"/>
+      <c r="K28" s="153" t="s"/>
+      <c r="L28" s="153" t="s"/>
+      <c r="M28" s="153" t="s"/>
+      <c r="N28" s="154" t="s"/>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
       <c r="C29" s="16" t="s"/>
-      <c r="D29" s="27" t="s"/>
-      <c r="E29" s="16" t="s"/>
-      <c r="F29" s="25" t="s"/>
-      <c r="G29" s="24" t="s"/>
-      <c r="H29" s="24" t="s"/>
+      <c r="D29" s="147" t="s"/>
+      <c r="E29" s="148" t="s"/>
+      <c r="F29" s="149" t="s"/>
+      <c r="G29" s="148" t="s"/>
+      <c r="H29" s="148" t="s"/>
       <c r="I29" s="16" t="s"/>
-      <c r="J29" s="24" t="s"/>
-      <c r="K29" s="24" t="s"/>
-      <c r="L29" s="24" t="s"/>
+      <c r="J29" s="148" t="s"/>
+      <c r="K29" s="148" t="s"/>
+      <c r="L29" s="148" t="s"/>
       <c r="M29" s="21" t="s"/>
-      <c r="N29" s="23" t="s"/>
-    </row>
-    <row r="30" spans="3:14" ht="41.4" customHeight="true">
+      <c r="N29" s="147">
+        <f>=MAX(M29:M32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="55.2" customHeight="true">
       <c r="C30" s="16" t="s"/>
-      <c r="D30" s="27" t="s"/>
+      <c r="D30" s="151" t="s"/>
       <c r="E30" s="16" t="s"/>
-      <c r="F30" s="25" t="s"/>
-      <c r="G30" s="24" t="s"/>
-      <c r="H30" s="24" t="s"/>
+      <c r="F30" s="149" t="s"/>
+      <c r="G30" s="148" t="s"/>
+      <c r="H30" s="148" t="s"/>
       <c r="I30" s="16" t="s"/>
-      <c r="J30" s="16" t="s"/>
-      <c r="K30" s="16" t="s"/>
-      <c r="L30" s="16" t="s"/>
+      <c r="J30" s="148" t="s"/>
+      <c r="K30" s="148" t="s"/>
+      <c r="L30" s="148" t="s"/>
       <c r="M30" s="21" t="s"/>
-      <c r="N30" s="23" t="s"/>
-    </row>
-    <row r="31" spans="3:14">
+      <c r="N30" s="147" t="s"/>
+    </row>
+    <row r="31" spans="3:14" ht="41.4" customHeight="true">
       <c r="C31" s="16" t="s"/>
-      <c r="D31" s="27" t="s"/>
+      <c r="D31" s="151" t="s"/>
       <c r="E31" s="16" t="s"/>
-      <c r="F31" s="25" t="s"/>
-      <c r="G31" s="16" t="s"/>
-      <c r="H31" s="16" t="s"/>
+      <c r="F31" s="149" t="s"/>
+      <c r="G31" s="148" t="s"/>
+      <c r="H31" s="148" t="s"/>
       <c r="I31" s="16" t="s"/>
       <c r="J31" s="16" t="s"/>
       <c r="K31" s="16" t="s"/>
       <c r="L31" s="16" t="s"/>
-      <c r="M31" s="16" t="s"/>
-      <c r="N31" s="23" t="s"/>
+      <c r="M31" s="21" t="s"/>
+      <c r="N31" s="147" t="s"/>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="16" t="s"/>
-      <c r="D32" s="27" t="s"/>
+      <c r="D32" s="151" t="s"/>
       <c r="E32" s="16" t="s"/>
-      <c r="F32" s="25" t="s"/>
+      <c r="F32" s="149" t="s"/>
       <c r="G32" s="16" t="s"/>
       <c r="H32" s="16" t="s"/>
       <c r="I32" s="16" t="s"/>
@@ -3694,72 +4036,72 @@
       <c r="K32" s="16" t="s"/>
       <c r="L32" s="16" t="s"/>
       <c r="M32" s="16" t="s"/>
-      <c r="N32" s="23" t="s"/>
-    </row>
-    <row r="33" spans="3:14" ht="14.25" customHeight="true">
+      <c r="N32" s="147" t="s"/>
+    </row>
+    <row r="33" spans="3:14">
       <c r="C33" s="16" t="s"/>
-      <c r="D33" s="23" t="s"/>
-      <c r="E33" s="24" t="s"/>
-      <c r="F33" s="25" t="s"/>
-      <c r="G33" s="24" t="s"/>
-      <c r="H33" s="24" t="s"/>
-      <c r="I33" s="24" t="s"/>
+      <c r="D33" s="151" t="s"/>
+      <c r="E33" s="16" t="s"/>
+      <c r="F33" s="149" t="s"/>
+      <c r="G33" s="16" t="s"/>
+      <c r="H33" s="16" t="s"/>
+      <c r="I33" s="16" t="s"/>
       <c r="J33" s="16" t="s"/>
       <c r="K33" s="16" t="s"/>
       <c r="L33" s="16" t="s"/>
-      <c r="M33" s="21" t="s"/>
-      <c r="N33" s="23">
-        <f>=MAX(M33:M36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14">
+      <c r="M33" s="16" t="s"/>
+      <c r="N33" s="147" t="s"/>
+    </row>
+    <row r="34" spans="3:14" ht="14.25" customHeight="true">
       <c r="C34" s="16" t="s"/>
-      <c r="D34" s="27" t="s"/>
-      <c r="E34" s="24" t="s"/>
-      <c r="F34" s="25" t="s"/>
-      <c r="G34" s="24" t="s"/>
-      <c r="H34" s="16" t="s"/>
-      <c r="I34" s="24" t="s"/>
+      <c r="D34" s="147" t="s"/>
+      <c r="E34" s="148" t="s"/>
+      <c r="F34" s="149" t="s"/>
+      <c r="G34" s="148" t="s"/>
+      <c r="H34" s="148" t="s"/>
+      <c r="I34" s="148" t="s"/>
       <c r="J34" s="16" t="s"/>
       <c r="K34" s="16" t="s"/>
       <c r="L34" s="16" t="s"/>
       <c r="M34" s="21" t="s"/>
-      <c r="N34" s="23" t="s"/>
+      <c r="N34" s="147">
+        <f>=MAX(M34:M37)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="16" t="s"/>
-      <c r="D35" s="27" t="s"/>
-      <c r="E35" s="24" t="s"/>
-      <c r="F35" s="25" t="s"/>
-      <c r="G35" s="16" t="s"/>
+      <c r="D35" s="151" t="s"/>
+      <c r="E35" s="148" t="s"/>
+      <c r="F35" s="149" t="s"/>
+      <c r="G35" s="148" t="s"/>
       <c r="H35" s="16" t="s"/>
-      <c r="I35" s="16" t="s"/>
+      <c r="I35" s="148" t="s"/>
       <c r="J35" s="16" t="s"/>
       <c r="K35" s="16" t="s"/>
       <c r="L35" s="16" t="s"/>
       <c r="M35" s="21" t="s"/>
-      <c r="N35" s="23" t="s"/>
+      <c r="N35" s="147" t="s"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="16" t="s"/>
-      <c r="D36" s="27" t="s"/>
-      <c r="E36" s="24" t="s"/>
-      <c r="F36" s="25" t="s"/>
+      <c r="D36" s="151" t="s"/>
+      <c r="E36" s="148" t="s"/>
+      <c r="F36" s="149" t="s"/>
       <c r="G36" s="16" t="s"/>
       <c r="H36" s="16" t="s"/>
       <c r="I36" s="16" t="s"/>
       <c r="J36" s="16" t="s"/>
       <c r="K36" s="16" t="s"/>
       <c r="L36" s="16" t="s"/>
-      <c r="M36" s="16" t="s"/>
-      <c r="N36" s="23" t="s"/>
+      <c r="M36" s="21" t="s"/>
+      <c r="N36" s="147" t="s"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="16" t="s"/>
-      <c r="D37" s="27" t="s"/>
-      <c r="E37" s="24" t="s"/>
-      <c r="F37" s="25" t="s"/>
+      <c r="D37" s="151" t="s"/>
+      <c r="E37" s="148" t="s"/>
+      <c r="F37" s="149" t="s"/>
       <c r="G37" s="16" t="s"/>
       <c r="H37" s="16" t="s"/>
       <c r="I37" s="16" t="s"/>
@@ -3767,72 +4109,72 @@
       <c r="K37" s="16" t="s"/>
       <c r="L37" s="16" t="s"/>
       <c r="M37" s="16" t="s"/>
-      <c r="N37" s="23" t="s"/>
-    </row>
-    <row r="38" spans="3:14" ht="55.2" customHeight="true">
+      <c r="N37" s="147" t="s"/>
+    </row>
+    <row r="38" spans="3:14">
       <c r="C38" s="16" t="s"/>
-      <c r="D38" s="23" t="s"/>
-      <c r="E38" s="16" t="s"/>
-      <c r="F38" s="25" t="s"/>
-      <c r="G38" s="24" t="s"/>
-      <c r="H38" s="24" t="s"/>
+      <c r="D38" s="151" t="s"/>
+      <c r="E38" s="148" t="s"/>
+      <c r="F38" s="149" t="s"/>
+      <c r="G38" s="16" t="s"/>
+      <c r="H38" s="16" t="s"/>
       <c r="I38" s="16" t="s"/>
-      <c r="J38" s="24" t="s"/>
-      <c r="K38" s="24" t="s"/>
-      <c r="L38" s="24" t="s"/>
-      <c r="M38" s="21" t="s"/>
-      <c r="N38" s="23">
-        <f>=MAX(M38:M41)</f>
-        <v>0</v>
-      </c>
+      <c r="J38" s="16" t="s"/>
+      <c r="K38" s="16" t="s"/>
+      <c r="L38" s="16" t="s"/>
+      <c r="M38" s="16" t="s"/>
+      <c r="N38" s="147" t="s"/>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
       <c r="C39" s="16" t="s"/>
-      <c r="D39" s="27" t="s"/>
+      <c r="D39" s="147" t="s"/>
       <c r="E39" s="16" t="s"/>
-      <c r="F39" s="25" t="s"/>
-      <c r="G39" s="24" t="s"/>
-      <c r="H39" s="24" t="s"/>
+      <c r="F39" s="149" t="s"/>
+      <c r="G39" s="148" t="s"/>
+      <c r="H39" s="148" t="s"/>
       <c r="I39" s="16" t="s"/>
-      <c r="J39" s="24" t="s"/>
-      <c r="K39" s="24" t="s"/>
-      <c r="L39" s="24" t="s"/>
+      <c r="J39" s="148" t="s"/>
+      <c r="K39" s="148" t="s"/>
+      <c r="L39" s="148" t="s"/>
       <c r="M39" s="21" t="s"/>
-      <c r="N39" s="23" t="s"/>
-    </row>
-    <row r="40" spans="3:14">
+      <c r="N39" s="147">
+        <f>=MAX(M39:M42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" ht="55.2" customHeight="true">
       <c r="C40" s="16" t="s"/>
-      <c r="D40" s="27" t="s"/>
+      <c r="D40" s="151" t="s"/>
       <c r="E40" s="16" t="s"/>
-      <c r="F40" s="25" t="s"/>
-      <c r="G40" s="16" t="s"/>
-      <c r="H40" s="16" t="s"/>
+      <c r="F40" s="149" t="s"/>
+      <c r="G40" s="148" t="s"/>
+      <c r="H40" s="148" t="s"/>
       <c r="I40" s="16" t="s"/>
-      <c r="J40" s="16" t="s"/>
-      <c r="K40" s="16" t="s"/>
-      <c r="L40" s="16" t="s"/>
+      <c r="J40" s="148" t="s"/>
+      <c r="K40" s="148" t="s"/>
+      <c r="L40" s="148" t="s"/>
       <c r="M40" s="21" t="s"/>
-      <c r="N40" s="23" t="s"/>
+      <c r="N40" s="147" t="s"/>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="16" t="s"/>
-      <c r="D41" s="27" t="s"/>
+      <c r="D41" s="151" t="s"/>
       <c r="E41" s="16" t="s"/>
-      <c r="F41" s="25" t="s"/>
+      <c r="F41" s="149" t="s"/>
       <c r="G41" s="16" t="s"/>
       <c r="H41" s="16" t="s"/>
       <c r="I41" s="16" t="s"/>
       <c r="J41" s="16" t="s"/>
       <c r="K41" s="16" t="s"/>
       <c r="L41" s="16" t="s"/>
-      <c r="M41" s="16" t="s"/>
-      <c r="N41" s="23" t="s"/>
+      <c r="M41" s="21" t="s"/>
+      <c r="N41" s="147" t="s"/>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="16" t="s"/>
-      <c r="D42" s="27" t="s"/>
+      <c r="D42" s="151" t="s"/>
       <c r="E42" s="16" t="s"/>
-      <c r="F42" s="25" t="s"/>
+      <c r="F42" s="149" t="s"/>
       <c r="G42" s="16" t="s"/>
       <c r="H42" s="16" t="s"/>
       <c r="I42" s="16" t="s"/>
@@ -3840,7 +4182,21 @@
       <c r="K42" s="16" t="s"/>
       <c r="L42" s="16" t="s"/>
       <c r="M42" s="16" t="s"/>
-      <c r="N42" s="23" t="s"/>
+      <c r="N42" s="147" t="s"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="16" t="s"/>
+      <c r="D43" s="151" t="s"/>
+      <c r="E43" s="16" t="s"/>
+      <c r="F43" s="149" t="s"/>
+      <c r="G43" s="16" t="s"/>
+      <c r="H43" s="16" t="s"/>
+      <c r="I43" s="16" t="s"/>
+      <c r="J43" s="16" t="s"/>
+      <c r="K43" s="16" t="s"/>
+      <c r="L43" s="16" t="s"/>
+      <c r="M43" s="16" t="s"/>
+      <c r="N43" s="147" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3849,23 +4205,23 @@
     <mergeCell ref="C4:C15"/>
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D43"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
     <mergeCell ref="N18:N22"/>
     <mergeCell ref="N23:N27"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="N34:N38"/>
+    <mergeCell ref="N39:N43"/>
     <mergeCell ref="D4:N15"/>
   </mergeCells>
 </worksheet>
@@ -4085,19 +4441,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I16" s="19" t="s"/>
       <c r="J16" s="19" t="s"/>
@@ -4149,166 +4505,196 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="23">
+      <c r="C18" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="147">
         <v>0.5</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="24" t="s">
+      <c r="E18" s="148" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="149" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="148" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="16" t="s"/>
-      <c r="J18" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>29</v>
+      <c r="J18" s="148" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="148" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="148" t="s">
+        <v>110</v>
       </c>
       <c r="M18" s="21">
         <v>0.1</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="147">
         <f>=MAX(M18:M21)</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C19" s="26" t="s"/>
-      <c r="D19" s="27" t="s"/>
+      <c r="C19" s="150" t="s"/>
+      <c r="D19" s="151" t="s"/>
       <c r="E19" s="16" t="s"/>
-      <c r="F19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="24" t="s">
+      <c r="F19" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="148" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="16" t="s"/>
-      <c r="J19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>34</v>
+      <c r="J19" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="148" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="148" t="s">
+        <v>115</v>
       </c>
       <c r="M19" s="21">
         <v>0.1</v>
       </c>
-      <c r="N19" s="23" t="s"/>
+      <c r="N19" s="147" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C20" s="26" t="s"/>
-      <c r="D20" s="27" t="s"/>
+      <c r="C20" s="150" t="s"/>
+      <c r="D20" s="151" t="s"/>
       <c r="E20" s="16" t="s"/>
-      <c r="F20" s="25" t="s"/>
-      <c r="G20" s="24" t="s"/>
-      <c r="H20" s="24" t="s"/>
+      <c r="F20" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="148" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="16" t="s"/>
-      <c r="J20" s="24" t="s"/>
-      <c r="K20" s="24" t="s"/>
-      <c r="L20" s="24" t="s"/>
-      <c r="M20" s="21" t="s"/>
-      <c r="N20" s="23" t="s"/>
+      <c r="J20" s="148" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="148" t="s"/>
+      <c r="L20" s="148" t="s"/>
+      <c r="M20" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="N20" s="147" t="s"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="26" t="s"/>
-      <c r="D21" s="27" t="s"/>
+      <c r="C21" s="150" t="s"/>
+      <c r="D21" s="151" t="s"/>
       <c r="E21" s="16" t="s"/>
-      <c r="F21" s="25" t="s"/>
-      <c r="G21" s="16" t="s"/>
-      <c r="H21" s="16" t="s"/>
+      <c r="F21" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="16" t="s"/>
-      <c r="J21" s="16" t="s"/>
+      <c r="J21" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="K21" s="16" t="s"/>
       <c r="L21" s="16" t="s"/>
-      <c r="M21" s="16" t="s"/>
-      <c r="N21" s="23" t="s"/>
+      <c r="M21" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="147" t="s"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="28" t="s"/>
-      <c r="D22" s="27" t="s"/>
+      <c r="C22" s="152" t="s"/>
+      <c r="D22" s="151" t="s"/>
       <c r="E22" s="16" t="s"/>
-      <c r="F22" s="25" t="s"/>
-      <c r="G22" s="16" t="s"/>
-      <c r="H22" s="16" t="s"/>
+      <c r="F22" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="148" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="16" t="s"/>
-      <c r="J22" s="16" t="s"/>
+      <c r="J22" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="K22" s="16" t="s"/>
       <c r="L22" s="16" t="s"/>
-      <c r="M22" s="16" t="s"/>
-      <c r="N22" s="23" t="s"/>
+      <c r="M22" s="21">
+        <v>1</v>
+      </c>
+      <c r="N22" s="147" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C23" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="C23" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="147">
         <v>0.5</v>
       </c>
-      <c r="E23" s="24" t="s"/>
-      <c r="F23" s="25" t="s"/>
-      <c r="G23" s="24" t="s"/>
-      <c r="H23" s="24" t="s"/>
+      <c r="E23" s="148" t="s"/>
+      <c r="F23" s="149" t="s"/>
+      <c r="G23" s="148" t="s"/>
+      <c r="H23" s="148" t="s"/>
       <c r="I23" s="16" t="s"/>
-      <c r="J23" s="24" t="s"/>
-      <c r="K23" s="24" t="s"/>
-      <c r="L23" s="24" t="s"/>
+      <c r="J23" s="148" t="s"/>
+      <c r="K23" s="148" t="s"/>
+      <c r="L23" s="148" t="s"/>
       <c r="M23" s="21" t="s"/>
-      <c r="N23" s="23">
+      <c r="N23" s="147">
         <f>=MAX(M23:M26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="55.2" customHeight="true">
       <c r="C24" s="16" t="s"/>
-      <c r="D24" s="27" t="s"/>
+      <c r="D24" s="151" t="s"/>
       <c r="E24" s="16" t="s"/>
-      <c r="F24" s="25" t="s"/>
-      <c r="G24" s="24" t="s"/>
-      <c r="H24" s="24" t="s"/>
+      <c r="F24" s="149" t="s"/>
+      <c r="G24" s="148" t="s"/>
+      <c r="H24" s="148" t="s"/>
       <c r="I24" s="16" t="s"/>
-      <c r="J24" s="24" t="s"/>
-      <c r="K24" s="24" t="s"/>
-      <c r="L24" s="24" t="s"/>
+      <c r="J24" s="148" t="s"/>
+      <c r="K24" s="148" t="s"/>
+      <c r="L24" s="148" t="s"/>
       <c r="M24" s="21" t="s"/>
-      <c r="N24" s="23" t="s"/>
+      <c r="N24" s="147" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
       <c r="C25" s="16" t="s"/>
-      <c r="D25" s="27" t="s"/>
+      <c r="D25" s="151" t="s"/>
       <c r="E25" s="16" t="s"/>
-      <c r="F25" s="25" t="s"/>
-      <c r="G25" s="24" t="s"/>
-      <c r="H25" s="24" t="s"/>
+      <c r="F25" s="149" t="s"/>
+      <c r="G25" s="148" t="s"/>
+      <c r="H25" s="148" t="s"/>
       <c r="I25" s="16" t="s"/>
       <c r="J25" s="16" t="s"/>
       <c r="K25" s="16" t="s"/>
       <c r="L25" s="16" t="s"/>
       <c r="M25" s="21" t="s"/>
-      <c r="N25" s="23" t="s"/>
+      <c r="N25" s="147" t="s"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="16" t="s"/>
-      <c r="D26" s="27" t="s"/>
+      <c r="D26" s="151" t="s"/>
       <c r="E26" s="16" t="s"/>
-      <c r="F26" s="25" t="s"/>
+      <c r="F26" s="149" t="s"/>
       <c r="G26" s="16" t="s"/>
       <c r="H26" s="16" t="s"/>
       <c r="I26" s="16" t="s"/>
@@ -4316,13 +4702,13 @@
       <c r="K26" s="16" t="s"/>
       <c r="L26" s="16" t="s"/>
       <c r="M26" s="16" t="s"/>
-      <c r="N26" s="23" t="s"/>
+      <c r="N26" s="147" t="s"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="16" t="s"/>
-      <c r="D27" s="27" t="s"/>
+      <c r="D27" s="151" t="s"/>
       <c r="E27" s="16" t="s"/>
-      <c r="F27" s="25" t="s"/>
+      <c r="F27" s="149" t="s"/>
       <c r="G27" s="16" t="s"/>
       <c r="H27" s="16" t="s"/>
       <c r="I27" s="16" t="s"/>
@@ -4330,58 +4716,58 @@
       <c r="K27" s="16" t="s"/>
       <c r="L27" s="16" t="s"/>
       <c r="M27" s="16" t="s"/>
-      <c r="N27" s="23" t="s"/>
+      <c r="N27" s="147" t="s"/>
     </row>
     <row r="28" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C28" s="27" t="s"/>
-      <c r="D28" s="23" t="s"/>
-      <c r="E28" s="24" t="s"/>
-      <c r="F28" s="25" t="s"/>
-      <c r="G28" s="24" t="s"/>
-      <c r="H28" s="24" t="s"/>
+      <c r="C28" s="151" t="s"/>
+      <c r="D28" s="147" t="s"/>
+      <c r="E28" s="148" t="s"/>
+      <c r="F28" s="149" t="s"/>
+      <c r="G28" s="148" t="s"/>
+      <c r="H28" s="148" t="s"/>
       <c r="I28" s="16" t="s"/>
-      <c r="J28" s="24" t="s"/>
-      <c r="K28" s="24" t="s"/>
-      <c r="L28" s="24" t="s"/>
+      <c r="J28" s="148" t="s"/>
+      <c r="K28" s="148" t="s"/>
+      <c r="L28" s="148" t="s"/>
       <c r="M28" s="21" t="s"/>
-      <c r="N28" s="23">
+      <c r="N28" s="147">
         <f>=MAX(M28:M31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
       <c r="C29" s="16" t="s"/>
-      <c r="D29" s="27" t="s"/>
+      <c r="D29" s="151" t="s"/>
       <c r="E29" s="16" t="s"/>
-      <c r="F29" s="25" t="s"/>
-      <c r="G29" s="24" t="s"/>
-      <c r="H29" s="24" t="s"/>
+      <c r="F29" s="149" t="s"/>
+      <c r="G29" s="148" t="s"/>
+      <c r="H29" s="148" t="s"/>
       <c r="I29" s="16" t="s"/>
-      <c r="J29" s="24" t="s"/>
-      <c r="K29" s="24" t="s"/>
-      <c r="L29" s="24" t="s"/>
+      <c r="J29" s="148" t="s"/>
+      <c r="K29" s="148" t="s"/>
+      <c r="L29" s="148" t="s"/>
       <c r="M29" s="21" t="s"/>
-      <c r="N29" s="23" t="s"/>
+      <c r="N29" s="147" t="s"/>
     </row>
     <row r="30" spans="3:14" ht="41.4" customHeight="true">
       <c r="C30" s="16" t="s"/>
-      <c r="D30" s="27" t="s"/>
+      <c r="D30" s="151" t="s"/>
       <c r="E30" s="16" t="s"/>
-      <c r="F30" s="25" t="s"/>
-      <c r="G30" s="24" t="s"/>
-      <c r="H30" s="24" t="s"/>
+      <c r="F30" s="149" t="s"/>
+      <c r="G30" s="148" t="s"/>
+      <c r="H30" s="148" t="s"/>
       <c r="I30" s="16" t="s"/>
       <c r="J30" s="16" t="s"/>
       <c r="K30" s="16" t="s"/>
       <c r="L30" s="16" t="s"/>
       <c r="M30" s="21" t="s"/>
-      <c r="N30" s="23" t="s"/>
+      <c r="N30" s="147" t="s"/>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="16" t="s"/>
-      <c r="D31" s="27" t="s"/>
+      <c r="D31" s="151" t="s"/>
       <c r="E31" s="16" t="s"/>
-      <c r="F31" s="25" t="s"/>
+      <c r="F31" s="149" t="s"/>
       <c r="G31" s="16" t="s"/>
       <c r="H31" s="16" t="s"/>
       <c r="I31" s="16" t="s"/>
@@ -4389,13 +4775,13 @@
       <c r="K31" s="16" t="s"/>
       <c r="L31" s="16" t="s"/>
       <c r="M31" s="16" t="s"/>
-      <c r="N31" s="23" t="s"/>
+      <c r="N31" s="147" t="s"/>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="16" t="s"/>
-      <c r="D32" s="27" t="s"/>
+      <c r="D32" s="151" t="s"/>
       <c r="E32" s="16" t="s"/>
-      <c r="F32" s="25" t="s"/>
+      <c r="F32" s="149" t="s"/>
       <c r="G32" s="16" t="s"/>
       <c r="H32" s="16" t="s"/>
       <c r="I32" s="16" t="s"/>
@@ -4403,44 +4789,44 @@
       <c r="K32" s="16" t="s"/>
       <c r="L32" s="16" t="s"/>
       <c r="M32" s="16" t="s"/>
-      <c r="N32" s="23" t="s"/>
+      <c r="N32" s="147" t="s"/>
     </row>
     <row r="33" spans="3:14" ht="14.25" customHeight="true">
       <c r="C33" s="16" t="s"/>
-      <c r="D33" s="23" t="s"/>
-      <c r="E33" s="24" t="s"/>
-      <c r="F33" s="25" t="s"/>
-      <c r="G33" s="24" t="s"/>
-      <c r="H33" s="24" t="s"/>
-      <c r="I33" s="24" t="s"/>
+      <c r="D33" s="147" t="s"/>
+      <c r="E33" s="148" t="s"/>
+      <c r="F33" s="149" t="s"/>
+      <c r="G33" s="148" t="s"/>
+      <c r="H33" s="148" t="s"/>
+      <c r="I33" s="148" t="s"/>
       <c r="J33" s="16" t="s"/>
       <c r="K33" s="16" t="s"/>
       <c r="L33" s="16" t="s"/>
       <c r="M33" s="21" t="s"/>
-      <c r="N33" s="23">
+      <c r="N33" s="147">
         <f>=MAX(M33:M36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="16" t="s"/>
-      <c r="D34" s="27" t="s"/>
-      <c r="E34" s="24" t="s"/>
-      <c r="F34" s="25" t="s"/>
-      <c r="G34" s="24" t="s"/>
+      <c r="D34" s="151" t="s"/>
+      <c r="E34" s="148" t="s"/>
+      <c r="F34" s="149" t="s"/>
+      <c r="G34" s="148" t="s"/>
       <c r="H34" s="16" t="s"/>
-      <c r="I34" s="24" t="s"/>
+      <c r="I34" s="148" t="s"/>
       <c r="J34" s="16" t="s"/>
       <c r="K34" s="16" t="s"/>
       <c r="L34" s="16" t="s"/>
       <c r="M34" s="21" t="s"/>
-      <c r="N34" s="23" t="s"/>
+      <c r="N34" s="147" t="s"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="16" t="s"/>
-      <c r="D35" s="27" t="s"/>
-      <c r="E35" s="24" t="s"/>
-      <c r="F35" s="25" t="s"/>
+      <c r="D35" s="151" t="s"/>
+      <c r="E35" s="148" t="s"/>
+      <c r="F35" s="149" t="s"/>
       <c r="G35" s="16" t="s"/>
       <c r="H35" s="16" t="s"/>
       <c r="I35" s="16" t="s"/>
@@ -4448,13 +4834,13 @@
       <c r="K35" s="16" t="s"/>
       <c r="L35" s="16" t="s"/>
       <c r="M35" s="21" t="s"/>
-      <c r="N35" s="23" t="s"/>
+      <c r="N35" s="147" t="s"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="16" t="s"/>
-      <c r="D36" s="27" t="s"/>
-      <c r="E36" s="24" t="s"/>
-      <c r="F36" s="25" t="s"/>
+      <c r="D36" s="151" t="s"/>
+      <c r="E36" s="148" t="s"/>
+      <c r="F36" s="149" t="s"/>
       <c r="G36" s="16" t="s"/>
       <c r="H36" s="16" t="s"/>
       <c r="I36" s="16" t="s"/>
@@ -4462,13 +4848,13 @@
       <c r="K36" s="16" t="s"/>
       <c r="L36" s="16" t="s"/>
       <c r="M36" s="16" t="s"/>
-      <c r="N36" s="23" t="s"/>
+      <c r="N36" s="147" t="s"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="16" t="s"/>
-      <c r="D37" s="27" t="s"/>
-      <c r="E37" s="24" t="s"/>
-      <c r="F37" s="25" t="s"/>
+      <c r="D37" s="151" t="s"/>
+      <c r="E37" s="148" t="s"/>
+      <c r="F37" s="149" t="s"/>
       <c r="G37" s="16" t="s"/>
       <c r="H37" s="16" t="s"/>
       <c r="I37" s="16" t="s"/>
@@ -4476,44 +4862,44 @@
       <c r="K37" s="16" t="s"/>
       <c r="L37" s="16" t="s"/>
       <c r="M37" s="16" t="s"/>
-      <c r="N37" s="23" t="s"/>
+      <c r="N37" s="147" t="s"/>
     </row>
     <row r="38" spans="3:14" ht="55.2" customHeight="true">
       <c r="C38" s="16" t="s"/>
-      <c r="D38" s="23" t="s"/>
+      <c r="D38" s="147" t="s"/>
       <c r="E38" s="16" t="s"/>
-      <c r="F38" s="25" t="s"/>
-      <c r="G38" s="24" t="s"/>
-      <c r="H38" s="24" t="s"/>
+      <c r="F38" s="149" t="s"/>
+      <c r="G38" s="148" t="s"/>
+      <c r="H38" s="148" t="s"/>
       <c r="I38" s="16" t="s"/>
-      <c r="J38" s="24" t="s"/>
-      <c r="K38" s="24" t="s"/>
-      <c r="L38" s="24" t="s"/>
+      <c r="J38" s="148" t="s"/>
+      <c r="K38" s="148" t="s"/>
+      <c r="L38" s="148" t="s"/>
       <c r="M38" s="21" t="s"/>
-      <c r="N38" s="23">
+      <c r="N38" s="147">
         <f>=MAX(M38:M41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
       <c r="C39" s="16" t="s"/>
-      <c r="D39" s="27" t="s"/>
+      <c r="D39" s="151" t="s"/>
       <c r="E39" s="16" t="s"/>
-      <c r="F39" s="25" t="s"/>
-      <c r="G39" s="24" t="s"/>
-      <c r="H39" s="24" t="s"/>
+      <c r="F39" s="149" t="s"/>
+      <c r="G39" s="148" t="s"/>
+      <c r="H39" s="148" t="s"/>
       <c r="I39" s="16" t="s"/>
-      <c r="J39" s="24" t="s"/>
-      <c r="K39" s="24" t="s"/>
-      <c r="L39" s="24" t="s"/>
+      <c r="J39" s="148" t="s"/>
+      <c r="K39" s="148" t="s"/>
+      <c r="L39" s="148" t="s"/>
       <c r="M39" s="21" t="s"/>
-      <c r="N39" s="23" t="s"/>
+      <c r="N39" s="147" t="s"/>
     </row>
     <row r="40" spans="3:14">
       <c r="C40" s="16" t="s"/>
-      <c r="D40" s="27" t="s"/>
+      <c r="D40" s="151" t="s"/>
       <c r="E40" s="16" t="s"/>
-      <c r="F40" s="25" t="s"/>
+      <c r="F40" s="149" t="s"/>
       <c r="G40" s="16" t="s"/>
       <c r="H40" s="16" t="s"/>
       <c r="I40" s="16" t="s"/>
@@ -4521,13 +4907,13 @@
       <c r="K40" s="16" t="s"/>
       <c r="L40" s="16" t="s"/>
       <c r="M40" s="21" t="s"/>
-      <c r="N40" s="23" t="s"/>
+      <c r="N40" s="147" t="s"/>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="16" t="s"/>
-      <c r="D41" s="27" t="s"/>
+      <c r="D41" s="151" t="s"/>
       <c r="E41" s="16" t="s"/>
-      <c r="F41" s="25" t="s"/>
+      <c r="F41" s="149" t="s"/>
       <c r="G41" s="16" t="s"/>
       <c r="H41" s="16" t="s"/>
       <c r="I41" s="16" t="s"/>
@@ -4535,13 +4921,13 @@
       <c r="K41" s="16" t="s"/>
       <c r="L41" s="16" t="s"/>
       <c r="M41" s="16" t="s"/>
-      <c r="N41" s="23" t="s"/>
+      <c r="N41" s="147" t="s"/>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="16" t="s"/>
-      <c r="D42" s="27" t="s"/>
+      <c r="D42" s="151" t="s"/>
       <c r="E42" s="16" t="s"/>
-      <c r="F42" s="25" t="s"/>
+      <c r="F42" s="149" t="s"/>
       <c r="G42" s="16" t="s"/>
       <c r="H42" s="16" t="s"/>
       <c r="I42" s="16" t="s"/>
@@ -4549,7 +4935,7 @@
       <c r="K42" s="16" t="s"/>
       <c r="L42" s="16" t="s"/>
       <c r="M42" s="16" t="s"/>
-      <c r="N42" s="23" t="s"/>
+      <c r="N42" s="147" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4583,7 +4969,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="开发日报-杨俊杰"/>
-  <dimension ref="O42"/>
+  <dimension ref="O54"/>
   <sheetViews>
     <sheetView showGridLines="true" workbookViewId="0">
       <selection activeCell="H16" sqref="H16:L16"/>
@@ -4794,19 +5180,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I16" s="19" t="s"/>
       <c r="J16" s="19" t="s"/>
@@ -4816,648 +5202,819 @@
         <v>10</v>
       </c>
       <c r="N16" s="21">
-        <f>=N18*D18+N23*D23+N28*D28+N33*D33+N38*D33</f>
-        <v>0.26</v>
+        <f>=N18*D18+N23*D23+N45*D45+N50*D50+N39*D39</f>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C18" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="23">
+      <c r="C18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="24">
         <v>0.25</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="25">
+      <c r="E18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="26">
         <v>45229</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="16" t="s"/>
-      <c r="J18" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="24" t="s"/>
-      <c r="M18" s="21">
+      <c r="G18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="23" t="s"/>
+      <c r="J18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="25" t="s"/>
+      <c r="M18" s="27">
         <v>0.16</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="24">
         <f>=MAX(M20:M22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C19" s="16" t="s"/>
-      <c r="D19" s="27" t="s"/>
-      <c r="E19" s="16" t="s"/>
-      <c r="F19" s="25">
+      <c r="C19" s="23" t="s"/>
+      <c r="D19" s="28" t="s"/>
+      <c r="E19" s="23" t="s"/>
+      <c r="F19" s="26">
         <v>45230</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="16" t="s"/>
-      <c r="J19" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>57</v>
+      <c r="G19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="23" t="s"/>
+      <c r="J19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="M19" s="29">
         <v>0.32</v>
       </c>
-      <c r="N19" s="23" t="s"/>
+      <c r="N19" s="24" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C20" s="16" t="s"/>
-      <c r="D20" s="27" t="s"/>
-      <c r="E20" s="16" t="s"/>
-      <c r="F20" s="25">
+      <c r="C20" s="23" t="s"/>
+      <c r="D20" s="28" t="s"/>
+      <c r="E20" s="23" t="s"/>
+      <c r="F20" s="26">
         <v>45231</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="16" t="s"/>
-      <c r="J20" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="24" t="s">
+      <c r="G20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="23" t="s"/>
+      <c r="J20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="N20" s="24" t="s"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="23" t="s"/>
+      <c r="D21" s="28" t="s"/>
+      <c r="E21" s="23" t="s"/>
+      <c r="F21" s="26">
+        <v>45232</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="23" t="s"/>
+      <c r="J21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="N21" s="24" t="s"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="23" t="s"/>
+      <c r="D22" s="28" t="s"/>
+      <c r="E22" s="23" t="s"/>
+      <c r="F22" s="26">
+        <v>45233</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="23" t="s"/>
+      <c r="J22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="27">
+        <v>1</v>
+      </c>
+      <c r="N22" s="24" t="s"/>
+    </row>
+    <row r="23" spans="3:14" ht="55.2" customHeight="true">
+      <c r="C23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="26">
+        <v>45234</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="25" t="s"/>
+      <c r="I23" s="23" t="s"/>
+      <c r="J23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="27">
+        <v>0</v>
+      </c>
+      <c r="N23" s="24">
+        <f>=MAX(M23:M38)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="55.2" customHeight="true">
+      <c r="C24" s="31" t="s"/>
+      <c r="D24" s="31" t="s"/>
+      <c r="E24" s="31" t="s"/>
+      <c r="F24" s="26">
+        <v>45235</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="25" t="s"/>
+      <c r="I24" s="23" t="s"/>
+      <c r="J24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31" t="s"/>
+    </row>
+    <row r="25" spans="3:14" ht="27.6" customHeight="true">
+      <c r="C25" s="31" t="s"/>
+      <c r="D25" s="31" t="s"/>
+      <c r="E25" s="31" t="s"/>
+      <c r="F25" s="26">
+        <v>45236</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="23" t="s"/>
+      <c r="J25" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="N25" s="31" t="s"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="31" t="s"/>
+      <c r="D26" s="31" t="s"/>
+      <c r="E26" s="31" t="s"/>
+      <c r="F26" s="26">
+        <v>45237</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="23" t="s"/>
+      <c r="J26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="27">
+        <v>0.04</v>
+      </c>
+      <c r="N26" s="31" t="s"/>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="31" t="s"/>
+      <c r="D27" s="31" t="s"/>
+      <c r="E27" s="31" t="s"/>
+      <c r="F27" s="26">
+        <v>45238</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="23" t="s"/>
+      <c r="J27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="N27" s="31" t="s"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="31" t="s"/>
+      <c r="D28" s="31" t="s"/>
+      <c r="E28" s="31" t="s"/>
+      <c r="F28" s="32">
+        <v>45239</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="33" t="s"/>
+      <c r="J28" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="29">
+        <v>0.15</v>
+      </c>
+      <c r="N28" s="31" t="s"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="31" t="s"/>
+      <c r="D29" s="31" t="s"/>
+      <c r="E29" s="31" t="s"/>
+      <c r="F29" s="32">
+        <v>45240</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="33" t="s"/>
+      <c r="J29" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="N29" s="31" t="s"/>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="31" t="s"/>
+      <c r="D30" s="31" t="s"/>
+      <c r="E30" s="31" t="s"/>
+      <c r="F30" s="32">
+        <v>45241</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="33" t="s"/>
+      <c r="J30" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="21">
-        <v>0.42</v>
-      </c>
-      <c r="N20" s="23" t="s"/>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="16" t="s"/>
-      <c r="D21" s="27" t="s"/>
-      <c r="E21" s="16" t="s"/>
-      <c r="F21" s="25">
-        <v>45232</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="16" t="s"/>
-      <c r="J21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0.76</v>
-      </c>
-      <c r="N21" s="23" t="s"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="16" t="s"/>
-      <c r="D22" s="27" t="s"/>
-      <c r="E22" s="16" t="s"/>
-      <c r="F22" s="25">
-        <v>45233</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="16" t="s"/>
-      <c r="J22" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="21">
-        <v>1</v>
-      </c>
-      <c r="N22" s="23" t="s"/>
-    </row>
-    <row r="23" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="M30" s="29">
         <v>0.25</v>
       </c>
-      <c r="E23" s="24" t="s"/>
-      <c r="F23" s="25">
-        <v>45234</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="24" t="s"/>
-      <c r="I23" s="16" t="s"/>
-      <c r="J23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="21">
+      <c r="N30" s="31" t="s"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="31" t="s"/>
+      <c r="D31" s="31" t="s"/>
+      <c r="E31" s="31" t="s"/>
+      <c r="F31" s="32">
+        <v>45242</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="33" t="s"/>
+      <c r="I31" s="33" t="s"/>
+      <c r="J31" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="33" t="s"/>
+      <c r="L31" s="33" t="s"/>
+      <c r="M31" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="N31" s="31" t="s"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="31" t="s"/>
+      <c r="D32" s="31" t="s"/>
+      <c r="E32" s="31" t="s"/>
+      <c r="F32" s="32">
+        <v>45243</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="33" t="s"/>
+      <c r="I32" s="33" t="s"/>
+      <c r="J32" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="33" t="s"/>
+      <c r="L32" s="33" t="s"/>
+      <c r="M32" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="N32" s="31" t="s"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="33" t="s"/>
+      <c r="D33" s="34" t="s"/>
+      <c r="E33" s="30" t="s"/>
+      <c r="F33" s="32">
+        <v>45244</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="30" t="s"/>
+      <c r="I33" s="30" t="s"/>
+      <c r="J33" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="33" t="s"/>
+      <c r="L33" s="33" t="s"/>
+      <c r="M33" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="N33" s="34" t="s"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="33" t="s"/>
+      <c r="D34" s="34" t="s"/>
+      <c r="E34" s="30" t="s"/>
+      <c r="F34" s="32" t="s"/>
+      <c r="G34" s="33" t="s"/>
+      <c r="H34" s="33" t="s"/>
+      <c r="I34" s="33" t="s"/>
+      <c r="J34" s="33" t="s"/>
+      <c r="K34" s="33" t="s"/>
+      <c r="L34" s="33" t="s"/>
+      <c r="M34" s="29" t="s"/>
+      <c r="N34" s="34" t="s"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="33" t="s"/>
+      <c r="D35" s="34" t="s"/>
+      <c r="E35" s="30" t="s"/>
+      <c r="F35" s="32" t="s"/>
+      <c r="G35" s="33" t="s"/>
+      <c r="H35" s="33" t="s"/>
+      <c r="I35" s="33" t="s"/>
+      <c r="J35" s="33" t="s"/>
+      <c r="K35" s="33" t="s"/>
+      <c r="L35" s="33" t="s"/>
+      <c r="M35" s="29" t="s"/>
+      <c r="N35" s="34" t="s"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="33" t="s"/>
+      <c r="D36" s="34" t="s"/>
+      <c r="E36" s="30" t="s"/>
+      <c r="F36" s="35" t="s"/>
+      <c r="G36" s="36" t="s"/>
+      <c r="H36" s="36" t="s"/>
+      <c r="I36" s="36" t="s"/>
+      <c r="J36" s="36" t="s"/>
+      <c r="K36" s="36" t="s"/>
+      <c r="L36" s="36" t="s"/>
+      <c r="M36" s="37" t="s"/>
+      <c r="N36" s="34" t="s"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="33" t="s"/>
+      <c r="D37" s="34" t="s"/>
+      <c r="E37" s="38" t="s"/>
+      <c r="F37" s="32" t="s"/>
+      <c r="G37" s="33" t="s"/>
+      <c r="H37" s="33" t="s"/>
+      <c r="I37" s="33" t="s"/>
+      <c r="J37" s="33" t="s"/>
+      <c r="K37" s="33" t="s"/>
+      <c r="L37" s="33" t="s"/>
+      <c r="M37" s="29" t="s"/>
+      <c r="N37" s="39" t="s"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="31" t="s"/>
+      <c r="D38" s="31" t="s"/>
+      <c r="E38" s="40" t="s"/>
+      <c r="F38" s="31" t="s"/>
+      <c r="G38" s="31" t="s"/>
+      <c r="H38" s="31" t="s"/>
+      <c r="I38" s="31" t="s"/>
+      <c r="J38" s="31" t="s"/>
+      <c r="K38" s="31" t="s"/>
+      <c r="L38" s="31" t="s"/>
+      <c r="M38" s="31" t="s"/>
+      <c r="N38" s="41" t="s"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="36" t="s"/>
+      <c r="D39" s="42" t="s"/>
+      <c r="E39" s="43" t="s"/>
+      <c r="F39" s="44" t="s"/>
+      <c r="G39" s="45" t="s"/>
+      <c r="H39" s="45" t="s"/>
+      <c r="I39" s="45" t="s"/>
+      <c r="J39" s="46" t="s"/>
+      <c r="K39" s="46" t="s"/>
+      <c r="L39" s="46" t="s"/>
+      <c r="M39" s="47" t="s"/>
+      <c r="N39" s="48">
+        <f>=MAX(M39:M44)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="23">
-        <f>=MAX(M23:M26)</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C24" s="16" t="s"/>
-      <c r="D24" s="27" t="s"/>
-      <c r="E24" s="16" t="s"/>
-      <c r="F24" s="25">
-        <v>45235</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="24" t="s"/>
-      <c r="I24" s="16" t="s"/>
-      <c r="J24" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="21">
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="49" t="s"/>
+      <c r="D40" s="49" t="s"/>
+      <c r="E40" s="49" t="s"/>
+      <c r="F40" s="32" t="s"/>
+      <c r="G40" s="30" t="s"/>
+      <c r="H40" s="30" t="s"/>
+      <c r="I40" s="30" t="s"/>
+      <c r="J40" s="33" t="s"/>
+      <c r="K40" s="33" t="s"/>
+      <c r="L40" s="33" t="s"/>
+      <c r="M40" s="29" t="s"/>
+      <c r="N40" s="50" t="s"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" s="49" t="s"/>
+      <c r="D41" s="49" t="s"/>
+      <c r="E41" s="49" t="s"/>
+      <c r="F41" s="32" t="s"/>
+      <c r="G41" s="30" t="s"/>
+      <c r="H41" s="30" t="s"/>
+      <c r="I41" s="30" t="s"/>
+      <c r="J41" s="33" t="s"/>
+      <c r="K41" s="33" t="s"/>
+      <c r="L41" s="33" t="s"/>
+      <c r="M41" s="29" t="s"/>
+      <c r="N41" s="50" t="s"/>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="49" t="s"/>
+      <c r="D42" s="49" t="s"/>
+      <c r="E42" s="49" t="s"/>
+      <c r="F42" s="32" t="s"/>
+      <c r="G42" s="30" t="s"/>
+      <c r="H42" s="30" t="s"/>
+      <c r="I42" s="30" t="s"/>
+      <c r="J42" s="33" t="s"/>
+      <c r="K42" s="33" t="s"/>
+      <c r="L42" s="33" t="s"/>
+      <c r="M42" s="29" t="s"/>
+      <c r="N42" s="50" t="s"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="49" t="s"/>
+      <c r="D43" s="49" t="s"/>
+      <c r="E43" s="49" t="s"/>
+      <c r="F43" s="32" t="s"/>
+      <c r="G43" s="30" t="s"/>
+      <c r="H43" s="30" t="s"/>
+      <c r="I43" s="30" t="s"/>
+      <c r="J43" s="33" t="s"/>
+      <c r="K43" s="33" t="s"/>
+      <c r="L43" s="33" t="s"/>
+      <c r="M43" s="29" t="s"/>
+      <c r="N43" s="50" t="s"/>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="C44" s="51" t="s"/>
+      <c r="D44" s="51" t="s"/>
+      <c r="E44" s="51" t="s"/>
+      <c r="F44" s="32" t="s"/>
+      <c r="G44" s="30" t="s"/>
+      <c r="H44" s="30" t="s"/>
+      <c r="I44" s="30" t="s"/>
+      <c r="J44" s="33" t="s"/>
+      <c r="K44" s="33" t="s"/>
+      <c r="L44" s="33" t="s"/>
+      <c r="M44" s="29" t="s"/>
+      <c r="N44" s="52" t="s"/>
+    </row>
+    <row r="45" spans="3:14" ht="14.25" customHeight="true">
+      <c r="C45" s="23" t="s"/>
+      <c r="D45" s="24" t="s"/>
+      <c r="E45" s="25" t="s"/>
+      <c r="F45" s="26" t="s"/>
+      <c r="G45" s="25" t="s"/>
+      <c r="H45" s="25" t="s"/>
+      <c r="I45" s="25" t="s"/>
+      <c r="J45" s="23" t="s"/>
+      <c r="K45" s="23" t="s"/>
+      <c r="L45" s="23" t="s"/>
+      <c r="M45" s="27" t="s"/>
+      <c r="N45" s="53">
+        <f>=MAX(M45:M48)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="23" t="s"/>
-    </row>
-    <row r="25" spans="3:14" ht="27.6" customHeight="true">
-      <c r="C25" s="16" t="s"/>
-      <c r="D25" s="27" t="s"/>
-      <c r="E25" s="16" t="s"/>
-      <c r="F25" s="25">
-        <v>45236</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="16" t="s"/>
-      <c r="J25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M25" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="N25" s="23" t="s"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="16" t="s"/>
-      <c r="D26" s="27" t="s"/>
-      <c r="E26" s="16" t="s"/>
-      <c r="F26" s="25">
-        <v>45237</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="16" t="s"/>
-      <c r="J26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="N26" s="23" t="s"/>
-    </row>
-    <row r="27" spans="3:14">
-      <c r="C27" s="16" t="s"/>
-      <c r="D27" s="27" t="s"/>
-      <c r="E27" s="16" t="s"/>
-      <c r="F27" s="25">
-        <v>45238</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="16" t="s"/>
-      <c r="J27" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M27" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="N27" s="23" t="s"/>
-    </row>
-    <row r="28" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C28" s="16" t="s"/>
-      <c r="D28" s="23" t="s"/>
-      <c r="E28" s="24" t="s"/>
-      <c r="F28" s="25">
-        <v>45239</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="16" t="s"/>
-      <c r="J28" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="M28" s="21">
-        <v>0.15</v>
-      </c>
-      <c r="N28" s="23">
-        <f>=MAX(M28:M31)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C29" s="16" t="s"/>
-      <c r="D29" s="27" t="s"/>
-      <c r="E29" s="16" t="s"/>
-      <c r="F29" s="25">
-        <v>45240</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="16" t="s"/>
-      <c r="J29" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="N29" s="23" t="s"/>
-    </row>
-    <row r="30" spans="3:14" ht="41.4" customHeight="true">
-      <c r="C30" s="16" t="s"/>
-      <c r="D30" s="27" t="s"/>
-      <c r="E30" s="16" t="s"/>
-      <c r="F30" s="25">
-        <v>45241</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="16" t="s"/>
-      <c r="J30" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="N30" s="23" t="s"/>
-    </row>
-    <row r="31" spans="3:14">
-      <c r="C31" s="16" t="s"/>
-      <c r="D31" s="27" t="s"/>
-      <c r="E31" s="16" t="s"/>
-      <c r="F31" s="25">
-        <v>45242</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="16" t="s"/>
-      <c r="I31" s="16" t="s"/>
-      <c r="J31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="16" t="s"/>
-      <c r="L31" s="16" t="s"/>
-      <c r="M31" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="N31" s="23" t="s"/>
-    </row>
-    <row r="32" spans="3:14">
-      <c r="C32" s="16" t="s"/>
-      <c r="D32" s="27" t="s"/>
-      <c r="E32" s="16" t="s"/>
-      <c r="F32" s="25">
-        <v>45243</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="16" t="s"/>
-      <c r="I32" s="16" t="s"/>
-      <c r="J32" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" s="16" t="s"/>
-      <c r="L32" s="16" t="s"/>
-      <c r="M32" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="N32" s="23" t="s"/>
-    </row>
-    <row r="33" spans="3:14" ht="14.25" customHeight="true">
-      <c r="C33" s="16" t="s"/>
-      <c r="D33" s="23" t="s"/>
-      <c r="E33" s="24" t="s"/>
-      <c r="F33" s="25">
-        <v>45244</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="24" t="s"/>
-      <c r="I33" s="24" t="s"/>
-      <c r="J33" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K33" s="16" t="s"/>
-      <c r="L33" s="16" t="s"/>
-      <c r="M33" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="N33" s="23">
-        <f>=MAX(M33:M36)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14">
-      <c r="C34" s="16" t="s"/>
-      <c r="D34" s="27" t="s"/>
-      <c r="E34" s="24" t="s"/>
-      <c r="F34" s="25" t="s"/>
-      <c r="G34" s="24" t="s"/>
-      <c r="H34" s="16" t="s"/>
-      <c r="I34" s="24" t="s"/>
-      <c r="J34" s="16" t="s"/>
-      <c r="K34" s="16" t="s"/>
-      <c r="L34" s="16" t="s"/>
-      <c r="M34" s="21" t="s"/>
-      <c r="N34" s="23" t="s"/>
-    </row>
-    <row r="35" spans="3:14">
-      <c r="C35" s="16" t="s"/>
-      <c r="D35" s="27" t="s"/>
-      <c r="E35" s="24" t="s"/>
-      <c r="F35" s="25" t="s"/>
-      <c r="G35" s="16" t="s"/>
-      <c r="H35" s="16" t="s"/>
-      <c r="I35" s="16" t="s"/>
-      <c r="J35" s="16" t="s"/>
-      <c r="K35" s="16" t="s"/>
-      <c r="L35" s="16" t="s"/>
-      <c r="M35" s="21" t="s"/>
-      <c r="N35" s="23" t="s"/>
-    </row>
-    <row r="36" spans="3:14">
-      <c r="C36" s="16" t="s"/>
-      <c r="D36" s="27" t="s"/>
-      <c r="E36" s="24" t="s"/>
-      <c r="F36" s="25" t="s"/>
-      <c r="G36" s="16" t="s"/>
-      <c r="H36" s="16" t="s"/>
-      <c r="I36" s="16" t="s"/>
-      <c r="J36" s="16" t="s"/>
-      <c r="K36" s="16" t="s"/>
-      <c r="L36" s="16" t="s"/>
-      <c r="M36" s="16" t="s"/>
-      <c r="N36" s="23" t="s"/>
-    </row>
-    <row r="37" spans="3:14">
-      <c r="C37" s="16" t="s"/>
-      <c r="D37" s="27" t="s"/>
-      <c r="E37" s="24" t="s"/>
-      <c r="F37" s="25" t="s"/>
-      <c r="G37" s="16" t="s"/>
-      <c r="H37" s="16" t="s"/>
-      <c r="I37" s="16" t="s"/>
-      <c r="J37" s="16" t="s"/>
-      <c r="K37" s="16" t="s"/>
-      <c r="L37" s="16" t="s"/>
-      <c r="M37" s="16" t="s"/>
-      <c r="N37" s="23" t="s"/>
-    </row>
-    <row r="38" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C38" s="16" t="s"/>
-      <c r="D38" s="23" t="s"/>
-      <c r="E38" s="16" t="s"/>
-      <c r="F38" s="25" t="s"/>
-      <c r="G38" s="24" t="s"/>
-      <c r="H38" s="24" t="s"/>
-      <c r="I38" s="16" t="s"/>
-      <c r="J38" s="24" t="s"/>
-      <c r="K38" s="24" t="s"/>
-      <c r="L38" s="24" t="s"/>
-      <c r="M38" s="21" t="s"/>
-      <c r="N38" s="23">
-        <f>=MAX(M38:M41)</f>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="C46" s="23" t="s"/>
+      <c r="D46" s="28" t="s"/>
+      <c r="E46" s="25" t="s"/>
+      <c r="F46" s="26" t="s"/>
+      <c r="G46" s="25" t="s"/>
+      <c r="H46" s="23" t="s"/>
+      <c r="I46" s="25" t="s"/>
+      <c r="J46" s="23" t="s"/>
+      <c r="K46" s="23" t="s"/>
+      <c r="L46" s="23" t="s"/>
+      <c r="M46" s="27" t="s"/>
+      <c r="N46" s="53" t="s"/>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="C47" s="23" t="s"/>
+      <c r="D47" s="28" t="s"/>
+      <c r="E47" s="25" t="s"/>
+      <c r="F47" s="26" t="s"/>
+      <c r="G47" s="23" t="s"/>
+      <c r="H47" s="23" t="s"/>
+      <c r="I47" s="23" t="s"/>
+      <c r="J47" s="23" t="s"/>
+      <c r="K47" s="23" t="s"/>
+      <c r="L47" s="23" t="s"/>
+      <c r="M47" s="27" t="s"/>
+      <c r="N47" s="53" t="s"/>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="C48" s="23" t="s"/>
+      <c r="D48" s="28" t="s"/>
+      <c r="E48" s="25" t="s"/>
+      <c r="F48" s="26" t="s"/>
+      <c r="G48" s="23" t="s"/>
+      <c r="H48" s="23" t="s"/>
+      <c r="I48" s="23" t="s"/>
+      <c r="J48" s="23" t="s"/>
+      <c r="K48" s="23" t="s"/>
+      <c r="L48" s="23" t="s"/>
+      <c r="M48" s="23" t="s"/>
+      <c r="N48" s="53" t="s"/>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="23" t="s"/>
+      <c r="D49" s="28" t="s"/>
+      <c r="E49" s="25" t="s"/>
+      <c r="F49" s="26" t="s"/>
+      <c r="G49" s="23" t="s"/>
+      <c r="H49" s="23" t="s"/>
+      <c r="I49" s="23" t="s"/>
+      <c r="J49" s="23" t="s"/>
+      <c r="K49" s="23" t="s"/>
+      <c r="L49" s="23" t="s"/>
+      <c r="M49" s="23" t="s"/>
+      <c r="N49" s="53" t="s"/>
+    </row>
+    <row r="50" spans="3:14" ht="55.2" customHeight="true">
+      <c r="C50" s="23" t="s"/>
+      <c r="D50" s="24" t="s"/>
+      <c r="E50" s="54" t="s"/>
+      <c r="F50" s="26" t="s"/>
+      <c r="G50" s="25" t="s"/>
+      <c r="H50" s="25" t="s"/>
+      <c r="I50" s="23" t="s"/>
+      <c r="J50" s="25" t="s"/>
+      <c r="K50" s="25" t="s"/>
+      <c r="L50" s="25" t="s"/>
+      <c r="M50" s="27" t="s"/>
+      <c r="N50" s="53">
+        <f>=MAX(M50:M53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C39" s="16" t="s"/>
-      <c r="D39" s="27" t="s"/>
-      <c r="E39" s="16" t="s"/>
-      <c r="F39" s="25" t="s"/>
-      <c r="G39" s="24" t="s"/>
-      <c r="H39" s="24" t="s"/>
-      <c r="I39" s="16" t="s"/>
-      <c r="J39" s="24" t="s"/>
-      <c r="K39" s="24" t="s"/>
-      <c r="L39" s="24" t="s"/>
-      <c r="M39" s="21" t="s"/>
-      <c r="N39" s="23" t="s"/>
-    </row>
-    <row r="40" spans="3:14">
-      <c r="C40" s="16" t="s"/>
-      <c r="D40" s="27" t="s"/>
-      <c r="E40" s="16" t="s"/>
-      <c r="F40" s="25" t="s"/>
-      <c r="G40" s="16" t="s"/>
-      <c r="H40" s="16" t="s"/>
-      <c r="I40" s="16" t="s"/>
-      <c r="J40" s="16" t="s"/>
-      <c r="K40" s="16" t="s"/>
-      <c r="L40" s="16" t="s"/>
-      <c r="M40" s="21" t="s"/>
-      <c r="N40" s="23" t="s"/>
-    </row>
-    <row r="41" spans="3:14">
-      <c r="C41" s="16" t="s"/>
-      <c r="D41" s="27" t="s"/>
-      <c r="E41" s="16" t="s"/>
-      <c r="F41" s="25" t="s"/>
-      <c r="G41" s="16" t="s"/>
-      <c r="H41" s="16" t="s"/>
-      <c r="I41" s="16" t="s"/>
-      <c r="J41" s="16" t="s"/>
-      <c r="K41" s="16" t="s"/>
-      <c r="L41" s="16" t="s"/>
-      <c r="M41" s="16" t="s"/>
-      <c r="N41" s="23" t="s"/>
-    </row>
-    <row r="42" spans="3:14">
-      <c r="C42" s="16" t="s"/>
-      <c r="D42" s="27" t="s"/>
-      <c r="E42" s="16" t="s"/>
-      <c r="F42" s="25" t="s"/>
-      <c r="G42" s="16" t="s"/>
-      <c r="H42" s="16" t="s"/>
-      <c r="I42" s="16" t="s"/>
-      <c r="J42" s="16" t="s"/>
-      <c r="K42" s="16" t="s"/>
-      <c r="L42" s="16" t="s"/>
-      <c r="M42" s="16" t="s"/>
-      <c r="N42" s="23" t="s"/>
+    <row r="51" spans="3:14" ht="55.2" customHeight="true">
+      <c r="C51" s="23" t="s"/>
+      <c r="D51" s="28" t="s"/>
+      <c r="E51" s="49" t="s"/>
+      <c r="F51" s="26" t="s"/>
+      <c r="G51" s="25" t="s"/>
+      <c r="H51" s="25" t="s"/>
+      <c r="I51" s="23" t="s"/>
+      <c r="J51" s="25" t="s"/>
+      <c r="K51" s="25" t="s"/>
+      <c r="L51" s="25" t="s"/>
+      <c r="M51" s="27" t="s"/>
+      <c r="N51" s="53" t="s"/>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="23" t="s"/>
+      <c r="D52" s="28" t="s"/>
+      <c r="E52" s="49" t="s"/>
+      <c r="F52" s="26" t="s"/>
+      <c r="G52" s="23" t="s"/>
+      <c r="H52" s="23" t="s"/>
+      <c r="I52" s="23" t="s"/>
+      <c r="J52" s="23" t="s"/>
+      <c r="K52" s="23" t="s"/>
+      <c r="L52" s="23" t="s"/>
+      <c r="M52" s="27" t="s"/>
+      <c r="N52" s="53" t="s"/>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="C53" s="23" t="s"/>
+      <c r="D53" s="28" t="s"/>
+      <c r="E53" s="49" t="s"/>
+      <c r="F53" s="26" t="s"/>
+      <c r="G53" s="23" t="s"/>
+      <c r="H53" s="23" t="s"/>
+      <c r="I53" s="23" t="s"/>
+      <c r="J53" s="23" t="s"/>
+      <c r="K53" s="23" t="s"/>
+      <c r="L53" s="23" t="s"/>
+      <c r="M53" s="23" t="s"/>
+      <c r="N53" s="53" t="s"/>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="C54" s="23" t="s"/>
+      <c r="D54" s="28" t="s"/>
+      <c r="E54" s="51" t="s"/>
+      <c r="F54" s="26" t="s"/>
+      <c r="G54" s="23" t="s"/>
+      <c r="H54" s="23" t="s"/>
+      <c r="I54" s="23" t="s"/>
+      <c r="J54" s="23" t="s"/>
+      <c r="K54" s="23" t="s"/>
+      <c r="L54" s="23" t="s"/>
+      <c r="M54" s="23" t="s"/>
+      <c r="N54" s="53" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="C4:C15"/>
     <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="C50:C54"/>
     <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D54"/>
     <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E45:E49"/>
     <mergeCell ref="N18:N22"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="N38:N42"/>
     <mergeCell ref="D4:N15"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="N23:N38"/>
+    <mergeCell ref="E23:E38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="C23:C38"/>
+    <mergeCell ref="N45:N49"/>
+    <mergeCell ref="N50:N54"/>
+    <mergeCell ref="N39:N44"/>
+    <mergeCell ref="E50:E54"/>
   </mergeCells>
 </worksheet>
 </file>
@@ -5482,854 +6039,854 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="22.8" customHeight="true">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="48" t="s"/>
-      <c r="E3" s="48" t="s"/>
-      <c r="F3" s="48" t="s"/>
-      <c r="G3" s="48" t="s"/>
-      <c r="H3" s="48" t="s"/>
-      <c r="I3" s="48" t="s"/>
-      <c r="J3" s="48" t="s"/>
-      <c r="K3" s="48" t="s"/>
-      <c r="L3" s="48" t="s"/>
-      <c r="M3" s="48" t="s"/>
-      <c r="N3" s="49" t="s"/>
+      <c r="D3" s="56" t="s"/>
+      <c r="E3" s="56" t="s"/>
+      <c r="F3" s="56" t="s"/>
+      <c r="G3" s="56" t="s"/>
+      <c r="H3" s="56" t="s"/>
+      <c r="I3" s="56" t="s"/>
+      <c r="J3" s="56" t="s"/>
+      <c r="K3" s="56" t="s"/>
+      <c r="L3" s="56" t="s"/>
+      <c r="M3" s="56" t="s"/>
+      <c r="N3" s="57" t="s"/>
     </row>
     <row r="4" spans="3:14" ht="131.25" customHeight="true">
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s"/>
-      <c r="F4" s="52" t="s"/>
-      <c r="G4" s="52" t="s"/>
-      <c r="H4" s="52" t="s"/>
-      <c r="I4" s="52" t="s"/>
-      <c r="J4" s="52" t="s"/>
-      <c r="K4" s="52" t="s"/>
-      <c r="L4" s="52" t="s"/>
-      <c r="M4" s="52" t="s"/>
-      <c r="N4" s="53" t="s"/>
+      <c r="E4" s="60" t="s"/>
+      <c r="F4" s="60" t="s"/>
+      <c r="G4" s="60" t="s"/>
+      <c r="H4" s="60" t="s"/>
+      <c r="I4" s="60" t="s"/>
+      <c r="J4" s="60" t="s"/>
+      <c r="K4" s="60" t="s"/>
+      <c r="L4" s="60" t="s"/>
+      <c r="M4" s="60" t="s"/>
+      <c r="N4" s="61" t="s"/>
     </row>
     <row r="5" spans="3:14">
-      <c r="C5" s="50" t="s"/>
-      <c r="D5" s="54" t="s"/>
-      <c r="E5" s="55" t="s"/>
-      <c r="F5" s="55" t="s"/>
-      <c r="G5" s="55" t="s"/>
-      <c r="H5" s="55" t="s"/>
-      <c r="I5" s="55" t="s"/>
-      <c r="J5" s="55" t="s"/>
-      <c r="K5" s="55" t="s"/>
-      <c r="L5" s="55" t="s"/>
-      <c r="M5" s="55" t="s"/>
-      <c r="N5" s="56" t="s"/>
+      <c r="C5" s="58" t="s"/>
+      <c r="D5" s="62" t="s"/>
+      <c r="E5" s="63" t="s"/>
+      <c r="F5" s="63" t="s"/>
+      <c r="G5" s="63" t="s"/>
+      <c r="H5" s="63" t="s"/>
+      <c r="I5" s="63" t="s"/>
+      <c r="J5" s="63" t="s"/>
+      <c r="K5" s="63" t="s"/>
+      <c r="L5" s="63" t="s"/>
+      <c r="M5" s="63" t="s"/>
+      <c r="N5" s="64" t="s"/>
     </row>
     <row r="6" spans="3:14">
-      <c r="C6" s="50" t="s"/>
-      <c r="D6" s="54" t="s"/>
-      <c r="E6" s="55" t="s"/>
-      <c r="F6" s="55" t="s"/>
-      <c r="G6" s="55" t="s"/>
-      <c r="H6" s="55" t="s"/>
-      <c r="I6" s="55" t="s"/>
-      <c r="J6" s="55" t="s"/>
-      <c r="K6" s="55" t="s"/>
-      <c r="L6" s="55" t="s"/>
-      <c r="M6" s="55" t="s"/>
-      <c r="N6" s="56" t="s"/>
+      <c r="C6" s="58" t="s"/>
+      <c r="D6" s="62" t="s"/>
+      <c r="E6" s="63" t="s"/>
+      <c r="F6" s="63" t="s"/>
+      <c r="G6" s="63" t="s"/>
+      <c r="H6" s="63" t="s"/>
+      <c r="I6" s="63" t="s"/>
+      <c r="J6" s="63" t="s"/>
+      <c r="K6" s="63" t="s"/>
+      <c r="L6" s="63" t="s"/>
+      <c r="M6" s="63" t="s"/>
+      <c r="N6" s="64" t="s"/>
     </row>
     <row r="7" spans="3:14">
-      <c r="C7" s="50" t="s"/>
-      <c r="D7" s="54" t="s"/>
-      <c r="E7" s="55" t="s"/>
-      <c r="F7" s="55" t="s"/>
-      <c r="G7" s="55" t="s"/>
-      <c r="H7" s="55" t="s"/>
-      <c r="I7" s="55" t="s"/>
-      <c r="J7" s="55" t="s"/>
-      <c r="K7" s="55" t="s"/>
-      <c r="L7" s="55" t="s"/>
-      <c r="M7" s="55" t="s"/>
-      <c r="N7" s="56" t="s"/>
+      <c r="C7" s="58" t="s"/>
+      <c r="D7" s="62" t="s"/>
+      <c r="E7" s="63" t="s"/>
+      <c r="F7" s="63" t="s"/>
+      <c r="G7" s="63" t="s"/>
+      <c r="H7" s="63" t="s"/>
+      <c r="I7" s="63" t="s"/>
+      <c r="J7" s="63" t="s"/>
+      <c r="K7" s="63" t="s"/>
+      <c r="L7" s="63" t="s"/>
+      <c r="M7" s="63" t="s"/>
+      <c r="N7" s="64" t="s"/>
     </row>
     <row r="8" spans="3:14">
-      <c r="C8" s="50" t="s"/>
-      <c r="D8" s="54" t="s"/>
-      <c r="E8" s="55" t="s"/>
-      <c r="F8" s="55" t="s"/>
-      <c r="G8" s="55" t="s"/>
-      <c r="H8" s="55" t="s"/>
-      <c r="I8" s="55" t="s"/>
-      <c r="J8" s="55" t="s"/>
-      <c r="K8" s="55" t="s"/>
-      <c r="L8" s="55" t="s"/>
-      <c r="M8" s="55" t="s"/>
-      <c r="N8" s="56" t="s"/>
+      <c r="C8" s="58" t="s"/>
+      <c r="D8" s="62" t="s"/>
+      <c r="E8" s="63" t="s"/>
+      <c r="F8" s="63" t="s"/>
+      <c r="G8" s="63" t="s"/>
+      <c r="H8" s="63" t="s"/>
+      <c r="I8" s="63" t="s"/>
+      <c r="J8" s="63" t="s"/>
+      <c r="K8" s="63" t="s"/>
+      <c r="L8" s="63" t="s"/>
+      <c r="M8" s="63" t="s"/>
+      <c r="N8" s="64" t="s"/>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="50" t="s"/>
-      <c r="D9" s="54" t="s"/>
-      <c r="E9" s="55" t="s"/>
-      <c r="F9" s="55" t="s"/>
-      <c r="G9" s="55" t="s"/>
-      <c r="H9" s="55" t="s"/>
-      <c r="I9" s="55" t="s"/>
-      <c r="J9" s="55" t="s"/>
-      <c r="K9" s="55" t="s"/>
-      <c r="L9" s="55" t="s"/>
-      <c r="M9" s="55" t="s"/>
-      <c r="N9" s="56" t="s"/>
+      <c r="C9" s="58" t="s"/>
+      <c r="D9" s="62" t="s"/>
+      <c r="E9" s="63" t="s"/>
+      <c r="F9" s="63" t="s"/>
+      <c r="G9" s="63" t="s"/>
+      <c r="H9" s="63" t="s"/>
+      <c r="I9" s="63" t="s"/>
+      <c r="J9" s="63" t="s"/>
+      <c r="K9" s="63" t="s"/>
+      <c r="L9" s="63" t="s"/>
+      <c r="M9" s="63" t="s"/>
+      <c r="N9" s="64" t="s"/>
     </row>
     <row r="10" spans="3:14">
-      <c r="C10" s="50" t="s"/>
-      <c r="D10" s="54" t="s"/>
-      <c r="E10" s="55" t="s"/>
-      <c r="F10" s="55" t="s"/>
-      <c r="G10" s="55" t="s"/>
-      <c r="H10" s="55" t="s"/>
-      <c r="I10" s="55" t="s"/>
-      <c r="J10" s="55" t="s"/>
-      <c r="K10" s="55" t="s"/>
-      <c r="L10" s="55" t="s"/>
-      <c r="M10" s="55" t="s"/>
-      <c r="N10" s="56" t="s"/>
+      <c r="C10" s="58" t="s"/>
+      <c r="D10" s="62" t="s"/>
+      <c r="E10" s="63" t="s"/>
+      <c r="F10" s="63" t="s"/>
+      <c r="G10" s="63" t="s"/>
+      <c r="H10" s="63" t="s"/>
+      <c r="I10" s="63" t="s"/>
+      <c r="J10" s="63" t="s"/>
+      <c r="K10" s="63" t="s"/>
+      <c r="L10" s="63" t="s"/>
+      <c r="M10" s="63" t="s"/>
+      <c r="N10" s="64" t="s"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="50" t="s"/>
-      <c r="D11" s="54" t="s"/>
-      <c r="E11" s="55" t="s"/>
-      <c r="F11" s="55" t="s"/>
-      <c r="G11" s="55" t="s"/>
-      <c r="H11" s="55" t="s"/>
-      <c r="I11" s="55" t="s"/>
-      <c r="J11" s="55" t="s"/>
-      <c r="K11" s="55" t="s"/>
-      <c r="L11" s="55" t="s"/>
-      <c r="M11" s="55" t="s"/>
-      <c r="N11" s="56" t="s"/>
+      <c r="C11" s="58" t="s"/>
+      <c r="D11" s="62" t="s"/>
+      <c r="E11" s="63" t="s"/>
+      <c r="F11" s="63" t="s"/>
+      <c r="G11" s="63" t="s"/>
+      <c r="H11" s="63" t="s"/>
+      <c r="I11" s="63" t="s"/>
+      <c r="J11" s="63" t="s"/>
+      <c r="K11" s="63" t="s"/>
+      <c r="L11" s="63" t="s"/>
+      <c r="M11" s="63" t="s"/>
+      <c r="N11" s="64" t="s"/>
     </row>
     <row r="12" spans="3:14">
-      <c r="C12" s="50" t="s"/>
-      <c r="D12" s="54" t="s"/>
-      <c r="E12" s="55" t="s"/>
-      <c r="F12" s="55" t="s"/>
-      <c r="G12" s="55" t="s"/>
-      <c r="H12" s="55" t="s"/>
-      <c r="I12" s="55" t="s"/>
-      <c r="J12" s="55" t="s"/>
-      <c r="K12" s="55" t="s"/>
-      <c r="L12" s="55" t="s"/>
-      <c r="M12" s="55" t="s"/>
-      <c r="N12" s="56" t="s"/>
+      <c r="C12" s="58" t="s"/>
+      <c r="D12" s="62" t="s"/>
+      <c r="E12" s="63" t="s"/>
+      <c r="F12" s="63" t="s"/>
+      <c r="G12" s="63" t="s"/>
+      <c r="H12" s="63" t="s"/>
+      <c r="I12" s="63" t="s"/>
+      <c r="J12" s="63" t="s"/>
+      <c r="K12" s="63" t="s"/>
+      <c r="L12" s="63" t="s"/>
+      <c r="M12" s="63" t="s"/>
+      <c r="N12" s="64" t="s"/>
     </row>
     <row r="13" spans="3:14">
-      <c r="C13" s="50" t="s"/>
-      <c r="D13" s="54" t="s"/>
-      <c r="E13" s="55" t="s"/>
-      <c r="F13" s="55" t="s"/>
-      <c r="G13" s="55" t="s"/>
-      <c r="H13" s="55" t="s"/>
-      <c r="I13" s="55" t="s"/>
-      <c r="J13" s="55" t="s"/>
-      <c r="K13" s="55" t="s"/>
-      <c r="L13" s="55" t="s"/>
-      <c r="M13" s="55" t="s"/>
-      <c r="N13" s="56" t="s"/>
+      <c r="C13" s="58" t="s"/>
+      <c r="D13" s="62" t="s"/>
+      <c r="E13" s="63" t="s"/>
+      <c r="F13" s="63" t="s"/>
+      <c r="G13" s="63" t="s"/>
+      <c r="H13" s="63" t="s"/>
+      <c r="I13" s="63" t="s"/>
+      <c r="J13" s="63" t="s"/>
+      <c r="K13" s="63" t="s"/>
+      <c r="L13" s="63" t="s"/>
+      <c r="M13" s="63" t="s"/>
+      <c r="N13" s="64" t="s"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="50" t="s"/>
-      <c r="D14" s="54" t="s"/>
-      <c r="E14" s="55" t="s"/>
-      <c r="F14" s="55" t="s"/>
-      <c r="G14" s="55" t="s"/>
-      <c r="H14" s="55" t="s"/>
-      <c r="I14" s="55" t="s"/>
-      <c r="J14" s="55" t="s"/>
-      <c r="K14" s="55" t="s"/>
-      <c r="L14" s="55" t="s"/>
-      <c r="M14" s="55" t="s"/>
-      <c r="N14" s="56" t="s"/>
+      <c r="C14" s="58" t="s"/>
+      <c r="D14" s="62" t="s"/>
+      <c r="E14" s="63" t="s"/>
+      <c r="F14" s="63" t="s"/>
+      <c r="G14" s="63" t="s"/>
+      <c r="H14" s="63" t="s"/>
+      <c r="I14" s="63" t="s"/>
+      <c r="J14" s="63" t="s"/>
+      <c r="K14" s="63" t="s"/>
+      <c r="L14" s="63" t="s"/>
+      <c r="M14" s="63" t="s"/>
+      <c r="N14" s="64" t="s"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="50" t="s"/>
-      <c r="D15" s="57" t="s"/>
-      <c r="E15" s="58" t="s"/>
-      <c r="F15" s="58" t="s"/>
-      <c r="G15" s="58" t="s"/>
-      <c r="H15" s="58" t="s"/>
-      <c r="I15" s="58" t="s"/>
-      <c r="J15" s="58" t="s"/>
-      <c r="K15" s="58" t="s"/>
-      <c r="L15" s="58" t="s"/>
-      <c r="M15" s="58" t="s"/>
-      <c r="N15" s="59" t="s"/>
+      <c r="C15" s="58" t="s"/>
+      <c r="D15" s="65" t="s"/>
+      <c r="E15" s="66" t="s"/>
+      <c r="F15" s="66" t="s"/>
+      <c r="G15" s="66" t="s"/>
+      <c r="H15" s="66" t="s"/>
+      <c r="I15" s="66" t="s"/>
+      <c r="J15" s="66" t="s"/>
+      <c r="K15" s="66" t="s"/>
+      <c r="L15" s="66" t="s"/>
+      <c r="M15" s="66" t="s"/>
+      <c r="N15" s="67" t="s"/>
     </row>
     <row r="16" spans="3:14" ht="99" customHeight="true">
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="50" t="s">
+      <c r="F16" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="63" t="s"/>
-      <c r="J16" s="63" t="s"/>
-      <c r="K16" s="63" t="s"/>
-      <c r="L16" s="64" t="s"/>
-      <c r="M16" s="50" t="s">
+      <c r="H16" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="71" t="s"/>
+      <c r="J16" s="71" t="s"/>
+      <c r="K16" s="71" t="s"/>
+      <c r="L16" s="72" t="s"/>
+      <c r="M16" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="65">
+      <c r="N16" s="73">
         <f>=N18*D18+N23*D23+N28*D28+N33*D33+N38*D38</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="50" t="s">
+      <c r="M17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="50" t="s">
+      <c r="N17" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C18" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="66">
+      <c r="C18" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="74">
         <v>0.2</v>
       </c>
-      <c r="E18" s="67" t="s"/>
-      <c r="F18" s="68">
+      <c r="E18" s="75" t="s"/>
+      <c r="F18" s="76">
         <v>44544</v>
       </c>
-      <c r="G18" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="60" t="s"/>
-      <c r="J18" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="65">
+      <c r="G18" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="68" t="s"/>
+      <c r="J18" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="73">
         <v>0.1</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="74">
         <f>=MAX(M18:M21)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C19" s="60" t="s"/>
-      <c r="D19" s="69" t="s"/>
-      <c r="E19" s="60" t="s"/>
-      <c r="F19" s="68">
+      <c r="C19" s="68" t="s"/>
+      <c r="D19" s="77" t="s"/>
+      <c r="E19" s="68" t="s"/>
+      <c r="F19" s="76">
         <v>44545</v>
       </c>
-      <c r="G19" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="65">
+      <c r="G19" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="73">
         <v>0.45</v>
       </c>
-      <c r="N19" s="66" t="s"/>
+      <c r="N19" s="74" t="s"/>
     </row>
     <row r="20" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C20" s="60" t="s"/>
-      <c r="D20" s="69" t="s"/>
-      <c r="E20" s="60" t="s"/>
-      <c r="F20" s="68">
+      <c r="C20" s="68" t="s"/>
+      <c r="D20" s="77" t="s"/>
+      <c r="E20" s="68" t="s"/>
+      <c r="F20" s="76">
         <v>44546</v>
       </c>
-      <c r="G20" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" s="65">
+      <c r="G20" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="73">
         <v>1</v>
       </c>
-      <c r="N20" s="66" t="s"/>
+      <c r="N20" s="74" t="s"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="60" t="s"/>
-      <c r="D21" s="69" t="s"/>
-      <c r="E21" s="60" t="s"/>
-      <c r="F21" s="68">
+      <c r="C21" s="68" t="s"/>
+      <c r="D21" s="77" t="s"/>
+      <c r="E21" s="68" t="s"/>
+      <c r="F21" s="76">
         <v>44547</v>
       </c>
-      <c r="G21" s="60" t="s"/>
-      <c r="H21" s="60" t="s"/>
-      <c r="I21" s="60" t="s"/>
-      <c r="J21" s="60" t="s"/>
-      <c r="K21" s="60" t="s"/>
-      <c r="L21" s="60" t="s"/>
-      <c r="M21" s="60" t="s"/>
-      <c r="N21" s="66" t="s"/>
+      <c r="G21" s="68" t="s"/>
+      <c r="H21" s="68" t="s"/>
+      <c r="I21" s="68" t="s"/>
+      <c r="J21" s="68" t="s"/>
+      <c r="K21" s="68" t="s"/>
+      <c r="L21" s="68" t="s"/>
+      <c r="M21" s="68" t="s"/>
+      <c r="N21" s="74" t="s"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="60" t="s"/>
-      <c r="D22" s="69" t="s"/>
-      <c r="E22" s="60" t="s"/>
-      <c r="F22" s="68">
+      <c r="C22" s="68" t="s"/>
+      <c r="D22" s="77" t="s"/>
+      <c r="E22" s="68" t="s"/>
+      <c r="F22" s="76">
         <v>44548</v>
       </c>
-      <c r="G22" s="60" t="s"/>
-      <c r="H22" s="60" t="s"/>
-      <c r="I22" s="60" t="s"/>
-      <c r="J22" s="60" t="s"/>
-      <c r="K22" s="60" t="s"/>
-      <c r="L22" s="60" t="s"/>
-      <c r="M22" s="60" t="s"/>
-      <c r="N22" s="66" t="s"/>
+      <c r="G22" s="68" t="s"/>
+      <c r="H22" s="68" t="s"/>
+      <c r="I22" s="68" t="s"/>
+      <c r="J22" s="68" t="s"/>
+      <c r="K22" s="68" t="s"/>
+      <c r="L22" s="68" t="s"/>
+      <c r="M22" s="68" t="s"/>
+      <c r="N22" s="74" t="s"/>
     </row>
     <row r="23" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C23" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="66">
+      <c r="C23" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="74">
         <v>0.2</v>
       </c>
-      <c r="E23" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="68">
+      <c r="E23" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="76">
         <v>44544</v>
       </c>
-      <c r="G23" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="60" t="s"/>
-      <c r="J23" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="65">
+      <c r="G23" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="68" t="s"/>
+      <c r="J23" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="73">
         <v>0.1</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="74">
         <f>=MAX(M23:M26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C24" s="60" t="s"/>
-      <c r="D24" s="69" t="s"/>
-      <c r="E24" s="60" t="s"/>
-      <c r="F24" s="68">
+      <c r="C24" s="68" t="s"/>
+      <c r="D24" s="77" t="s"/>
+      <c r="E24" s="68" t="s"/>
+      <c r="F24" s="76">
         <v>44545</v>
       </c>
-      <c r="G24" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M24" s="65">
+      <c r="G24" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="73">
         <v>0.45</v>
       </c>
-      <c r="N24" s="66" t="s"/>
+      <c r="N24" s="74" t="s"/>
     </row>
     <row r="25" spans="3:14" ht="27.6" customHeight="true">
-      <c r="C25" s="60" t="s"/>
-      <c r="D25" s="69" t="s"/>
-      <c r="E25" s="60" t="s"/>
-      <c r="F25" s="68">
+      <c r="C25" s="68" t="s"/>
+      <c r="D25" s="77" t="s"/>
+      <c r="E25" s="68" t="s"/>
+      <c r="F25" s="76">
         <v>44546</v>
       </c>
-      <c r="G25" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="60" t="s"/>
-      <c r="K25" s="60" t="s"/>
-      <c r="L25" s="60" t="s"/>
-      <c r="M25" s="65">
+      <c r="G25" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="68" t="s"/>
+      <c r="K25" s="68" t="s"/>
+      <c r="L25" s="68" t="s"/>
+      <c r="M25" s="73">
         <v>1</v>
       </c>
-      <c r="N25" s="66" t="s"/>
+      <c r="N25" s="74" t="s"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="60" t="s"/>
-      <c r="D26" s="69" t="s"/>
-      <c r="E26" s="60" t="s"/>
-      <c r="F26" s="68">
+      <c r="C26" s="68" t="s"/>
+      <c r="D26" s="77" t="s"/>
+      <c r="E26" s="68" t="s"/>
+      <c r="F26" s="76">
         <v>44547</v>
       </c>
-      <c r="G26" s="60" t="s"/>
-      <c r="H26" s="60" t="s"/>
-      <c r="I26" s="60" t="s"/>
-      <c r="J26" s="60" t="s"/>
-      <c r="K26" s="60" t="s"/>
-      <c r="L26" s="60" t="s"/>
-      <c r="M26" s="60" t="s"/>
-      <c r="N26" s="66" t="s"/>
+      <c r="G26" s="68" t="s"/>
+      <c r="H26" s="68" t="s"/>
+      <c r="I26" s="68" t="s"/>
+      <c r="J26" s="68" t="s"/>
+      <c r="K26" s="68" t="s"/>
+      <c r="L26" s="68" t="s"/>
+      <c r="M26" s="68" t="s"/>
+      <c r="N26" s="74" t="s"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="60" t="s"/>
-      <c r="D27" s="69" t="s"/>
-      <c r="E27" s="60" t="s"/>
-      <c r="F27" s="68">
+      <c r="C27" s="68" t="s"/>
+      <c r="D27" s="77" t="s"/>
+      <c r="E27" s="68" t="s"/>
+      <c r="F27" s="76">
         <v>44548</v>
       </c>
-      <c r="G27" s="60" t="s"/>
-      <c r="H27" s="60" t="s"/>
-      <c r="I27" s="60" t="s"/>
-      <c r="J27" s="60" t="s"/>
-      <c r="K27" s="60" t="s"/>
-      <c r="L27" s="60" t="s"/>
-      <c r="M27" s="60" t="s"/>
-      <c r="N27" s="66" t="s"/>
+      <c r="G27" s="68" t="s"/>
+      <c r="H27" s="68" t="s"/>
+      <c r="I27" s="68" t="s"/>
+      <c r="J27" s="68" t="s"/>
+      <c r="K27" s="68" t="s"/>
+      <c r="L27" s="68" t="s"/>
+      <c r="M27" s="68" t="s"/>
+      <c r="N27" s="74" t="s"/>
     </row>
     <row r="28" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C28" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="66">
+      <c r="C28" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="74">
         <v>0.3</v>
       </c>
-      <c r="E28" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="68">
+      <c r="E28" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="76">
         <v>44544</v>
       </c>
-      <c r="G28" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="60" t="s"/>
-      <c r="J28" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L28" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="M28" s="65">
+      <c r="G28" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="68" t="s"/>
+      <c r="J28" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="73">
         <v>0.1</v>
       </c>
-      <c r="N28" s="66">
+      <c r="N28" s="74">
         <f>=MAX(M28:M31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C29" s="60" t="s"/>
-      <c r="D29" s="69" t="s"/>
-      <c r="E29" s="60" t="s"/>
-      <c r="F29" s="68">
+      <c r="C29" s="68" t="s"/>
+      <c r="D29" s="77" t="s"/>
+      <c r="E29" s="68" t="s"/>
+      <c r="F29" s="76">
         <v>44545</v>
       </c>
-      <c r="G29" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M29" s="65">
+      <c r="G29" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="73">
         <v>0.45</v>
       </c>
-      <c r="N29" s="66" t="s"/>
+      <c r="N29" s="74" t="s"/>
     </row>
     <row r="30" spans="3:14" ht="41.4" customHeight="true">
-      <c r="C30" s="60" t="s"/>
-      <c r="D30" s="69" t="s"/>
-      <c r="E30" s="60" t="s"/>
-      <c r="F30" s="68">
+      <c r="C30" s="68" t="s"/>
+      <c r="D30" s="77" t="s"/>
+      <c r="E30" s="68" t="s"/>
+      <c r="F30" s="76">
         <v>44546</v>
       </c>
-      <c r="G30" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J30" s="60" t="s"/>
-      <c r="K30" s="60" t="s"/>
-      <c r="L30" s="60" t="s"/>
-      <c r="M30" s="65">
+      <c r="G30" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="68" t="s"/>
+      <c r="K30" s="68" t="s"/>
+      <c r="L30" s="68" t="s"/>
+      <c r="M30" s="73">
         <v>1</v>
       </c>
-      <c r="N30" s="66" t="s"/>
+      <c r="N30" s="74" t="s"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="60" t="s"/>
-      <c r="D31" s="69" t="s"/>
-      <c r="E31" s="60" t="s"/>
-      <c r="F31" s="68">
+      <c r="C31" s="68" t="s"/>
+      <c r="D31" s="77" t="s"/>
+      <c r="E31" s="68" t="s"/>
+      <c r="F31" s="76">
         <v>44547</v>
       </c>
-      <c r="G31" s="60" t="s"/>
-      <c r="H31" s="60" t="s"/>
-      <c r="I31" s="60" t="s"/>
-      <c r="J31" s="60" t="s"/>
-      <c r="K31" s="60" t="s"/>
-      <c r="L31" s="60" t="s"/>
-      <c r="M31" s="60" t="s"/>
-      <c r="N31" s="66" t="s"/>
+      <c r="G31" s="68" t="s"/>
+      <c r="H31" s="68" t="s"/>
+      <c r="I31" s="68" t="s"/>
+      <c r="J31" s="68" t="s"/>
+      <c r="K31" s="68" t="s"/>
+      <c r="L31" s="68" t="s"/>
+      <c r="M31" s="68" t="s"/>
+      <c r="N31" s="74" t="s"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="60" t="s"/>
-      <c r="D32" s="69" t="s"/>
-      <c r="E32" s="60" t="s"/>
-      <c r="F32" s="68">
+      <c r="C32" s="68" t="s"/>
+      <c r="D32" s="77" t="s"/>
+      <c r="E32" s="68" t="s"/>
+      <c r="F32" s="76">
         <v>44548</v>
       </c>
-      <c r="G32" s="60" t="s"/>
-      <c r="H32" s="60" t="s"/>
-      <c r="I32" s="60" t="s"/>
-      <c r="J32" s="60" t="s"/>
-      <c r="K32" s="60" t="s"/>
-      <c r="L32" s="60" t="s"/>
-      <c r="M32" s="60" t="s"/>
-      <c r="N32" s="66" t="s"/>
+      <c r="G32" s="68" t="s"/>
+      <c r="H32" s="68" t="s"/>
+      <c r="I32" s="68" t="s"/>
+      <c r="J32" s="68" t="s"/>
+      <c r="K32" s="68" t="s"/>
+      <c r="L32" s="68" t="s"/>
+      <c r="M32" s="68" t="s"/>
+      <c r="N32" s="74" t="s"/>
     </row>
     <row r="33" spans="3:14" ht="14.25" customHeight="true">
-      <c r="C33" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="66">
+      <c r="C33" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="74">
         <v>0.2</v>
       </c>
-      <c r="E33" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="68">
+      <c r="E33" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="76">
         <v>44544</v>
       </c>
-      <c r="G33" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="67" t="s"/>
-      <c r="J33" s="60" t="s"/>
-      <c r="K33" s="60" t="s"/>
-      <c r="L33" s="60" t="s"/>
-      <c r="M33" s="65">
+      <c r="G33" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="75" t="s"/>
+      <c r="J33" s="68" t="s"/>
+      <c r="K33" s="68" t="s"/>
+      <c r="L33" s="68" t="s"/>
+      <c r="M33" s="73">
         <v>0.1</v>
       </c>
-      <c r="N33" s="66">
+      <c r="N33" s="74">
         <f>=MAX(M33:M36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:14">
-      <c r="C34" s="60" t="s"/>
-      <c r="D34" s="69" t="s"/>
-      <c r="E34" s="67" t="s"/>
-      <c r="F34" s="68">
+      <c r="C34" s="68" t="s"/>
+      <c r="D34" s="77" t="s"/>
+      <c r="E34" s="75" t="s"/>
+      <c r="F34" s="76">
         <v>44545</v>
       </c>
-      <c r="G34" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="60" t="s"/>
-      <c r="I34" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34" s="60" t="s"/>
-      <c r="K34" s="60" t="s"/>
-      <c r="L34" s="60" t="s"/>
-      <c r="M34" s="65">
+      <c r="G34" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="68" t="s"/>
+      <c r="I34" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="68" t="s"/>
+      <c r="K34" s="68" t="s"/>
+      <c r="L34" s="68" t="s"/>
+      <c r="M34" s="73">
         <v>0.45</v>
       </c>
-      <c r="N34" s="66" t="s"/>
+      <c r="N34" s="74" t="s"/>
     </row>
     <row r="35" spans="3:14">
-      <c r="C35" s="60" t="s"/>
-      <c r="D35" s="69" t="s"/>
-      <c r="E35" s="67" t="s"/>
-      <c r="F35" s="68">
+      <c r="C35" s="68" t="s"/>
+      <c r="D35" s="77" t="s"/>
+      <c r="E35" s="75" t="s"/>
+      <c r="F35" s="76">
         <v>44546</v>
       </c>
-      <c r="G35" s="60" t="s"/>
-      <c r="H35" s="60" t="s"/>
-      <c r="I35" s="60" t="s"/>
-      <c r="J35" s="60" t="s"/>
-      <c r="K35" s="60" t="s"/>
-      <c r="L35" s="60" t="s"/>
-      <c r="M35" s="65">
+      <c r="G35" s="68" t="s"/>
+      <c r="H35" s="68" t="s"/>
+      <c r="I35" s="68" t="s"/>
+      <c r="J35" s="68" t="s"/>
+      <c r="K35" s="68" t="s"/>
+      <c r="L35" s="68" t="s"/>
+      <c r="M35" s="73">
         <v>1</v>
       </c>
-      <c r="N35" s="66" t="s"/>
+      <c r="N35" s="74" t="s"/>
     </row>
     <row r="36" spans="3:14">
-      <c r="C36" s="60" t="s"/>
-      <c r="D36" s="69" t="s"/>
-      <c r="E36" s="67" t="s"/>
-      <c r="F36" s="68">
+      <c r="C36" s="68" t="s"/>
+      <c r="D36" s="77" t="s"/>
+      <c r="E36" s="75" t="s"/>
+      <c r="F36" s="76">
         <v>44547</v>
       </c>
-      <c r="G36" s="60" t="s"/>
-      <c r="H36" s="60" t="s"/>
-      <c r="I36" s="60" t="s"/>
-      <c r="J36" s="60" t="s"/>
-      <c r="K36" s="60" t="s"/>
-      <c r="L36" s="60" t="s"/>
-      <c r="M36" s="60" t="s"/>
-      <c r="N36" s="66" t="s"/>
+      <c r="G36" s="68" t="s"/>
+      <c r="H36" s="68" t="s"/>
+      <c r="I36" s="68" t="s"/>
+      <c r="J36" s="68" t="s"/>
+      <c r="K36" s="68" t="s"/>
+      <c r="L36" s="68" t="s"/>
+      <c r="M36" s="68" t="s"/>
+      <c r="N36" s="74" t="s"/>
     </row>
     <row r="37" spans="3:14">
-      <c r="C37" s="60" t="s"/>
-      <c r="D37" s="69" t="s"/>
-      <c r="E37" s="67" t="s"/>
-      <c r="F37" s="68">
+      <c r="C37" s="68" t="s"/>
+      <c r="D37" s="77" t="s"/>
+      <c r="E37" s="75" t="s"/>
+      <c r="F37" s="76">
         <v>44548</v>
       </c>
-      <c r="G37" s="60" t="s"/>
-      <c r="H37" s="60" t="s"/>
-      <c r="I37" s="60" t="s"/>
-      <c r="J37" s="60" t="s"/>
-      <c r="K37" s="60" t="s"/>
-      <c r="L37" s="60" t="s"/>
-      <c r="M37" s="60" t="s"/>
-      <c r="N37" s="66" t="s"/>
+      <c r="G37" s="68" t="s"/>
+      <c r="H37" s="68" t="s"/>
+      <c r="I37" s="68" t="s"/>
+      <c r="J37" s="68" t="s"/>
+      <c r="K37" s="68" t="s"/>
+      <c r="L37" s="68" t="s"/>
+      <c r="M37" s="68" t="s"/>
+      <c r="N37" s="74" t="s"/>
     </row>
     <row r="38" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C38" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="66">
+      <c r="C38" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="74">
         <v>0.1</v>
       </c>
-      <c r="E38" s="60" t="s"/>
-      <c r="F38" s="68">
+      <c r="E38" s="68" t="s"/>
+      <c r="F38" s="76">
         <v>44544</v>
       </c>
-      <c r="G38" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L38" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="M38" s="65">
+      <c r="G38" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="73">
         <v>0.1</v>
       </c>
-      <c r="N38" s="66">
+      <c r="N38" s="74">
         <f>=MAX(M38:M41)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="55.2" customHeight="true">
-      <c r="C39" s="60" t="s"/>
-      <c r="D39" s="69" t="s"/>
-      <c r="E39" s="60" t="s"/>
-      <c r="F39" s="68">
+      <c r="C39" s="68" t="s"/>
+      <c r="D39" s="77" t="s"/>
+      <c r="E39" s="68" t="s"/>
+      <c r="F39" s="76">
         <v>44545</v>
       </c>
-      <c r="G39" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L39" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M39" s="65">
+      <c r="G39" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="73">
         <v>0.45</v>
       </c>
-      <c r="N39" s="66" t="s"/>
+      <c r="N39" s="74" t="s"/>
     </row>
     <row r="40" spans="3:14">
-      <c r="C40" s="60" t="s"/>
-      <c r="D40" s="69" t="s"/>
-      <c r="E40" s="60" t="s"/>
-      <c r="F40" s="68">
+      <c r="C40" s="68" t="s"/>
+      <c r="D40" s="77" t="s"/>
+      <c r="E40" s="68" t="s"/>
+      <c r="F40" s="76">
         <v>44546</v>
       </c>
-      <c r="G40" s="60" t="s"/>
-      <c r="H40" s="60" t="s"/>
-      <c r="I40" s="60" t="s"/>
-      <c r="J40" s="60" t="s"/>
-      <c r="K40" s="60" t="s"/>
-      <c r="L40" s="60" t="s"/>
-      <c r="M40" s="65">
+      <c r="G40" s="68" t="s"/>
+      <c r="H40" s="68" t="s"/>
+      <c r="I40" s="68" t="s"/>
+      <c r="J40" s="68" t="s"/>
+      <c r="K40" s="68" t="s"/>
+      <c r="L40" s="68" t="s"/>
+      <c r="M40" s="73">
         <v>1</v>
       </c>
-      <c r="N40" s="66" t="s"/>
+      <c r="N40" s="74" t="s"/>
     </row>
     <row r="41" spans="3:14">
-      <c r="C41" s="60" t="s"/>
-      <c r="D41" s="69" t="s"/>
-      <c r="E41" s="60" t="s"/>
-      <c r="F41" s="68">
+      <c r="C41" s="68" t="s"/>
+      <c r="D41" s="77" t="s"/>
+      <c r="E41" s="68" t="s"/>
+      <c r="F41" s="76">
         <v>44547</v>
       </c>
-      <c r="G41" s="60" t="s"/>
-      <c r="H41" s="60" t="s"/>
-      <c r="I41" s="60" t="s"/>
-      <c r="J41" s="60" t="s"/>
-      <c r="K41" s="60" t="s"/>
-      <c r="L41" s="60" t="s"/>
-      <c r="M41" s="60" t="s"/>
-      <c r="N41" s="66" t="s"/>
+      <c r="G41" s="68" t="s"/>
+      <c r="H41" s="68" t="s"/>
+      <c r="I41" s="68" t="s"/>
+      <c r="J41" s="68" t="s"/>
+      <c r="K41" s="68" t="s"/>
+      <c r="L41" s="68" t="s"/>
+      <c r="M41" s="68" t="s"/>
+      <c r="N41" s="74" t="s"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="60" t="s"/>
-      <c r="D42" s="69" t="s"/>
-      <c r="E42" s="60" t="s"/>
-      <c r="F42" s="68">
+      <c r="C42" s="68" t="s"/>
+      <c r="D42" s="77" t="s"/>
+      <c r="E42" s="68" t="s"/>
+      <c r="F42" s="76">
         <v>44548</v>
       </c>
-      <c r="G42" s="60" t="s"/>
-      <c r="H42" s="60" t="s"/>
-      <c r="I42" s="60" t="s"/>
-      <c r="J42" s="60" t="s"/>
-      <c r="K42" s="60" t="s"/>
-      <c r="L42" s="60" t="s"/>
-      <c r="M42" s="60" t="s"/>
-      <c r="N42" s="66" t="s"/>
+      <c r="G42" s="68" t="s"/>
+      <c r="H42" s="68" t="s"/>
+      <c r="I42" s="68" t="s"/>
+      <c r="J42" s="68" t="s"/>
+      <c r="K42" s="68" t="s"/>
+      <c r="L42" s="68" t="s"/>
+      <c r="M42" s="68" t="s"/>
+      <c r="N42" s="74" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">
